--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="371">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,12 @@
     <t>['20', '57']</t>
   </si>
   <si>
+    <t>['12', '25', '52']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1112,6 +1118,15 @@
   </si>
   <si>
     <t>['72', '90']</t>
+  </si>
+  <si>
+    <t>['16', '62', '82']</t>
+  </si>
+  <si>
+    <t>['5', '21']</t>
+  </si>
+  <si>
+    <t>['21', '77', '84']</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1810,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ2">
         <v>0.73</v>
@@ -1938,7 +1953,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2431,7 +2446,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2556,7 +2571,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2634,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ6">
         <v>1.4</v>
@@ -2843,7 +2858,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ7">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2968,7 +2983,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3049,7 +3064,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ8">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3255,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3458,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ10">
         <v>1.27</v>
@@ -3586,7 +3601,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3792,7 +3807,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4204,7 +4219,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4282,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
         <v>2.27</v>
@@ -4900,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ17">
         <v>1.13</v>
@@ -5028,7 +5043,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5109,7 +5124,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ18">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5234,7 +5249,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5440,7 +5455,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5646,7 +5661,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6345,7 +6360,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ24">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>2.62</v>
@@ -6548,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -6754,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR26">
         <v>0.6</v>
@@ -7169,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR28">
         <v>1.72</v>
@@ -7294,7 +7309,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7375,7 +7390,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR29">
         <v>1.3</v>
@@ -7500,7 +7515,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7706,7 +7721,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8196,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ33">
         <v>1.73</v>
@@ -8402,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ34">
         <v>0.87</v>
@@ -8814,7 +8829,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ36">
         <v>1.27</v>
@@ -9023,7 +9038,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ37">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -9148,7 +9163,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9226,7 +9241,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
         <v>2.27</v>
@@ -9354,7 +9369,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9435,7 +9450,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR39">
         <v>1.27</v>
@@ -9766,7 +9781,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9847,7 +9862,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ41">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9972,7 +9987,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10178,7 +10193,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10462,7 +10477,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44">
         <v>0.6</v>
@@ -10590,7 +10605,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10796,7 +10811,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11002,7 +11017,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11080,10 +11095,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR47">
         <v>1.27</v>
@@ -11208,7 +11223,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11495,7 +11510,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ49">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11620,7 +11635,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11698,7 +11713,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ50">
         <v>1.73</v>
@@ -12032,7 +12047,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12522,7 +12537,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ54">
         <v>0.6</v>
@@ -12650,7 +12665,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12731,7 +12746,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ55">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12856,7 +12871,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12934,7 +12949,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ56">
         <v>2.27</v>
@@ -13143,7 +13158,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ57">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13268,7 +13283,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13474,7 +13489,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13555,7 +13570,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR59">
         <v>2.26</v>
@@ -14997,7 +15012,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -15406,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68">
         <v>0.6</v>
@@ -15612,7 +15627,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ69">
         <v>1.07</v>
@@ -15946,7 +15961,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16024,7 +16039,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16152,7 +16167,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16233,7 +16248,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ72">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR72">
         <v>2.36</v>
@@ -16564,7 +16579,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16645,7 +16660,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR74">
         <v>1.21</v>
@@ -16770,7 +16785,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16848,7 +16863,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
         <v>1.07</v>
@@ -16976,7 +16991,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17057,7 +17072,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ76">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR76">
         <v>1.15</v>
@@ -17182,7 +17197,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17800,7 +17815,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18006,7 +18021,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18212,7 +18227,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18290,10 +18305,10 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ82">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR82">
         <v>2.06</v>
@@ -18418,7 +18433,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18624,7 +18639,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18705,7 +18720,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ84">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR84">
         <v>1.17</v>
@@ -18830,7 +18845,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19036,7 +19051,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19320,10 +19335,10 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ87">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19448,7 +19463,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19526,10 +19541,10 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -19938,7 +19953,7 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ90">
         <v>1.4</v>
@@ -20066,7 +20081,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20147,7 +20162,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR91">
         <v>1.03</v>
@@ -20272,7 +20287,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20556,7 +20571,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
         <v>0.6</v>
@@ -20890,7 +20905,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21508,7 +21523,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22001,7 +22016,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ100">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>1.15</v>
@@ -22126,7 +22141,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22207,7 +22222,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ101">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22410,7 +22425,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22538,7 +22553,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22616,7 +22631,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ103">
         <v>1.4</v>
@@ -22822,7 +22837,7 @@
         <v>1.6</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ104">
         <v>1.27</v>
@@ -22950,7 +22965,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23028,10 +23043,10 @@
         <v>1.75</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR105">
         <v>0.97</v>
@@ -23237,7 +23252,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23440,10 +23455,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ107">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23980,7 +23995,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -25709,7 +25724,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ118">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR118">
         <v>1.14</v>
@@ -25912,10 +25927,10 @@
         <v>0.86</v>
       </c>
       <c r="AP119">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ119">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26040,7 +26055,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26118,7 +26133,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26324,7 +26339,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ121">
         <v>1.4</v>
@@ -26533,7 +26548,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR122">
         <v>1.11</v>
@@ -26658,7 +26673,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26736,7 +26751,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
         <v>1.07</v>
@@ -26864,7 +26879,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27151,7 +27166,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ125">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27276,7 +27291,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27482,7 +27497,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27560,10 +27575,10 @@
         <v>1.83</v>
       </c>
       <c r="AP127">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ127">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR127">
         <v>1.37</v>
@@ -27688,7 +27703,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27894,7 +27909,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28306,7 +28321,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28512,7 +28527,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28593,7 +28608,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ132">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR132">
         <v>1.35</v>
@@ -28924,7 +28939,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29002,7 +29017,7 @@
         <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ134">
         <v>0.6</v>
@@ -29620,10 +29635,10 @@
         <v>0.63</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ137">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -29748,7 +29763,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>3.2</v>
@@ -29829,7 +29844,7 @@
         <v>1</v>
       </c>
       <c r="AQ138">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -29954,7 +29969,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30032,10 +30047,10 @@
         <v>0.75</v>
       </c>
       <c r="AP139">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR139">
         <v>1.09</v>
@@ -30366,7 +30381,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30572,7 +30587,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30778,7 +30793,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31062,10 +31077,10 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ144">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR144">
         <v>2.11</v>
@@ -31190,7 +31205,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31396,7 +31411,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31474,7 +31489,7 @@
         <v>2.38</v>
       </c>
       <c r="AP146">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ146">
         <v>2.27</v>
@@ -31808,7 +31823,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -31889,7 +31904,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ148">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR148">
         <v>2.01</v>
@@ -32014,7 +32029,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32426,7 +32441,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32632,7 +32647,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32838,7 +32853,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33122,7 +33137,7 @@
         <v>1.86</v>
       </c>
       <c r="AP154">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ154">
         <v>1.73</v>
@@ -33456,7 +33471,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33662,7 +33677,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33868,7 +33883,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -33946,7 +33961,7 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ158">
         <v>1.07</v>
@@ -34074,7 +34089,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34152,7 +34167,7 @@
         <v>0.63</v>
       </c>
       <c r="AP159">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ159">
         <v>0.6</v>
@@ -34486,7 +34501,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34567,7 +34582,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ161">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR161">
         <v>1.17</v>
@@ -34692,7 +34707,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34898,7 +34913,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35182,10 +35197,10 @@
         <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ164">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR164">
         <v>1.09</v>
@@ -35310,7 +35325,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35597,7 +35612,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ166">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR166">
         <v>1.12</v>
@@ -35803,7 +35818,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ167">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR167">
         <v>1.21</v>
@@ -36006,7 +36021,7 @@
         <v>0.33</v>
       </c>
       <c r="AP168">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ168">
         <v>0.6</v>
@@ -36212,7 +36227,7 @@
         <v>1.11</v>
       </c>
       <c r="AP169">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169">
         <v>1.27</v>
@@ -36340,7 +36355,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36833,7 +36848,7 @@
         <v>1</v>
       </c>
       <c r="AQ172">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR172">
         <v>1.24</v>
@@ -36958,7 +36973,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37370,7 +37385,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37448,7 +37463,7 @@
         <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ175">
         <v>1.07</v>
@@ -37576,7 +37591,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -37860,7 +37875,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP177">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ177">
         <v>0.6</v>
@@ -38066,7 +38081,7 @@
         <v>0.8</v>
       </c>
       <c r="AP178">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ178">
         <v>0.87</v>
@@ -38194,7 +38209,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38275,7 +38290,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ179">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR179">
         <v>1.18</v>
@@ -38400,7 +38415,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38481,7 +38496,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ180">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38606,7 +38621,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38812,7 +38827,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39224,7 +39239,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39305,7 +39320,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ184">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR184">
         <v>2.05</v>
@@ -39636,7 +39651,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39714,7 +39729,7 @@
         <v>0.9</v>
       </c>
       <c r="AP186">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -40129,7 +40144,7 @@
         <v>2</v>
       </c>
       <c r="AQ188">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR188">
         <v>1.68</v>
@@ -40335,7 +40350,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ189">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR189">
         <v>1.19</v>
@@ -40538,7 +40553,7 @@
         <v>0.7</v>
       </c>
       <c r="AP190">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ190">
         <v>0.73</v>
@@ -40747,7 +40762,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ191">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR191">
         <v>1.28</v>
@@ -40872,7 +40887,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41078,7 +41093,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41156,7 +41171,7 @@
         <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ193">
         <v>1.13</v>
@@ -41365,7 +41380,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ194">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR194">
         <v>1.46</v>
@@ -41490,7 +41505,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41568,7 +41583,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ195">
         <v>1.07</v>
@@ -41902,7 +41917,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42186,10 +42201,10 @@
         <v>2.5</v>
       </c>
       <c r="AP198">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ198">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR198">
         <v>1.47</v>
@@ -42314,7 +42329,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42807,7 +42822,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ201">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR201">
         <v>1.24</v>
@@ -43138,7 +43153,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43216,7 +43231,7 @@
         <v>0.73</v>
       </c>
       <c r="AP203">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ203">
         <v>0.73</v>
@@ -43550,7 +43565,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43628,7 +43643,7 @@
         <v>0.73</v>
       </c>
       <c r="AP205">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ205">
         <v>0.87</v>
@@ -43756,7 +43771,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44043,7 +44058,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ207">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR207">
         <v>1.11</v>
@@ -44168,7 +44183,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44452,7 +44467,7 @@
         <v>1.45</v>
       </c>
       <c r="AP209">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
         <v>1.27</v>
@@ -44580,7 +44595,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -44658,7 +44673,7 @@
         <v>1.55</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ210">
         <v>1.73</v>
@@ -44864,7 +44879,7 @@
         <v>1.27</v>
       </c>
       <c r="AP211">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ211">
         <v>1.07</v>
@@ -45073,7 +45088,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ212">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR212">
         <v>1.24</v>
@@ -45610,7 +45625,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -45691,7 +45706,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ215">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR215">
         <v>1.31</v>
@@ -45894,7 +45909,7 @@
         <v>1.18</v>
       </c>
       <c r="AP216">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ216">
         <v>1.13</v>
@@ -46022,7 +46037,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46103,7 +46118,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ217">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR217">
         <v>1.16</v>
@@ -46228,7 +46243,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46434,7 +46449,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -46512,7 +46527,7 @@
         <v>0.75</v>
       </c>
       <c r="AP219">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ219">
         <v>0.87</v>
@@ -47052,7 +47067,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47133,7 +47148,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ222">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR222">
         <v>1.43</v>
@@ -47258,7 +47273,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47464,7 +47479,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47876,7 +47891,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -47957,7 +47972,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ226">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR226">
         <v>1.35</v>
@@ -48494,7 +48509,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48572,7 +48587,7 @@
         <v>1.33</v>
       </c>
       <c r="AP229">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ229">
         <v>1.27</v>
@@ -48700,7 +48715,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q230">
         <v>2.63</v>
@@ -48778,7 +48793,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ230">
         <v>1.13</v>
@@ -48906,7 +48921,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -48984,7 +48999,7 @@
         <v>1.17</v>
       </c>
       <c r="AP231">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ231">
         <v>1.07</v>
@@ -49112,7 +49127,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49193,7 +49208,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ232">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR232">
         <v>1.33</v>
@@ -49602,10 +49617,10 @@
         <v>0.58</v>
       </c>
       <c r="AP234">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ234">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR234">
         <v>1.56</v>
@@ -49730,7 +49745,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49811,7 +49826,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ235">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR235">
         <v>1.26</v>
@@ -49936,7 +49951,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50142,7 +50157,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50348,7 +50363,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50966,7 +50981,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51044,7 +51059,7 @@
         <v>1.54</v>
       </c>
       <c r="AP241">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ241">
         <v>1.73</v>
@@ -51172,7 +51187,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51378,7 +51393,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51459,7 +51474,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ243">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR243">
         <v>1.27</v>
@@ -51584,7 +51599,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51790,7 +51805,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -51996,7 +52011,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52074,7 +52089,7 @@
         <v>1.23</v>
       </c>
       <c r="AP246">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ246">
         <v>1.27</v>
@@ -52280,7 +52295,7 @@
         <v>1.54</v>
       </c>
       <c r="AP247">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ247">
         <v>1.4</v>
@@ -52408,7 +52423,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52489,7 +52504,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ248">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR248">
         <v>1.24</v>
@@ -52692,10 +52707,10 @@
         <v>0.54</v>
       </c>
       <c r="AP249">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ249">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR249">
         <v>1.45</v>
@@ -52820,7 +52835,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -52901,7 +52916,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ250">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR250">
         <v>2.02</v>
@@ -53438,7 +53453,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53516,10 +53531,10 @@
         <v>2.23</v>
       </c>
       <c r="AP253">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ253">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR253">
         <v>2.13</v>
@@ -53850,7 +53865,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54468,7 +54483,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -55086,7 +55101,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55292,7 +55307,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55498,7 +55513,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55704,7 +55719,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56066,6 +56081,1242 @@
         <v>0</v>
       </c>
       <c r="BP265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7574827</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45765.6875</v>
+      </c>
+      <c r="F266">
+        <v>30</v>
+      </c>
+      <c r="G266" t="s">
+        <v>70</v>
+      </c>
+      <c r="H266" t="s">
+        <v>84</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>3</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>4</v>
+      </c>
+      <c r="O266" t="s">
+        <v>251</v>
+      </c>
+      <c r="P266" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q266">
+        <v>1.8</v>
+      </c>
+      <c r="R266">
+        <v>2.5</v>
+      </c>
+      <c r="S266">
+        <v>9</v>
+      </c>
+      <c r="T266">
+        <v>1.33</v>
+      </c>
+      <c r="U266">
+        <v>3.25</v>
+      </c>
+      <c r="V266">
+        <v>2.63</v>
+      </c>
+      <c r="W266">
+        <v>1.44</v>
+      </c>
+      <c r="X266">
+        <v>6.5</v>
+      </c>
+      <c r="Y266">
+        <v>1.11</v>
+      </c>
+      <c r="Z266">
+        <v>1.24</v>
+      </c>
+      <c r="AA266">
+        <v>5.3</v>
+      </c>
+      <c r="AB266">
+        <v>11</v>
+      </c>
+      <c r="AC266">
+        <v>0</v>
+      </c>
+      <c r="AD266">
+        <v>0</v>
+      </c>
+      <c r="AE266">
+        <v>0</v>
+      </c>
+      <c r="AF266">
+        <v>0</v>
+      </c>
+      <c r="AG266">
+        <v>1.7</v>
+      </c>
+      <c r="AH266">
+        <v>2.05</v>
+      </c>
+      <c r="AI266">
+        <v>2.2</v>
+      </c>
+      <c r="AJ266">
+        <v>1.62</v>
+      </c>
+      <c r="AK266">
+        <v>0</v>
+      </c>
+      <c r="AL266">
+        <v>0</v>
+      </c>
+      <c r="AM266">
+        <v>0</v>
+      </c>
+      <c r="AN266">
+        <v>2.5</v>
+      </c>
+      <c r="AO266">
+        <v>0.79</v>
+      </c>
+      <c r="AP266">
+        <v>2.53</v>
+      </c>
+      <c r="AQ266">
+        <v>0.73</v>
+      </c>
+      <c r="AR266">
+        <v>2.12</v>
+      </c>
+      <c r="AS266">
+        <v>1.18</v>
+      </c>
+      <c r="AT266">
+        <v>3.3</v>
+      </c>
+      <c r="AU266">
+        <v>11</v>
+      </c>
+      <c r="AV266">
+        <v>3</v>
+      </c>
+      <c r="AW266">
+        <v>9</v>
+      </c>
+      <c r="AX266">
+        <v>4</v>
+      </c>
+      <c r="AY266">
+        <v>24</v>
+      </c>
+      <c r="AZ266">
+        <v>9</v>
+      </c>
+      <c r="BA266">
+        <v>4</v>
+      </c>
+      <c r="BB266">
+        <v>2</v>
+      </c>
+      <c r="BC266">
+        <v>6</v>
+      </c>
+      <c r="BD266">
+        <v>0</v>
+      </c>
+      <c r="BE266">
+        <v>0</v>
+      </c>
+      <c r="BF266">
+        <v>0</v>
+      </c>
+      <c r="BG266">
+        <v>0</v>
+      </c>
+      <c r="BH266">
+        <v>0</v>
+      </c>
+      <c r="BI266">
+        <v>0</v>
+      </c>
+      <c r="BJ266">
+        <v>0</v>
+      </c>
+      <c r="BK266">
+        <v>0</v>
+      </c>
+      <c r="BL266">
+        <v>0</v>
+      </c>
+      <c r="BM266">
+        <v>0</v>
+      </c>
+      <c r="BN266">
+        <v>0</v>
+      </c>
+      <c r="BO266">
+        <v>0</v>
+      </c>
+      <c r="BP266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7574826</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45766.47916666666</v>
+      </c>
+      <c r="F267">
+        <v>30</v>
+      </c>
+      <c r="G267" t="s">
+        <v>71</v>
+      </c>
+      <c r="H267" t="s">
+        <v>72</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267">
+        <v>2</v>
+      </c>
+      <c r="O267" t="s">
+        <v>252</v>
+      </c>
+      <c r="P267" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q267">
+        <v>3.75</v>
+      </c>
+      <c r="R267">
+        <v>1.95</v>
+      </c>
+      <c r="S267">
+        <v>3.25</v>
+      </c>
+      <c r="T267">
+        <v>1.53</v>
+      </c>
+      <c r="U267">
+        <v>2.38</v>
+      </c>
+      <c r="V267">
+        <v>3.5</v>
+      </c>
+      <c r="W267">
+        <v>1.29</v>
+      </c>
+      <c r="X267">
+        <v>11</v>
+      </c>
+      <c r="Y267">
+        <v>1.05</v>
+      </c>
+      <c r="Z267">
+        <v>2.9</v>
+      </c>
+      <c r="AA267">
+        <v>2.9</v>
+      </c>
+      <c r="AB267">
+        <v>2.45</v>
+      </c>
+      <c r="AC267">
+        <v>0</v>
+      </c>
+      <c r="AD267">
+        <v>0</v>
+      </c>
+      <c r="AE267">
+        <v>2.34</v>
+      </c>
+      <c r="AF267">
+        <v>1.64</v>
+      </c>
+      <c r="AG267">
+        <v>2.37</v>
+      </c>
+      <c r="AH267">
+        <v>1.53</v>
+      </c>
+      <c r="AI267">
+        <v>2</v>
+      </c>
+      <c r="AJ267">
+        <v>1.75</v>
+      </c>
+      <c r="AK267">
+        <v>0</v>
+      </c>
+      <c r="AL267">
+        <v>0</v>
+      </c>
+      <c r="AM267">
+        <v>0</v>
+      </c>
+      <c r="AN267">
+        <v>1</v>
+      </c>
+      <c r="AO267">
+        <v>1.07</v>
+      </c>
+      <c r="AP267">
+        <v>1</v>
+      </c>
+      <c r="AQ267">
+        <v>1.07</v>
+      </c>
+      <c r="AR267">
+        <v>1.18</v>
+      </c>
+      <c r="AS267">
+        <v>1.09</v>
+      </c>
+      <c r="AT267">
+        <v>2.27</v>
+      </c>
+      <c r="AU267">
+        <v>4</v>
+      </c>
+      <c r="AV267">
+        <v>4</v>
+      </c>
+      <c r="AW267">
+        <v>9</v>
+      </c>
+      <c r="AX267">
+        <v>4</v>
+      </c>
+      <c r="AY267">
+        <v>14</v>
+      </c>
+      <c r="AZ267">
+        <v>9</v>
+      </c>
+      <c r="BA267">
+        <v>3</v>
+      </c>
+      <c r="BB267">
+        <v>4</v>
+      </c>
+      <c r="BC267">
+        <v>7</v>
+      </c>
+      <c r="BD267">
+        <v>0</v>
+      </c>
+      <c r="BE267">
+        <v>0</v>
+      </c>
+      <c r="BF267">
+        <v>0</v>
+      </c>
+      <c r="BG267">
+        <v>0</v>
+      </c>
+      <c r="BH267">
+        <v>0</v>
+      </c>
+      <c r="BI267">
+        <v>0</v>
+      </c>
+      <c r="BJ267">
+        <v>0</v>
+      </c>
+      <c r="BK267">
+        <v>0</v>
+      </c>
+      <c r="BL267">
+        <v>0</v>
+      </c>
+      <c r="BM267">
+        <v>0</v>
+      </c>
+      <c r="BN267">
+        <v>0</v>
+      </c>
+      <c r="BO267">
+        <v>0</v>
+      </c>
+      <c r="BP267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7574829</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45766.47916666666</v>
+      </c>
+      <c r="F268">
+        <v>30</v>
+      </c>
+      <c r="G268" t="s">
+        <v>82</v>
+      </c>
+      <c r="H268" t="s">
+        <v>80</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>3</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="O268" t="s">
+        <v>90</v>
+      </c>
+      <c r="P268" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q268">
+        <v>3.1</v>
+      </c>
+      <c r="R268">
+        <v>2.05</v>
+      </c>
+      <c r="S268">
+        <v>3.75</v>
+      </c>
+      <c r="T268">
+        <v>1.44</v>
+      </c>
+      <c r="U268">
+        <v>2.63</v>
+      </c>
+      <c r="V268">
+        <v>3.4</v>
+      </c>
+      <c r="W268">
+        <v>1.3</v>
+      </c>
+      <c r="X268">
+        <v>10</v>
+      </c>
+      <c r="Y268">
+        <v>1.06</v>
+      </c>
+      <c r="Z268">
+        <v>2.35</v>
+      </c>
+      <c r="AA268">
+        <v>3</v>
+      </c>
+      <c r="AB268">
+        <v>3</v>
+      </c>
+      <c r="AC268">
+        <v>0</v>
+      </c>
+      <c r="AD268">
+        <v>0</v>
+      </c>
+      <c r="AE268">
+        <v>0</v>
+      </c>
+      <c r="AF268">
+        <v>0</v>
+      </c>
+      <c r="AG268">
+        <v>2.15</v>
+      </c>
+      <c r="AH268">
+        <v>1.65</v>
+      </c>
+      <c r="AI268">
+        <v>1.91</v>
+      </c>
+      <c r="AJ268">
+        <v>1.91</v>
+      </c>
+      <c r="AK268">
+        <v>0</v>
+      </c>
+      <c r="AL268">
+        <v>0</v>
+      </c>
+      <c r="AM268">
+        <v>0</v>
+      </c>
+      <c r="AN268">
+        <v>1.64</v>
+      </c>
+      <c r="AO268">
+        <v>0.71</v>
+      </c>
+      <c r="AP268">
+        <v>1.53</v>
+      </c>
+      <c r="AQ268">
+        <v>0.87</v>
+      </c>
+      <c r="AR268">
+        <v>1.49</v>
+      </c>
+      <c r="AS268">
+        <v>1</v>
+      </c>
+      <c r="AT268">
+        <v>2.49</v>
+      </c>
+      <c r="AU268">
+        <v>8</v>
+      </c>
+      <c r="AV268">
+        <v>4</v>
+      </c>
+      <c r="AW268">
+        <v>15</v>
+      </c>
+      <c r="AX268">
+        <v>3</v>
+      </c>
+      <c r="AY268">
+        <v>27</v>
+      </c>
+      <c r="AZ268">
+        <v>9</v>
+      </c>
+      <c r="BA268">
+        <v>9</v>
+      </c>
+      <c r="BB268">
+        <v>0</v>
+      </c>
+      <c r="BC268">
+        <v>9</v>
+      </c>
+      <c r="BD268">
+        <v>0</v>
+      </c>
+      <c r="BE268">
+        <v>0</v>
+      </c>
+      <c r="BF268">
+        <v>0</v>
+      </c>
+      <c r="BG268">
+        <v>0</v>
+      </c>
+      <c r="BH268">
+        <v>0</v>
+      </c>
+      <c r="BI268">
+        <v>0</v>
+      </c>
+      <c r="BJ268">
+        <v>0</v>
+      </c>
+      <c r="BK268">
+        <v>0</v>
+      </c>
+      <c r="BL268">
+        <v>0</v>
+      </c>
+      <c r="BM268">
+        <v>0</v>
+      </c>
+      <c r="BN268">
+        <v>0</v>
+      </c>
+      <c r="BO268">
+        <v>0</v>
+      </c>
+      <c r="BP268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7574830</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45766.58333333334</v>
+      </c>
+      <c r="F269">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>74</v>
+      </c>
+      <c r="H269" t="s">
+        <v>77</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>2</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>90</v>
+      </c>
+      <c r="P269" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q269">
+        <v>4.75</v>
+      </c>
+      <c r="R269">
+        <v>2.2</v>
+      </c>
+      <c r="S269">
+        <v>2.5</v>
+      </c>
+      <c r="T269">
+        <v>1.4</v>
+      </c>
+      <c r="U269">
+        <v>2.75</v>
+      </c>
+      <c r="V269">
+        <v>3</v>
+      </c>
+      <c r="W269">
+        <v>1.36</v>
+      </c>
+      <c r="X269">
+        <v>8</v>
+      </c>
+      <c r="Y269">
+        <v>1.08</v>
+      </c>
+      <c r="Z269">
+        <v>3.8</v>
+      </c>
+      <c r="AA269">
+        <v>3.3</v>
+      </c>
+      <c r="AB269">
+        <v>1.87</v>
+      </c>
+      <c r="AC269">
+        <v>0</v>
+      </c>
+      <c r="AD269">
+        <v>0</v>
+      </c>
+      <c r="AE269">
+        <v>0</v>
+      </c>
+      <c r="AF269">
+        <v>0</v>
+      </c>
+      <c r="AG269">
+        <v>1.91</v>
+      </c>
+      <c r="AH269">
+        <v>1.8</v>
+      </c>
+      <c r="AI269">
+        <v>1.8</v>
+      </c>
+      <c r="AJ269">
+        <v>1.95</v>
+      </c>
+      <c r="AK269">
+        <v>0</v>
+      </c>
+      <c r="AL269">
+        <v>0</v>
+      </c>
+      <c r="AM269">
+        <v>0</v>
+      </c>
+      <c r="AN269">
+        <v>1.57</v>
+      </c>
+      <c r="AO269">
+        <v>2.14</v>
+      </c>
+      <c r="AP269">
+        <v>1.47</v>
+      </c>
+      <c r="AQ269">
+        <v>2.2</v>
+      </c>
+      <c r="AR269">
+        <v>1.21</v>
+      </c>
+      <c r="AS269">
+        <v>1.45</v>
+      </c>
+      <c r="AT269">
+        <v>2.66</v>
+      </c>
+      <c r="AU269">
+        <v>4</v>
+      </c>
+      <c r="AV269">
+        <v>4</v>
+      </c>
+      <c r="AW269">
+        <v>3</v>
+      </c>
+      <c r="AX269">
+        <v>2</v>
+      </c>
+      <c r="AY269">
+        <v>8</v>
+      </c>
+      <c r="AZ269">
+        <v>7</v>
+      </c>
+      <c r="BA269">
+        <v>1</v>
+      </c>
+      <c r="BB269">
+        <v>2</v>
+      </c>
+      <c r="BC269">
+        <v>3</v>
+      </c>
+      <c r="BD269">
+        <v>0</v>
+      </c>
+      <c r="BE269">
+        <v>0</v>
+      </c>
+      <c r="BF269">
+        <v>0</v>
+      </c>
+      <c r="BG269">
+        <v>0</v>
+      </c>
+      <c r="BH269">
+        <v>0</v>
+      </c>
+      <c r="BI269">
+        <v>0</v>
+      </c>
+      <c r="BJ269">
+        <v>0</v>
+      </c>
+      <c r="BK269">
+        <v>0</v>
+      </c>
+      <c r="BL269">
+        <v>0</v>
+      </c>
+      <c r="BM269">
+        <v>0</v>
+      </c>
+      <c r="BN269">
+        <v>0</v>
+      </c>
+      <c r="BO269">
+        <v>0</v>
+      </c>
+      <c r="BP269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7574825</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45766.58333333334</v>
+      </c>
+      <c r="F270">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>78</v>
+      </c>
+      <c r="H270" t="s">
+        <v>87</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
+        <v>166</v>
+      </c>
+      <c r="P270" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q270">
+        <v>2.63</v>
+      </c>
+      <c r="R270">
+        <v>2.05</v>
+      </c>
+      <c r="S270">
+        <v>4.5</v>
+      </c>
+      <c r="T270">
+        <v>1.44</v>
+      </c>
+      <c r="U270">
+        <v>2.63</v>
+      </c>
+      <c r="V270">
+        <v>3.25</v>
+      </c>
+      <c r="W270">
+        <v>1.33</v>
+      </c>
+      <c r="X270">
+        <v>10</v>
+      </c>
+      <c r="Y270">
+        <v>1.06</v>
+      </c>
+      <c r="Z270">
+        <v>1.91</v>
+      </c>
+      <c r="AA270">
+        <v>3.2</v>
+      </c>
+      <c r="AB270">
+        <v>4</v>
+      </c>
+      <c r="AC270">
+        <v>0</v>
+      </c>
+      <c r="AD270">
+        <v>0</v>
+      </c>
+      <c r="AE270">
+        <v>3.95</v>
+      </c>
+      <c r="AF270">
+        <v>1.27</v>
+      </c>
+      <c r="AG270">
+        <v>2.2</v>
+      </c>
+      <c r="AH270">
+        <v>1.61</v>
+      </c>
+      <c r="AI270">
+        <v>1.95</v>
+      </c>
+      <c r="AJ270">
+        <v>1.8</v>
+      </c>
+      <c r="AK270">
+        <v>0</v>
+      </c>
+      <c r="AL270">
+        <v>0</v>
+      </c>
+      <c r="AM270">
+        <v>0</v>
+      </c>
+      <c r="AN270">
+        <v>1</v>
+      </c>
+      <c r="AO270">
+        <v>0.71</v>
+      </c>
+      <c r="AP270">
+        <v>1.13</v>
+      </c>
+      <c r="AQ270">
+        <v>0.67</v>
+      </c>
+      <c r="AR270">
+        <v>1.23</v>
+      </c>
+      <c r="AS270">
+        <v>1.08</v>
+      </c>
+      <c r="AT270">
+        <v>2.31</v>
+      </c>
+      <c r="AU270">
+        <v>8</v>
+      </c>
+      <c r="AV270">
+        <v>4</v>
+      </c>
+      <c r="AW270">
+        <v>11</v>
+      </c>
+      <c r="AX270">
+        <v>5</v>
+      </c>
+      <c r="AY270">
+        <v>25</v>
+      </c>
+      <c r="AZ270">
+        <v>9</v>
+      </c>
+      <c r="BA270">
+        <v>4</v>
+      </c>
+      <c r="BB270">
+        <v>4</v>
+      </c>
+      <c r="BC270">
+        <v>8</v>
+      </c>
+      <c r="BD270">
+        <v>0</v>
+      </c>
+      <c r="BE270">
+        <v>0</v>
+      </c>
+      <c r="BF270">
+        <v>0</v>
+      </c>
+      <c r="BG270">
+        <v>0</v>
+      </c>
+      <c r="BH270">
+        <v>0</v>
+      </c>
+      <c r="BI270">
+        <v>0</v>
+      </c>
+      <c r="BJ270">
+        <v>0</v>
+      </c>
+      <c r="BK270">
+        <v>0</v>
+      </c>
+      <c r="BL270">
+        <v>0</v>
+      </c>
+      <c r="BM270">
+        <v>0</v>
+      </c>
+      <c r="BN270">
+        <v>0</v>
+      </c>
+      <c r="BO270">
+        <v>0</v>
+      </c>
+      <c r="BP270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7574831</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45766.6875</v>
+      </c>
+      <c r="F271">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>85</v>
+      </c>
+      <c r="H271" t="s">
+        <v>83</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>3</v>
+      </c>
+      <c r="N271">
+        <v>3</v>
+      </c>
+      <c r="O271" t="s">
+        <v>90</v>
+      </c>
+      <c r="P271" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q271">
+        <v>5.5</v>
+      </c>
+      <c r="R271">
+        <v>2.2</v>
+      </c>
+      <c r="S271">
+        <v>2.3</v>
+      </c>
+      <c r="T271">
+        <v>1.4</v>
+      </c>
+      <c r="U271">
+        <v>2.75</v>
+      </c>
+      <c r="V271">
+        <v>2.75</v>
+      </c>
+      <c r="W271">
+        <v>1.4</v>
+      </c>
+      <c r="X271">
+        <v>8</v>
+      </c>
+      <c r="Y271">
+        <v>1.08</v>
+      </c>
+      <c r="Z271">
+        <v>5.3</v>
+      </c>
+      <c r="AA271">
+        <v>3.7</v>
+      </c>
+      <c r="AB271">
+        <v>1.59</v>
+      </c>
+      <c r="AC271">
+        <v>1.02</v>
+      </c>
+      <c r="AD271">
+        <v>15.8</v>
+      </c>
+      <c r="AE271">
+        <v>1.22</v>
+      </c>
+      <c r="AF271">
+        <v>4.56</v>
+      </c>
+      <c r="AG271">
+        <v>1.91</v>
+      </c>
+      <c r="AH271">
+        <v>1.85</v>
+      </c>
+      <c r="AI271">
+        <v>1.91</v>
+      </c>
+      <c r="AJ271">
+        <v>1.91</v>
+      </c>
+      <c r="AK271">
+        <v>2.45</v>
+      </c>
+      <c r="AL271">
+        <v>1.17</v>
+      </c>
+      <c r="AM271">
+        <v>1.13</v>
+      </c>
+      <c r="AN271">
+        <v>2.07</v>
+      </c>
+      <c r="AO271">
+        <v>2.07</v>
+      </c>
+      <c r="AP271">
+        <v>1.93</v>
+      </c>
+      <c r="AQ271">
+        <v>2.13</v>
+      </c>
+      <c r="AR271">
+        <v>1.54</v>
+      </c>
+      <c r="AS271">
+        <v>1.89</v>
+      </c>
+      <c r="AT271">
+        <v>3.43</v>
+      </c>
+      <c r="AU271">
+        <v>7</v>
+      </c>
+      <c r="AV271">
+        <v>8</v>
+      </c>
+      <c r="AW271">
+        <v>12</v>
+      </c>
+      <c r="AX271">
+        <v>1</v>
+      </c>
+      <c r="AY271">
+        <v>22</v>
+      </c>
+      <c r="AZ271">
+        <v>10</v>
+      </c>
+      <c r="BA271">
+        <v>7</v>
+      </c>
+      <c r="BB271">
+        <v>3</v>
+      </c>
+      <c r="BC271">
+        <v>10</v>
+      </c>
+      <c r="BD271">
+        <v>0</v>
+      </c>
+      <c r="BE271">
+        <v>0</v>
+      </c>
+      <c r="BF271">
+        <v>0</v>
+      </c>
+      <c r="BG271">
+        <v>0</v>
+      </c>
+      <c r="BH271">
+        <v>0</v>
+      </c>
+      <c r="BI271">
+        <v>0</v>
+      </c>
+      <c r="BJ271">
+        <v>0</v>
+      </c>
+      <c r="BK271">
+        <v>0</v>
+      </c>
+      <c r="BL271">
+        <v>0</v>
+      </c>
+      <c r="BM271">
+        <v>0</v>
+      </c>
+      <c r="BN271">
+        <v>0</v>
+      </c>
+      <c r="BO271">
+        <v>0</v>
+      </c>
+      <c r="BP271">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="372">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,12 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['4', '37']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -848,9 +854,6 @@
   </si>
   <si>
     <t>['24', '31', '90+1']</t>
-  </si>
-  <si>
-    <t>['8']</t>
   </si>
   <si>
     <t>['90+5', '90+15']</t>
@@ -1488,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1953,7 +1956,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2571,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2855,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>2.13</v>
@@ -2983,7 +2986,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3601,7 +3604,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3679,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ11">
         <v>1.73</v>
@@ -3807,7 +3810,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4219,7 +4222,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4712,7 +4715,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ16">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5043,7 +5046,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5124,7 +5127,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ18">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5249,7 +5252,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5455,7 +5458,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5661,7 +5664,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6151,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -7309,7 +7312,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7515,7 +7518,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7593,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7721,7 +7724,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8626,7 +8629,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ35">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.11</v>
@@ -9038,7 +9041,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ37">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -9163,7 +9166,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9369,7 +9372,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9781,7 +9784,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9859,7 +9862,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
         <v>0.87</v>
@@ -9987,7 +9990,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10193,7 +10196,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10605,7 +10608,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10811,7 +10814,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11017,7 +11020,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11098,7 +11101,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR47">
         <v>1.27</v>
@@ -11223,7 +11226,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11507,7 +11510,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11635,7 +11638,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -12047,7 +12050,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12334,7 +12337,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ53">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1</v>
@@ -12665,7 +12668,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12871,7 +12874,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13283,7 +13286,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13489,7 +13492,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>1.57</v>
@@ -13773,7 +13776,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>0.6</v>
@@ -13982,7 +13985,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ61">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>2.38</v>
@@ -14391,7 +14394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -15961,7 +15964,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16167,7 +16170,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16248,7 +16251,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ72">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR72">
         <v>2.36</v>
@@ -16579,7 +16582,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16657,7 +16660,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ74">
         <v>0.87</v>
@@ -16785,7 +16788,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16866,7 +16869,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ75">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>0.89</v>
@@ -16991,7 +16994,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17197,7 +17200,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17275,7 +17278,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77">
         <v>2.27</v>
@@ -17815,7 +17818,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18021,7 +18024,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18227,7 +18230,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18433,7 +18436,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18639,7 +18642,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18845,7 +18848,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19051,7 +19054,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19463,7 +19466,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19544,7 +19547,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -20081,7 +20084,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20287,7 +20290,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20777,10 +20780,10 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ94">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.13</v>
@@ -20905,7 +20908,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21395,7 +21398,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ97">
         <v>1.27</v>
@@ -21523,7 +21526,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22141,7 +22144,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22553,7 +22556,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22965,7 +22968,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23252,7 +23255,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23995,7 +23998,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24691,7 +24694,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ113">
         <v>0.73</v>
@@ -24897,7 +24900,7 @@
         <v>1.8</v>
       </c>
       <c r="AP114">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114">
         <v>1.73</v>
@@ -25518,7 +25521,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ117">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.23</v>
@@ -26055,7 +26058,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26673,7 +26676,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26879,7 +26882,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27291,7 +27294,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27497,7 +27500,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27703,7 +27706,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27784,7 +27787,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ128">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.24</v>
@@ -27909,7 +27912,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27987,7 +27990,7 @@
         <v>0.43</v>
       </c>
       <c r="AP129">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ129">
         <v>0.87</v>
@@ -28321,7 +28324,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28527,7 +28530,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28605,10 +28608,10 @@
         <v>2.17</v>
       </c>
       <c r="AP132">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ132">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR132">
         <v>1.35</v>
@@ -28939,7 +28942,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29763,7 +29766,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>3.2</v>
@@ -29969,7 +29972,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30381,7 +30384,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30587,7 +30590,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30793,7 +30796,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31205,7 +31208,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31283,7 +31286,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ145">
         <v>1.4</v>
@@ -31411,7 +31414,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31823,7 +31826,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -31904,7 +31907,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ148">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR148">
         <v>2.01</v>
@@ -32029,7 +32032,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32110,7 +32113,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ149">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.35</v>
@@ -32313,7 +32316,7 @@
         <v>0.75</v>
       </c>
       <c r="AP150">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ150">
         <v>0.87</v>
@@ -32441,7 +32444,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32647,7 +32650,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32853,7 +32856,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33471,7 +33474,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33549,7 +33552,7 @@
         <v>0.75</v>
       </c>
       <c r="AP156">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ156">
         <v>1.13</v>
@@ -33677,7 +33680,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33883,7 +33886,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -33964,7 +33967,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ158">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -34089,7 +34092,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34501,7 +34504,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34582,7 +34585,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ161">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR161">
         <v>1.17</v>
@@ -34707,7 +34710,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34913,7 +34916,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35325,7 +35328,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35609,7 +35612,7 @@
         <v>0.25</v>
       </c>
       <c r="AP166">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166">
         <v>0.67</v>
@@ -36355,7 +36358,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36973,7 +36976,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37257,7 +37260,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ174">
         <v>1.07</v>
@@ -37385,7 +37388,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37466,7 +37469,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ175">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.25</v>
@@ -37591,7 +37594,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -38209,7 +38212,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38415,7 +38418,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38496,7 +38499,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ180">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38621,7 +38624,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38827,7 +38830,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39239,7 +39242,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39523,7 +39526,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ185">
         <v>1.27</v>
@@ -39651,7 +39654,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40887,7 +40890,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41093,7 +41096,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41377,7 +41380,7 @@
         <v>1.7</v>
       </c>
       <c r="AP194">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ194">
         <v>2.13</v>
@@ -41505,7 +41508,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41586,7 +41589,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ195">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR195">
         <v>2.07</v>
@@ -41917,7 +41920,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42204,7 +42207,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ198">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR198">
         <v>1.47</v>
@@ -42329,7 +42332,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -43153,7 +43156,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43565,7 +43568,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43771,7 +43774,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44055,7 +44058,7 @@
         <v>0.64</v>
       </c>
       <c r="AP207">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ207">
         <v>0.73</v>
@@ -44183,7 +44186,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44595,7 +44598,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -45625,7 +45628,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -45706,7 +45709,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ215">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR215">
         <v>1.31</v>
@@ -46037,7 +46040,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46243,7 +46246,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46324,7 +46327,7 @@
         <v>1</v>
       </c>
       <c r="AQ218">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR218">
         <v>1.22</v>
@@ -46449,7 +46452,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -47067,7 +47070,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47145,7 +47148,7 @@
         <v>0.58</v>
       </c>
       <c r="AP222">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ222">
         <v>0.73</v>
@@ -47273,7 +47276,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47479,7 +47482,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47763,7 +47766,7 @@
         <v>0.67</v>
       </c>
       <c r="AP225">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ225">
         <v>0.73</v>
@@ -47891,7 +47894,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -47972,7 +47975,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ226">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR226">
         <v>1.35</v>
@@ -48509,7 +48512,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48715,7 +48718,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q230">
         <v>2.63</v>
@@ -48921,7 +48924,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49127,7 +49130,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49745,7 +49748,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49951,7 +49954,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50157,7 +50160,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50363,7 +50366,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50444,7 +50447,7 @@
         <v>2</v>
       </c>
       <c r="AQ238">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR238">
         <v>1.69</v>
@@ -50647,7 +50650,7 @@
         <v>0.46</v>
       </c>
       <c r="AP239">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ239">
         <v>0.6</v>
@@ -50853,7 +50856,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP240">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ240">
         <v>0.6</v>
@@ -50981,7 +50984,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51187,7 +51190,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51393,7 +51396,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51599,7 +51602,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51805,7 +51808,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52011,7 +52014,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52423,7 +52426,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52835,7 +52838,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53453,7 +53456,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53534,7 +53537,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ253">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR253">
         <v>2.13</v>
@@ -53865,7 +53868,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54149,7 +54152,7 @@
         <v>1.21</v>
       </c>
       <c r="AP256">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ256">
         <v>1.13</v>
@@ -54355,7 +54358,7 @@
         <v>2.21</v>
       </c>
       <c r="AP257">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ257">
         <v>2.27</v>
@@ -54483,7 +54486,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -55101,7 +55104,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55182,7 +55185,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ261">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR261">
         <v>2.17</v>
@@ -55307,7 +55310,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55513,7 +55516,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55719,7 +55722,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56543,7 +56546,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56749,7 +56752,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -56830,7 +56833,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ269">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AR269">
         <v>1.21</v>
@@ -57161,7 +57164,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57317,6 +57320,418 @@
         <v>0</v>
       </c>
       <c r="BP271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7574838</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45772.6875</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>75</v>
+      </c>
+      <c r="H272" t="s">
+        <v>77</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>253</v>
+      </c>
+      <c r="P272" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q272">
+        <v>4</v>
+      </c>
+      <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
+        <v>2.88</v>
+      </c>
+      <c r="T272">
+        <v>1.44</v>
+      </c>
+      <c r="U272">
+        <v>2.63</v>
+      </c>
+      <c r="V272">
+        <v>3.25</v>
+      </c>
+      <c r="W272">
+        <v>1.33</v>
+      </c>
+      <c r="X272">
+        <v>9</v>
+      </c>
+      <c r="Y272">
+        <v>1.07</v>
+      </c>
+      <c r="Z272">
+        <v>3.9</v>
+      </c>
+      <c r="AA272">
+        <v>3.3</v>
+      </c>
+      <c r="AB272">
+        <v>1.91</v>
+      </c>
+      <c r="AC272">
+        <v>0</v>
+      </c>
+      <c r="AD272">
+        <v>0</v>
+      </c>
+      <c r="AE272">
+        <v>1.94</v>
+      </c>
+      <c r="AF272">
+        <v>1.94</v>
+      </c>
+      <c r="AG272">
+        <v>2</v>
+      </c>
+      <c r="AH272">
+        <v>1.75</v>
+      </c>
+      <c r="AI272">
+        <v>1.91</v>
+      </c>
+      <c r="AJ272">
+        <v>1.91</v>
+      </c>
+      <c r="AK272">
+        <v>0</v>
+      </c>
+      <c r="AL272">
+        <v>0</v>
+      </c>
+      <c r="AM272">
+        <v>0</v>
+      </c>
+      <c r="AN272">
+        <v>1.6</v>
+      </c>
+      <c r="AO272">
+        <v>2.2</v>
+      </c>
+      <c r="AP272">
+        <v>1.56</v>
+      </c>
+      <c r="AQ272">
+        <v>2.13</v>
+      </c>
+      <c r="AR272">
+        <v>1.28</v>
+      </c>
+      <c r="AS272">
+        <v>1.41</v>
+      </c>
+      <c r="AT272">
+        <v>2.69</v>
+      </c>
+      <c r="AU272">
+        <v>5</v>
+      </c>
+      <c r="AV272">
+        <v>5</v>
+      </c>
+      <c r="AW272">
+        <v>4</v>
+      </c>
+      <c r="AX272">
+        <v>13</v>
+      </c>
+      <c r="AY272">
+        <v>10</v>
+      </c>
+      <c r="AZ272">
+        <v>23</v>
+      </c>
+      <c r="BA272">
+        <v>6</v>
+      </c>
+      <c r="BB272">
+        <v>9</v>
+      </c>
+      <c r="BC272">
+        <v>15</v>
+      </c>
+      <c r="BD272">
+        <v>0</v>
+      </c>
+      <c r="BE272">
+        <v>0</v>
+      </c>
+      <c r="BF272">
+        <v>0</v>
+      </c>
+      <c r="BG272">
+        <v>0</v>
+      </c>
+      <c r="BH272">
+        <v>0</v>
+      </c>
+      <c r="BI272">
+        <v>0</v>
+      </c>
+      <c r="BJ272">
+        <v>0</v>
+      </c>
+      <c r="BK272">
+        <v>0</v>
+      </c>
+      <c r="BL272">
+        <v>0</v>
+      </c>
+      <c r="BM272">
+        <v>0</v>
+      </c>
+      <c r="BN272">
+        <v>0</v>
+      </c>
+      <c r="BO272">
+        <v>0</v>
+      </c>
+      <c r="BP272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7574840</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45773.47916666666</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>79</v>
+      </c>
+      <c r="H273" t="s">
+        <v>78</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" t="s">
+        <v>254</v>
+      </c>
+      <c r="P273" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q273">
+        <v>2.75</v>
+      </c>
+      <c r="R273">
+        <v>2</v>
+      </c>
+      <c r="S273">
+        <v>4.75</v>
+      </c>
+      <c r="T273">
+        <v>1.5</v>
+      </c>
+      <c r="U273">
+        <v>2.5</v>
+      </c>
+      <c r="V273">
+        <v>3.5</v>
+      </c>
+      <c r="W273">
+        <v>1.29</v>
+      </c>
+      <c r="X273">
+        <v>11</v>
+      </c>
+      <c r="Y273">
+        <v>1.05</v>
+      </c>
+      <c r="Z273">
+        <v>1.74</v>
+      </c>
+      <c r="AA273">
+        <v>3.3</v>
+      </c>
+      <c r="AB273">
+        <v>4.7</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>1.5</v>
+      </c>
+      <c r="AF273">
+        <v>2.4</v>
+      </c>
+      <c r="AG273">
+        <v>2.25</v>
+      </c>
+      <c r="AH273">
+        <v>1.6</v>
+      </c>
+      <c r="AI273">
+        <v>2</v>
+      </c>
+      <c r="AJ273">
+        <v>1.75</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AL273">
+        <v>0</v>
+      </c>
+      <c r="AM273">
+        <v>0</v>
+      </c>
+      <c r="AN273">
+        <v>1.73</v>
+      </c>
+      <c r="AO273">
+        <v>1.07</v>
+      </c>
+      <c r="AP273">
+        <v>1.81</v>
+      </c>
+      <c r="AQ273">
+        <v>1</v>
+      </c>
+      <c r="AR273">
+        <v>1.42</v>
+      </c>
+      <c r="AS273">
+        <v>1.3</v>
+      </c>
+      <c r="AT273">
+        <v>2.72</v>
+      </c>
+      <c r="AU273">
+        <v>-1</v>
+      </c>
+      <c r="AV273">
+        <v>-1</v>
+      </c>
+      <c r="AW273">
+        <v>-1</v>
+      </c>
+      <c r="AX273">
+        <v>-1</v>
+      </c>
+      <c r="AY273">
+        <v>-1</v>
+      </c>
+      <c r="AZ273">
+        <v>-1</v>
+      </c>
+      <c r="BA273">
+        <v>-1</v>
+      </c>
+      <c r="BB273">
+        <v>-1</v>
+      </c>
+      <c r="BC273">
+        <v>-1</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>0</v>
+      </c>
+      <c r="BG273">
+        <v>0</v>
+      </c>
+      <c r="BH273">
+        <v>0</v>
+      </c>
+      <c r="BI273">
+        <v>0</v>
+      </c>
+      <c r="BJ273">
+        <v>0</v>
+      </c>
+      <c r="BK273">
+        <v>0</v>
+      </c>
+      <c r="BL273">
+        <v>0</v>
+      </c>
+      <c r="BM273">
+        <v>0</v>
+      </c>
+      <c r="BN273">
+        <v>0</v>
+      </c>
+      <c r="BO273">
+        <v>0</v>
+      </c>
+      <c r="BP273">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -57669,31 +57669,31 @@
         <v>2.72</v>
       </c>
       <c r="AU273">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV273">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW273">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX273">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY273">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ273">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA273">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB273">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC273">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD273">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,12 @@
     <t>['4', '37']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['38', '62']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1070,9 +1076,6 @@
   </si>
   <si>
     <t>['70']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['30', '53', '80']</t>
@@ -1491,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP273"/>
+  <dimension ref="A1:BP275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1956,7 +1959,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2574,7 +2577,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2986,7 +2989,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3604,7 +3607,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3685,7 +3688,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ11">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3810,7 +3813,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3888,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ12">
         <v>0.6</v>
@@ -4097,7 +4100,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ13">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4222,7 +4225,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -5046,7 +5049,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5252,7 +5255,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5330,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ19">
         <v>1.27</v>
@@ -5458,7 +5461,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5664,7 +5667,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -7312,7 +7315,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7518,7 +7521,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7724,7 +7727,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7802,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ31">
         <v>1.07</v>
@@ -8217,7 +8220,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ33">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR33">
         <v>2.25</v>
@@ -8423,7 +8426,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ34">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR34">
         <v>1.18</v>
@@ -9038,7 +9041,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ37">
         <v>2.13</v>
@@ -9166,7 +9169,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9372,7 +9375,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9784,7 +9787,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9990,7 +9993,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10196,7 +10199,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10277,7 +10280,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ43">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR43">
         <v>2.13</v>
@@ -10608,7 +10611,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10814,7 +10817,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10892,7 +10895,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11020,7 +11023,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11226,7 +11229,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11638,7 +11641,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11719,7 +11722,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ50">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -12050,7 +12053,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12128,7 +12131,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ52">
         <v>1.07</v>
@@ -12668,7 +12671,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12874,7 +12877,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13158,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ57">
         <v>0.73</v>
@@ -13286,7 +13289,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -14603,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR64">
         <v>1.27</v>
@@ -15012,7 +15015,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ66">
         <v>0.67</v>
@@ -15964,7 +15967,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16170,7 +16173,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16582,7 +16585,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16788,7 +16791,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16994,7 +16997,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17200,7 +17203,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17487,7 +17490,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR78">
         <v>1.68</v>
@@ -17818,7 +17821,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17896,7 +17899,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ80">
         <v>1.27</v>
@@ -18024,7 +18027,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18105,7 +18108,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -18230,7 +18233,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18436,7 +18439,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18642,7 +18645,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18848,7 +18851,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18926,7 +18929,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19054,7 +19057,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19466,7 +19469,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -20084,7 +20087,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20290,7 +20293,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20371,7 +20374,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.25</v>
@@ -20908,7 +20911,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21192,7 +21195,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ96">
         <v>0.6</v>
@@ -21526,7 +21529,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21813,7 +21816,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ99">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
         <v>2.36</v>
@@ -22144,7 +22147,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22556,7 +22559,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22968,7 +22971,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23998,7 +24001,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24282,7 +24285,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ111">
         <v>0.6</v>
@@ -24903,7 +24906,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ114">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR114">
         <v>1.09</v>
@@ -25109,7 +25112,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ115">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25518,7 +25521,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -26058,7 +26061,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26676,7 +26679,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26882,7 +26885,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27294,7 +27297,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27500,7 +27503,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27706,7 +27709,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27912,7 +27915,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27993,7 +27996,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ129">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR129">
         <v>1.02</v>
@@ -28324,7 +28327,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28405,7 +28408,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ131">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR131">
         <v>1.14</v>
@@ -28530,7 +28533,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28814,7 +28817,7 @@
         <v>2.57</v>
       </c>
       <c r="AP133">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ133">
         <v>2.27</v>
@@ -28942,7 +28945,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29432,7 +29435,7 @@
         <v>0.43</v>
       </c>
       <c r="AP136">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ136">
         <v>0.73</v>
@@ -29972,7 +29975,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30384,7 +30387,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30590,7 +30593,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30796,7 +30799,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31208,7 +31211,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31414,7 +31417,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31826,7 +31829,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -32032,7 +32035,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32319,7 +32322,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ150">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR150">
         <v>1.34</v>
@@ -32444,7 +32447,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32650,7 +32653,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32728,7 +32731,7 @@
         <v>0.43</v>
       </c>
       <c r="AP152">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ152">
         <v>1.13</v>
@@ -32856,7 +32859,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32934,7 +32937,7 @@
         <v>0.38</v>
       </c>
       <c r="AP153">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ153">
         <v>0.73</v>
@@ -33143,7 +33146,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ154">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR154">
         <v>1.23</v>
@@ -33474,7 +33477,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33680,7 +33683,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33886,7 +33889,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34092,7 +34095,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34379,7 +34382,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ160">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR160">
         <v>1.14</v>
@@ -34504,7 +34507,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34582,7 +34585,7 @@
         <v>2.38</v>
       </c>
       <c r="AP161">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ161">
         <v>2.13</v>
@@ -34710,7 +34713,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34788,10 +34791,10 @@
         <v>1.63</v>
       </c>
       <c r="AP162">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ162">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR162">
         <v>1.23</v>
@@ -34916,7 +34919,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35328,7 +35331,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -36358,7 +36361,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36976,7 +36979,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37388,7 +37391,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37594,7 +37597,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -37672,7 +37675,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ176">
         <v>1.13</v>
@@ -38087,7 +38090,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ178">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR178">
         <v>2.03</v>
@@ -38212,7 +38215,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38290,7 +38293,7 @@
         <v>1.56</v>
       </c>
       <c r="AP179">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ179">
         <v>2.13</v>
@@ -38418,7 +38421,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38624,7 +38627,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38705,7 +38708,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ181">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR181">
         <v>1.3</v>
@@ -38830,7 +38833,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39242,7 +39245,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39654,7 +39657,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40890,7 +40893,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41096,7 +41099,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41508,7 +41511,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41920,7 +41923,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42001,7 +42004,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ197">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR197">
         <v>1.32</v>
@@ -42332,7 +42335,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42410,7 +42413,7 @@
         <v>1.3</v>
       </c>
       <c r="AP199">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ199">
         <v>1.27</v>
@@ -43156,7 +43159,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43440,7 +43443,7 @@
         <v>1.6</v>
       </c>
       <c r="AP204">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ204">
         <v>1.4</v>
@@ -43568,7 +43571,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43649,7 +43652,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ205">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR205">
         <v>1.23</v>
@@ -43774,7 +43777,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44186,7 +44189,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44598,7 +44601,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -44679,7 +44682,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR210">
         <v>1.22</v>
@@ -45628,7 +45631,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -46040,7 +46043,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46118,7 +46121,7 @@
         <v>0.5</v>
       </c>
       <c r="AP217">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ217">
         <v>0.87</v>
@@ -46246,7 +46249,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46452,7 +46455,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -46533,7 +46536,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ219">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR219">
         <v>1.24</v>
@@ -46945,7 +46948,7 @@
         <v>2</v>
       </c>
       <c r="AQ221">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR221">
         <v>1.72</v>
@@ -47070,7 +47073,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47276,7 +47279,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47482,7 +47485,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47894,7 +47897,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48178,7 +48181,7 @@
         <v>1.42</v>
       </c>
       <c r="AP227">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ227">
         <v>1.4</v>
@@ -48512,7 +48515,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48718,7 +48721,7 @@
         <v>233</v>
       </c>
       <c r="P230" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="Q230">
         <v>2.63</v>
@@ -48924,7 +48927,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49130,7 +49133,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49748,7 +49751,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49826,7 +49829,7 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ235">
         <v>2.13</v>
@@ -49954,7 +49957,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50160,7 +50163,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50238,7 +50241,7 @@
         <v>2.15</v>
       </c>
       <c r="AP237">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ237">
         <v>2.27</v>
@@ -50366,7 +50369,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50984,7 +50987,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51065,7 +51068,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ241">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR241">
         <v>1.26</v>
@@ -51190,7 +51193,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51396,7 +51399,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51602,7 +51605,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51683,7 +51686,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ244">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR244">
         <v>2.18</v>
@@ -51808,7 +51811,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52014,7 +52017,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52426,7 +52429,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52504,7 +52507,7 @@
         <v>0.62</v>
       </c>
       <c r="AP248">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ248">
         <v>0.73</v>
@@ -52838,7 +52841,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53456,7 +53459,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53740,7 +53743,7 @@
         <v>1.14</v>
       </c>
       <c r="AP254">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ254">
         <v>1.27</v>
@@ -53868,7 +53871,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54486,7 +54489,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54567,7 +54570,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ258">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR258">
         <v>1.23</v>
@@ -54770,10 +54773,10 @@
         <v>0.71</v>
       </c>
       <c r="AP259">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ259">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR259">
         <v>1.12</v>
@@ -55104,7 +55107,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55310,7 +55313,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55516,7 +55519,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55722,7 +55725,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56546,7 +56549,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56752,7 +56755,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57164,7 +57167,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57681,10 +57684,10 @@
         <v>11</v>
       </c>
       <c r="AY273">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ273">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA273">
         <v>3</v>
@@ -57732,6 +57735,418 @@
         <v>0</v>
       </c>
       <c r="BP273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7574839</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45773.58333333334</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>80</v>
+      </c>
+      <c r="H274" t="s">
+        <v>76</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274" t="s">
+        <v>255</v>
+      </c>
+      <c r="P274" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q274">
+        <v>3</v>
+      </c>
+      <c r="R274">
+        <v>2</v>
+      </c>
+      <c r="S274">
+        <v>4</v>
+      </c>
+      <c r="T274">
+        <v>1.5</v>
+      </c>
+      <c r="U274">
+        <v>2.5</v>
+      </c>
+      <c r="V274">
+        <v>3.5</v>
+      </c>
+      <c r="W274">
+        <v>1.29</v>
+      </c>
+      <c r="X274">
+        <v>10</v>
+      </c>
+      <c r="Y274">
+        <v>1.06</v>
+      </c>
+      <c r="Z274">
+        <v>2.52</v>
+      </c>
+      <c r="AA274">
+        <v>3.08</v>
+      </c>
+      <c r="AB274">
+        <v>3.19</v>
+      </c>
+      <c r="AC274">
+        <v>2.27</v>
+      </c>
+      <c r="AD274">
+        <v>1.68</v>
+      </c>
+      <c r="AE274">
+        <v>0</v>
+      </c>
+      <c r="AF274">
+        <v>0</v>
+      </c>
+      <c r="AG274">
+        <v>2.25</v>
+      </c>
+      <c r="AH274">
+        <v>1.6</v>
+      </c>
+      <c r="AI274">
+        <v>1.95</v>
+      </c>
+      <c r="AJ274">
+        <v>1.8</v>
+      </c>
+      <c r="AK274">
+        <v>0</v>
+      </c>
+      <c r="AL274">
+        <v>0</v>
+      </c>
+      <c r="AM274">
+        <v>0</v>
+      </c>
+      <c r="AN274">
+        <v>1.07</v>
+      </c>
+      <c r="AO274">
+        <v>0.87</v>
+      </c>
+      <c r="AP274">
+        <v>1.19</v>
+      </c>
+      <c r="AQ274">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR274">
+        <v>1.22</v>
+      </c>
+      <c r="AS274">
+        <v>1.16</v>
+      </c>
+      <c r="AT274">
+        <v>2.38</v>
+      </c>
+      <c r="AU274">
+        <v>4</v>
+      </c>
+      <c r="AV274">
+        <v>3</v>
+      </c>
+      <c r="AW274">
+        <v>10</v>
+      </c>
+      <c r="AX274">
+        <v>7</v>
+      </c>
+      <c r="AY274">
+        <v>16</v>
+      </c>
+      <c r="AZ274">
+        <v>10</v>
+      </c>
+      <c r="BA274">
+        <v>4</v>
+      </c>
+      <c r="BB274">
+        <v>1</v>
+      </c>
+      <c r="BC274">
+        <v>5</v>
+      </c>
+      <c r="BD274">
+        <v>0</v>
+      </c>
+      <c r="BE274">
+        <v>0</v>
+      </c>
+      <c r="BF274">
+        <v>0</v>
+      </c>
+      <c r="BG274">
+        <v>0</v>
+      </c>
+      <c r="BH274">
+        <v>0</v>
+      </c>
+      <c r="BI274">
+        <v>0</v>
+      </c>
+      <c r="BJ274">
+        <v>0</v>
+      </c>
+      <c r="BK274">
+        <v>0</v>
+      </c>
+      <c r="BL274">
+        <v>0</v>
+      </c>
+      <c r="BM274">
+        <v>0</v>
+      </c>
+      <c r="BN274">
+        <v>0</v>
+      </c>
+      <c r="BO274">
+        <v>0</v>
+      </c>
+      <c r="BP274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7574834</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45773.6875</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>87</v>
+      </c>
+      <c r="H275" t="s">
+        <v>73</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>256</v>
+      </c>
+      <c r="P275" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q275">
+        <v>6.5</v>
+      </c>
+      <c r="R275">
+        <v>2.25</v>
+      </c>
+      <c r="S275">
+        <v>2.1</v>
+      </c>
+      <c r="T275">
+        <v>1.4</v>
+      </c>
+      <c r="U275">
+        <v>2.75</v>
+      </c>
+      <c r="V275">
+        <v>2.75</v>
+      </c>
+      <c r="W275">
+        <v>1.4</v>
+      </c>
+      <c r="X275">
+        <v>8</v>
+      </c>
+      <c r="Y275">
+        <v>1.08</v>
+      </c>
+      <c r="Z275">
+        <v>8</v>
+      </c>
+      <c r="AA275">
+        <v>4.5</v>
+      </c>
+      <c r="AB275">
+        <v>1.36</v>
+      </c>
+      <c r="AC275">
+        <v>0</v>
+      </c>
+      <c r="AD275">
+        <v>0</v>
+      </c>
+      <c r="AE275">
+        <v>0</v>
+      </c>
+      <c r="AF275">
+        <v>0</v>
+      </c>
+      <c r="AG275">
+        <v>1.85</v>
+      </c>
+      <c r="AH275">
+        <v>1.85</v>
+      </c>
+      <c r="AI275">
+        <v>2</v>
+      </c>
+      <c r="AJ275">
+        <v>1.75</v>
+      </c>
+      <c r="AK275">
+        <v>0</v>
+      </c>
+      <c r="AL275">
+        <v>0</v>
+      </c>
+      <c r="AM275">
+        <v>0</v>
+      </c>
+      <c r="AN275">
+        <v>1.07</v>
+      </c>
+      <c r="AO275">
+        <v>1.73</v>
+      </c>
+      <c r="AP275">
+        <v>1.19</v>
+      </c>
+      <c r="AQ275">
+        <v>1.63</v>
+      </c>
+      <c r="AR275">
+        <v>1.14</v>
+      </c>
+      <c r="AS275">
+        <v>1.44</v>
+      </c>
+      <c r="AT275">
+        <v>2.58</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>6</v>
+      </c>
+      <c r="AW275">
+        <v>7</v>
+      </c>
+      <c r="AX275">
+        <v>6</v>
+      </c>
+      <c r="AY275">
+        <v>17</v>
+      </c>
+      <c r="AZ275">
+        <v>15</v>
+      </c>
+      <c r="BA275">
+        <v>5</v>
+      </c>
+      <c r="BB275">
+        <v>11</v>
+      </c>
+      <c r="BC275">
+        <v>16</v>
+      </c>
+      <c r="BD275">
+        <v>0</v>
+      </c>
+      <c r="BE275">
+        <v>0</v>
+      </c>
+      <c r="BF275">
+        <v>0</v>
+      </c>
+      <c r="BG275">
+        <v>0</v>
+      </c>
+      <c r="BH275">
+        <v>0</v>
+      </c>
+      <c r="BI275">
+        <v>0</v>
+      </c>
+      <c r="BJ275">
+        <v>0</v>
+      </c>
+      <c r="BK275">
+        <v>0</v>
+      </c>
+      <c r="BL275">
+        <v>0</v>
+      </c>
+      <c r="BM275">
+        <v>0</v>
+      </c>
+      <c r="BN275">
+        <v>0</v>
+      </c>
+      <c r="BO275">
+        <v>0</v>
+      </c>
+      <c r="BP275">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="375">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -787,6 +787,15 @@
     <t>['38', '62']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['8', '23', '26', '40', '71', '82']</t>
+  </si>
+  <si>
+    <t>['15', '31', '44']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -938,9 +947,6 @@
   </si>
   <si>
     <t>['59', '74']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['30', '47']</t>
@@ -1494,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1834,7 +1840,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ2">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1959,7 +1965,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2040,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2577,7 +2583,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2989,7 +2995,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3607,7 +3613,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3813,7 +3819,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3894,7 +3900,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ12">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4225,7 +4231,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4509,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ15">
         <v>1.07</v>
@@ -4715,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4921,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.13</v>
@@ -5049,7 +5055,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5255,7 +5261,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5461,7 +5467,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5667,7 +5673,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5954,7 +5960,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -6363,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -6572,7 +6578,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR25">
         <v>0.7</v>
@@ -7315,7 +7321,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7393,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ29">
         <v>2.13</v>
@@ -7521,7 +7527,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7602,7 +7608,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR30">
         <v>0.55</v>
@@ -7727,7 +7733,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8835,7 +8841,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.27</v>
@@ -9169,7 +9175,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9375,7 +9381,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9662,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9787,7 +9793,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9993,7 +9999,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10071,7 +10077,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ42">
         <v>1.4</v>
@@ -10199,7 +10205,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10486,7 +10492,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR44">
         <v>0.8100000000000001</v>
@@ -10611,7 +10617,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10817,7 +10823,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11023,7 +11029,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11229,7 +11235,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11641,7 +11647,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11719,7 +11725,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.63</v>
@@ -11925,7 +11931,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51">
         <v>1.27</v>
@@ -12053,7 +12059,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12546,7 +12552,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ54">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR54">
         <v>1.92</v>
@@ -12671,7 +12677,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12877,7 +12883,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13289,7 +13295,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13573,7 +13579,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ59">
         <v>0.87</v>
@@ -13782,7 +13788,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
         <v>1.14</v>
@@ -14194,7 +14200,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR62">
         <v>1.53</v>
@@ -15221,7 +15227,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
         <v>1.4</v>
@@ -15430,7 +15436,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ68">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR68">
         <v>0.83</v>
@@ -15967,7 +15973,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16045,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16173,7 +16179,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16460,7 +16466,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ73">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16585,7 +16591,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16791,7 +16797,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16997,7 +17003,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17203,7 +17209,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17693,10 +17699,10 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ79">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR79">
         <v>2.16</v>
@@ -17821,7 +17827,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18027,7 +18033,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18233,7 +18239,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18439,7 +18445,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18645,7 +18651,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18851,7 +18857,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19057,7 +19063,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19341,7 +19347,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>0.73</v>
@@ -19469,7 +19475,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -20087,7 +20093,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20165,7 +20171,7 @@
         <v>0.4</v>
       </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91">
         <v>0.87</v>
@@ -20293,7 +20299,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20580,7 +20586,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ93">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR93">
         <v>0.99</v>
@@ -20911,7 +20917,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -20992,7 +20998,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ95">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR95">
         <v>1.16</v>
@@ -21198,7 +21204,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ96">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR96">
         <v>1.15</v>
@@ -21529,7 +21535,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21813,7 +21819,7 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ99">
         <v>1.63</v>
@@ -22147,7 +22153,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22559,7 +22565,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22971,7 +22977,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23461,7 +23467,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>0.87</v>
@@ -23873,7 +23879,7 @@
         <v>3</v>
       </c>
       <c r="AP109">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ109">
         <v>2.27</v>
@@ -24001,7 +24007,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24288,7 +24294,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ111">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR111">
         <v>1.27</v>
@@ -24491,7 +24497,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ112">
         <v>1.27</v>
@@ -24700,7 +24706,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ113">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR113">
         <v>1.38</v>
@@ -25318,7 +25324,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR116">
         <v>1.23</v>
@@ -26061,7 +26067,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26679,7 +26685,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26885,7 +26891,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27297,7 +27303,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27503,7 +27509,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27709,7 +27715,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>2.9</v>
@@ -27915,7 +27921,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28202,7 +28208,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ130">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR130">
         <v>1.33</v>
@@ -28327,7 +28333,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28405,7 +28411,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
         <v>1.63</v>
@@ -28533,7 +28539,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28945,7 +28951,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29023,10 +29029,10 @@
         <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29229,7 +29235,7 @@
         <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ135">
         <v>1.13</v>
@@ -29438,7 +29444,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ136">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR136">
         <v>1.19</v>
@@ -29975,7 +29981,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30387,7 +30393,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30593,7 +30599,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30674,7 +30680,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ142">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR142">
         <v>1.33</v>
@@ -30799,7 +30805,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31211,7 +31217,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31417,7 +31423,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31495,7 +31501,7 @@
         <v>2.38</v>
       </c>
       <c r="AP146">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ146">
         <v>2.27</v>
@@ -31701,10 +31707,10 @@
         <v>0.57</v>
       </c>
       <c r="AP147">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ147">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR147">
         <v>1.11</v>
@@ -31829,7 +31835,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -31907,7 +31913,7 @@
         <v>2.29</v>
       </c>
       <c r="AP148">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ148">
         <v>2.13</v>
@@ -32035,7 +32041,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32447,7 +32453,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32653,7 +32659,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32859,7 +32865,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32940,7 +32946,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ153">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR153">
         <v>1.2</v>
@@ -33349,7 +33355,7 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ155">
         <v>1.27</v>
@@ -33477,7 +33483,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33683,7 +33689,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33889,7 +33895,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -33967,7 +33973,7 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34095,7 +34101,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34176,7 +34182,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ159">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR159">
         <v>1.19</v>
@@ -34379,7 +34385,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ160">
         <v>0.8100000000000001</v>
@@ -34507,7 +34513,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34713,7 +34719,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34919,7 +34925,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35331,7 +35337,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35412,7 +35418,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ165">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR165">
         <v>1.12</v>
@@ -36030,7 +36036,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ168">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR168">
         <v>2.03</v>
@@ -36361,7 +36367,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36979,7 +36985,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37391,7 +37397,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37597,7 +37603,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -37881,10 +37887,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP177">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ177">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -38215,7 +38221,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38421,7 +38427,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38499,7 +38505,7 @@
         <v>2.44</v>
       </c>
       <c r="AP180">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ180">
         <v>2.13</v>
@@ -38627,7 +38633,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38833,7 +38839,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39245,7 +39251,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39323,7 +39329,7 @@
         <v>0.7</v>
       </c>
       <c r="AP184">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ184">
         <v>0.73</v>
@@ -39657,7 +39663,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39944,7 +39950,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ187">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR187">
         <v>1.2</v>
@@ -40562,7 +40568,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ190">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR190">
         <v>1.16</v>
@@ -40893,7 +40899,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -40971,7 +40977,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ192">
         <v>1.07</v>
@@ -41099,7 +41105,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41511,7 +41517,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41798,7 +41804,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR196">
         <v>1.29</v>
@@ -41923,7 +41929,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42207,7 +42213,7 @@
         <v>2.5</v>
       </c>
       <c r="AP198">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ198">
         <v>2.13</v>
@@ -42335,7 +42341,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42622,7 +42628,7 @@
         <v>2</v>
       </c>
       <c r="AQ200">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR200">
         <v>1.68</v>
@@ -43031,7 +43037,7 @@
         <v>0.82</v>
       </c>
       <c r="AP202">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ202">
         <v>1</v>
@@ -43159,7 +43165,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43240,7 +43246,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ203">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR203">
         <v>1.23</v>
@@ -43571,7 +43577,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43777,7 +43783,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44189,7 +44195,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44601,7 +44607,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -44885,7 +44891,7 @@
         <v>1.27</v>
       </c>
       <c r="AP211">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
         <v>1.07</v>
@@ -45091,7 +45097,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ212">
         <v>0.67</v>
@@ -45506,7 +45512,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ214">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR214">
         <v>1.29</v>
@@ -45631,7 +45637,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -46043,7 +46049,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46249,7 +46255,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46455,7 +46461,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -46739,10 +46745,10 @@
         <v>0.5</v>
       </c>
       <c r="AP220">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ220">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR220">
         <v>2.13</v>
@@ -47073,7 +47079,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47279,7 +47285,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47485,7 +47491,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47772,7 +47778,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ225">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR225">
         <v>1.18</v>
@@ -47897,7 +47903,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48390,7 +48396,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ228">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR228">
         <v>1.98</v>
@@ -48515,7 +48521,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48927,7 +48933,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49133,7 +49139,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49417,7 +49423,7 @@
         <v>0.75</v>
       </c>
       <c r="AP233">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ233">
         <v>1</v>
@@ -49623,7 +49629,7 @@
         <v>0.58</v>
       </c>
       <c r="AP234">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ234">
         <v>0.67</v>
@@ -49751,7 +49757,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49957,7 +49963,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50038,7 +50044,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ236">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR236">
         <v>1.24</v>
@@ -50163,7 +50169,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50369,7 +50375,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50656,7 +50662,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ239">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR239">
         <v>1.43</v>
@@ -50862,7 +50868,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ240">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR240">
         <v>1.26</v>
@@ -50987,7 +50993,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51193,7 +51199,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51271,7 +51277,7 @@
         <v>1.15</v>
       </c>
       <c r="AP242">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ242">
         <v>1.27</v>
@@ -51399,7 +51405,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51605,7 +51611,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51683,7 +51689,7 @@
         <v>0.77</v>
       </c>
       <c r="AP244">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ244">
         <v>0.8100000000000001</v>
@@ -51811,7 +51817,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52017,7 +52023,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52301,7 +52307,7 @@
         <v>1.54</v>
       </c>
       <c r="AP247">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ247">
         <v>1.4</v>
@@ -52429,7 +52435,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52841,7 +52847,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53459,7 +53465,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53871,7 +53877,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -53952,7 +53958,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ255">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AR255">
         <v>1.25</v>
@@ -54489,7 +54495,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54982,7 +54988,7 @@
         <v>2</v>
       </c>
       <c r="AQ260">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR260">
         <v>1.66</v>
@@ -55107,7 +55113,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55185,7 +55191,7 @@
         <v>1.07</v>
       </c>
       <c r="AP261">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ261">
         <v>1</v>
@@ -55313,7 +55319,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55391,10 +55397,10 @@
         <v>0.57</v>
       </c>
       <c r="AP262">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ262">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR262">
         <v>1.31</v>
@@ -55519,7 +55525,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55725,7 +55731,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56549,7 +56555,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56755,7 +56761,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57167,7 +57173,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57245,7 +57251,7 @@
         <v>2.07</v>
       </c>
       <c r="AP271">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ271">
         <v>2.13</v>
@@ -58147,6 +58153,624 @@
         <v>0</v>
       </c>
       <c r="BP275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7574835</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45774.47916666666</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>84</v>
+      </c>
+      <c r="H276" t="s">
+        <v>82</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>257</v>
+      </c>
+      <c r="P276" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q276">
+        <v>2.88</v>
+      </c>
+      <c r="R276">
+        <v>2.05</v>
+      </c>
+      <c r="S276">
+        <v>4</v>
+      </c>
+      <c r="T276">
+        <v>1.5</v>
+      </c>
+      <c r="U276">
+        <v>2.5</v>
+      </c>
+      <c r="V276">
+        <v>3.4</v>
+      </c>
+      <c r="W276">
+        <v>1.3</v>
+      </c>
+      <c r="X276">
+        <v>10</v>
+      </c>
+      <c r="Y276">
+        <v>1.06</v>
+      </c>
+      <c r="Z276">
+        <v>2.1</v>
+      </c>
+      <c r="AA276">
+        <v>3.2</v>
+      </c>
+      <c r="AB276">
+        <v>3.3</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>0</v>
+      </c>
+      <c r="AF276">
+        <v>0</v>
+      </c>
+      <c r="AG276">
+        <v>2.15</v>
+      </c>
+      <c r="AH276">
+        <v>1.65</v>
+      </c>
+      <c r="AI276">
+        <v>1.91</v>
+      </c>
+      <c r="AJ276">
+        <v>1.91</v>
+      </c>
+      <c r="AK276">
+        <v>0</v>
+      </c>
+      <c r="AL276">
+        <v>0</v>
+      </c>
+      <c r="AM276">
+        <v>0</v>
+      </c>
+      <c r="AN276">
+        <v>1.6</v>
+      </c>
+      <c r="AO276">
+        <v>0.6</v>
+      </c>
+      <c r="AP276">
+        <v>1.56</v>
+      </c>
+      <c r="AQ276">
+        <v>0.63</v>
+      </c>
+      <c r="AR276">
+        <v>1.27</v>
+      </c>
+      <c r="AS276">
+        <v>1.31</v>
+      </c>
+      <c r="AT276">
+        <v>2.58</v>
+      </c>
+      <c r="AU276">
+        <v>4</v>
+      </c>
+      <c r="AV276">
+        <v>5</v>
+      </c>
+      <c r="AW276">
+        <v>5</v>
+      </c>
+      <c r="AX276">
+        <v>15</v>
+      </c>
+      <c r="AY276">
+        <v>11</v>
+      </c>
+      <c r="AZ276">
+        <v>24</v>
+      </c>
+      <c r="BA276">
+        <v>2</v>
+      </c>
+      <c r="BB276">
+        <v>5</v>
+      </c>
+      <c r="BC276">
+        <v>7</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7574841</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45774.58333333334</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277" t="s">
+        <v>83</v>
+      </c>
+      <c r="H277" t="s">
+        <v>71</v>
+      </c>
+      <c r="I277">
+        <v>4</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>4</v>
+      </c>
+      <c r="L277">
+        <v>6</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>6</v>
+      </c>
+      <c r="O277" t="s">
+        <v>258</v>
+      </c>
+      <c r="P277" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q277">
+        <v>1.36</v>
+      </c>
+      <c r="R277">
+        <v>3.5</v>
+      </c>
+      <c r="S277">
+        <v>15</v>
+      </c>
+      <c r="T277">
+        <v>1.18</v>
+      </c>
+      <c r="U277">
+        <v>4.5</v>
+      </c>
+      <c r="V277">
+        <v>1.83</v>
+      </c>
+      <c r="W277">
+        <v>1.83</v>
+      </c>
+      <c r="X277">
+        <v>3.75</v>
+      </c>
+      <c r="Y277">
+        <v>1.25</v>
+      </c>
+      <c r="Z277">
+        <v>1.08</v>
+      </c>
+      <c r="AA277">
+        <v>9</v>
+      </c>
+      <c r="AB277">
+        <v>25</v>
+      </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
+      <c r="AD277">
+        <v>0</v>
+      </c>
+      <c r="AE277">
+        <v>0</v>
+      </c>
+      <c r="AF277">
+        <v>0</v>
+      </c>
+      <c r="AG277">
+        <v>1.3</v>
+      </c>
+      <c r="AH277">
+        <v>3.33</v>
+      </c>
+      <c r="AI277">
+        <v>2.25</v>
+      </c>
+      <c r="AJ277">
+        <v>1.57</v>
+      </c>
+      <c r="AK277">
+        <v>0</v>
+      </c>
+      <c r="AL277">
+        <v>0</v>
+      </c>
+      <c r="AM277">
+        <v>0</v>
+      </c>
+      <c r="AN277">
+        <v>2.67</v>
+      </c>
+      <c r="AO277">
+        <v>0.6</v>
+      </c>
+      <c r="AP277">
+        <v>2.69</v>
+      </c>
+      <c r="AQ277">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR277">
+        <v>2.21</v>
+      </c>
+      <c r="AS277">
+        <v>0.99</v>
+      </c>
+      <c r="AT277">
+        <v>3.2</v>
+      </c>
+      <c r="AU277">
+        <v>12</v>
+      </c>
+      <c r="AV277">
+        <v>4</v>
+      </c>
+      <c r="AW277">
+        <v>12</v>
+      </c>
+      <c r="AX277">
+        <v>4</v>
+      </c>
+      <c r="AY277">
+        <v>27</v>
+      </c>
+      <c r="AZ277">
+        <v>9</v>
+      </c>
+      <c r="BA277">
+        <v>10</v>
+      </c>
+      <c r="BB277">
+        <v>4</v>
+      </c>
+      <c r="BC277">
+        <v>14</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>0</v>
+      </c>
+      <c r="BG277">
+        <v>0</v>
+      </c>
+      <c r="BH277">
+        <v>0</v>
+      </c>
+      <c r="BI277">
+        <v>0</v>
+      </c>
+      <c r="BJ277">
+        <v>0</v>
+      </c>
+      <c r="BK277">
+        <v>0</v>
+      </c>
+      <c r="BL277">
+        <v>0</v>
+      </c>
+      <c r="BM277">
+        <v>0</v>
+      </c>
+      <c r="BN277">
+        <v>0</v>
+      </c>
+      <c r="BO277">
+        <v>0</v>
+      </c>
+      <c r="BP277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7574837</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45774.58333333334</v>
+      </c>
+      <c r="F278">
+        <v>31</v>
+      </c>
+      <c r="G278" t="s">
+        <v>85</v>
+      </c>
+      <c r="H278" t="s">
+        <v>81</v>
+      </c>
+      <c r="I278">
+        <v>3</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>3</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278" t="s">
+        <v>259</v>
+      </c>
+      <c r="P278" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q278">
+        <v>2.1</v>
+      </c>
+      <c r="R278">
+        <v>2.3</v>
+      </c>
+      <c r="S278">
+        <v>6</v>
+      </c>
+      <c r="T278">
+        <v>1.36</v>
+      </c>
+      <c r="U278">
+        <v>3</v>
+      </c>
+      <c r="V278">
+        <v>2.75</v>
+      </c>
+      <c r="W278">
+        <v>1.4</v>
+      </c>
+      <c r="X278">
+        <v>7</v>
+      </c>
+      <c r="Y278">
+        <v>1.1</v>
+      </c>
+      <c r="Z278">
+        <v>1.63</v>
+      </c>
+      <c r="AA278">
+        <v>3.6</v>
+      </c>
+      <c r="AB278">
+        <v>4.9</v>
+      </c>
+      <c r="AC278">
+        <v>0</v>
+      </c>
+      <c r="AD278">
+        <v>0</v>
+      </c>
+      <c r="AE278">
+        <v>0</v>
+      </c>
+      <c r="AF278">
+        <v>0</v>
+      </c>
+      <c r="AG278">
+        <v>1.8</v>
+      </c>
+      <c r="AH278">
+        <v>1.95</v>
+      </c>
+      <c r="AI278">
+        <v>1.95</v>
+      </c>
+      <c r="AJ278">
+        <v>1.8</v>
+      </c>
+      <c r="AK278">
+        <v>0</v>
+      </c>
+      <c r="AL278">
+        <v>0</v>
+      </c>
+      <c r="AM278">
+        <v>0</v>
+      </c>
+      <c r="AN278">
+        <v>1.93</v>
+      </c>
+      <c r="AO278">
+        <v>0.73</v>
+      </c>
+      <c r="AP278">
+        <v>2</v>
+      </c>
+      <c r="AQ278">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR278">
+        <v>1.57</v>
+      </c>
+      <c r="AS278">
+        <v>1.06</v>
+      </c>
+      <c r="AT278">
+        <v>2.63</v>
+      </c>
+      <c r="AU278">
+        <v>8</v>
+      </c>
+      <c r="AV278">
+        <v>5</v>
+      </c>
+      <c r="AW278">
+        <v>19</v>
+      </c>
+      <c r="AX278">
+        <v>8</v>
+      </c>
+      <c r="AY278">
+        <v>30</v>
+      </c>
+      <c r="AZ278">
+        <v>14</v>
+      </c>
+      <c r="BA278">
+        <v>9</v>
+      </c>
+      <c r="BB278">
+        <v>1</v>
+      </c>
+      <c r="BC278">
+        <v>10</v>
+      </c>
+      <c r="BD278">
+        <v>0</v>
+      </c>
+      <c r="BE278">
+        <v>0</v>
+      </c>
+      <c r="BF278">
+        <v>0</v>
+      </c>
+      <c r="BG278">
+        <v>0</v>
+      </c>
+      <c r="BH278">
+        <v>0</v>
+      </c>
+      <c r="BI278">
+        <v>0</v>
+      </c>
+      <c r="BJ278">
+        <v>0</v>
+      </c>
+      <c r="BK278">
+        <v>0</v>
+      </c>
+      <c r="BL278">
+        <v>0</v>
+      </c>
+      <c r="BM278">
+        <v>0</v>
+      </c>
+      <c r="BN278">
+        <v>0</v>
+      </c>
+      <c r="BO278">
+        <v>0</v>
+      </c>
+      <c r="BP278">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1140,6 +1140,9 @@
   <si>
     <t>['21', '77', '84']</t>
   </si>
+  <si>
+    <t>['6', '45+1', '50', '57', '90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1500,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4312,7 +4315,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ14">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5133,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ18">
         <v>2.13</v>
@@ -5548,7 +5551,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ20">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -8017,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ32">
         <v>1.13</v>
@@ -9256,7 +9259,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR38">
         <v>0.93</v>
@@ -12755,7 +12758,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ55">
         <v>2.13</v>
@@ -12964,7 +12967,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ56">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR56">
         <v>0.98</v>
@@ -17081,7 +17084,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ76">
         <v>0.73</v>
@@ -17290,7 +17293,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ77">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -20995,7 +20998,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ95">
         <v>0.6899999999999999</v>
@@ -21616,7 +21619,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR98">
         <v>1.75</v>
@@ -23882,7 +23885,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ109">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -25115,7 +25118,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ115">
         <v>0.8100000000000001</v>
@@ -28205,7 +28208,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ130">
         <v>0.5600000000000001</v>
@@ -28826,7 +28829,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ133">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR133">
         <v>1.29</v>
@@ -31504,7 +31507,7 @@
         <v>2</v>
       </c>
       <c r="AQ146">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -32119,7 +32122,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -33770,7 +33773,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ157">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR157">
         <v>1.39</v>
@@ -35003,7 +35006,7 @@
         <v>1.38</v>
       </c>
       <c r="AP163">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ163">
         <v>1.07</v>
@@ -37063,7 +37066,7 @@
         <v>1.11</v>
       </c>
       <c r="AP173">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ173">
         <v>1.27</v>
@@ -38920,7 +38923,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ182">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR182">
         <v>2.01</v>
@@ -40771,7 +40774,7 @@
         <v>0.3</v>
       </c>
       <c r="AP191">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ191">
         <v>0.67</v>
@@ -43864,7 +43867,7 @@
         <v>1</v>
       </c>
       <c r="AQ206">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR206">
         <v>1.22</v>
@@ -45303,7 +45306,7 @@
         <v>1.55</v>
       </c>
       <c r="AP213">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ213">
         <v>1.4</v>
@@ -47366,7 +47369,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ223">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR223">
         <v>1.24</v>
@@ -47569,7 +47572,7 @@
         <v>1</v>
       </c>
       <c r="AP224">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ224">
         <v>1.27</v>
@@ -50250,7 +50253,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ237">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR237">
         <v>1.14</v>
@@ -51483,7 +51486,7 @@
         <v>0.54</v>
       </c>
       <c r="AP243">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ243">
         <v>0.87</v>
@@ -53955,7 +53958,7 @@
         <v>0.43</v>
       </c>
       <c r="AP255">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ255">
         <v>0.63</v>
@@ -54370,7 +54373,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ257">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AR257">
         <v>1.44</v>
@@ -58771,6 +58774,212 @@
         <v>0</v>
       </c>
       <c r="BP278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7574836</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45774.6875</v>
+      </c>
+      <c r="F279">
+        <v>31</v>
+      </c>
+      <c r="G279" t="s">
+        <v>86</v>
+      </c>
+      <c r="H279" t="s">
+        <v>70</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>2</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>5</v>
+      </c>
+      <c r="N279">
+        <v>5</v>
+      </c>
+      <c r="O279" t="s">
+        <v>90</v>
+      </c>
+      <c r="P279" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q279">
+        <v>10</v>
+      </c>
+      <c r="R279">
+        <v>2.63</v>
+      </c>
+      <c r="S279">
+        <v>1.67</v>
+      </c>
+      <c r="T279">
+        <v>1.29</v>
+      </c>
+      <c r="U279">
+        <v>3.5</v>
+      </c>
+      <c r="V279">
+        <v>2.25</v>
+      </c>
+      <c r="W279">
+        <v>1.57</v>
+      </c>
+      <c r="X279">
+        <v>5.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.14</v>
+      </c>
+      <c r="Z279">
+        <v>10.5</v>
+      </c>
+      <c r="AA279">
+        <v>5.7</v>
+      </c>
+      <c r="AB279">
+        <v>1.22</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>0</v>
+      </c>
+      <c r="AF279">
+        <v>0</v>
+      </c>
+      <c r="AG279">
+        <v>1.57</v>
+      </c>
+      <c r="AH279">
+        <v>2.3</v>
+      </c>
+      <c r="AI279">
+        <v>2.1</v>
+      </c>
+      <c r="AJ279">
+        <v>1.67</v>
+      </c>
+      <c r="AK279">
+        <v>0</v>
+      </c>
+      <c r="AL279">
+        <v>0</v>
+      </c>
+      <c r="AM279">
+        <v>0</v>
+      </c>
+      <c r="AN279">
+        <v>0.4</v>
+      </c>
+      <c r="AO279">
+        <v>2.27</v>
+      </c>
+      <c r="AP279">
+        <v>0.38</v>
+      </c>
+      <c r="AQ279">
+        <v>2.31</v>
+      </c>
+      <c r="AR279">
+        <v>1.33</v>
+      </c>
+      <c r="AS279">
+        <v>1.87</v>
+      </c>
+      <c r="AT279">
+        <v>3.2</v>
+      </c>
+      <c r="AU279">
+        <v>0</v>
+      </c>
+      <c r="AV279">
+        <v>13</v>
+      </c>
+      <c r="AW279">
+        <v>7</v>
+      </c>
+      <c r="AX279">
+        <v>13</v>
+      </c>
+      <c r="AY279">
+        <v>8</v>
+      </c>
+      <c r="AZ279">
+        <v>32</v>
+      </c>
+      <c r="BA279">
+        <v>3</v>
+      </c>
+      <c r="BB279">
+        <v>5</v>
+      </c>
+      <c r="BC279">
+        <v>8</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BG279">
+        <v>0</v>
+      </c>
+      <c r="BH279">
+        <v>0</v>
+      </c>
+      <c r="BI279">
+        <v>0</v>
+      </c>
+      <c r="BJ279">
+        <v>0</v>
+      </c>
+      <c r="BK279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BM279">
+        <v>0</v>
+      </c>
+      <c r="BN279">
+        <v>0</v>
+      </c>
+      <c r="BO279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="377">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1143,6 +1143,9 @@
   <si>
     <t>['6', '45+1', '50', '57', '90+2']</t>
   </si>
+  <si>
+    <t>['21', '82', '87']</t>
+  </si>
 </sst>
 </file>
 
@@ -1503,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2252,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -4933,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5754,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ21">
         <v>1.4</v>
@@ -8023,7 +8026,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ32">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>0.64</v>
@@ -9462,7 +9465,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
         <v>0.73</v>
@@ -11319,7 +11322,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ48">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -13376,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58">
         <v>1.27</v>
@@ -15851,7 +15854,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -16466,7 +16469,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ73">
         <v>0.63</v>
@@ -19765,7 +19768,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>2.03</v>
@@ -20380,7 +20383,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -24091,7 +24094,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
         <v>1.54</v>
@@ -25324,7 +25327,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116">
         <v>0.5600000000000001</v>
@@ -27796,7 +27799,7 @@
         <v>0.57</v>
       </c>
       <c r="AP128">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -29241,7 +29244,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR135">
         <v>2.03</v>
@@ -32534,7 +32537,7 @@
         <v>1.29</v>
       </c>
       <c r="AP151">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ151">
         <v>1.27</v>
@@ -32743,7 +32746,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ152">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR152">
         <v>1.17</v>
@@ -33567,7 +33570,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ156">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR156">
         <v>1.41</v>
@@ -35830,7 +35833,7 @@
         <v>1.75</v>
       </c>
       <c r="AP167">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ167">
         <v>2.13</v>
@@ -37687,7 +37690,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ176">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR176">
         <v>1.21</v>
@@ -40362,7 +40365,7 @@
         <v>0.33</v>
       </c>
       <c r="AP189">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ189">
         <v>0.67</v>
@@ -41189,7 +41192,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ193">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR193">
         <v>1.34</v>
@@ -42834,7 +42837,7 @@
         <v>0.55</v>
       </c>
       <c r="AP201">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ201">
         <v>0.87</v>
@@ -45927,7 +45930,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ216">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR216">
         <v>2.12</v>
@@ -47366,7 +47369,7 @@
         <v>2.08</v>
       </c>
       <c r="AP223">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ223">
         <v>2.31</v>
@@ -48811,7 +48814,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ230">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR230">
         <v>1.23</v>
@@ -50044,7 +50047,7 @@
         <v>0.62</v>
       </c>
       <c r="AP236">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ236">
         <v>0.6899999999999999</v>
@@ -51901,7 +51904,7 @@
         <v>1</v>
       </c>
       <c r="AQ245">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR245">
         <v>1.2</v>
@@ -54167,7 +54170,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ256">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR256">
         <v>1.28</v>
@@ -54576,7 +54579,7 @@
         <v>1.64</v>
       </c>
       <c r="AP258">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ258">
         <v>1.63</v>
@@ -58980,6 +58983,212 @@
         <v>0</v>
       </c>
       <c r="BP279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7574833</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45776.6875</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>72</v>
+      </c>
+      <c r="H280" t="s">
+        <v>74</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>3</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="O280" t="s">
+        <v>110</v>
+      </c>
+      <c r="P280" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q280">
+        <v>2.75</v>
+      </c>
+      <c r="R280">
+        <v>2.1</v>
+      </c>
+      <c r="S280">
+        <v>4.33</v>
+      </c>
+      <c r="T280">
+        <v>1.44</v>
+      </c>
+      <c r="U280">
+        <v>2.63</v>
+      </c>
+      <c r="V280">
+        <v>3.25</v>
+      </c>
+      <c r="W280">
+        <v>1.33</v>
+      </c>
+      <c r="X280">
+        <v>9</v>
+      </c>
+      <c r="Y280">
+        <v>1.07</v>
+      </c>
+      <c r="Z280">
+        <v>2.1</v>
+      </c>
+      <c r="AA280">
+        <v>3.1</v>
+      </c>
+      <c r="AB280">
+        <v>3.3</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>2.2</v>
+      </c>
+      <c r="AH280">
+        <v>1.61</v>
+      </c>
+      <c r="AI280">
+        <v>1.95</v>
+      </c>
+      <c r="AJ280">
+        <v>1.8</v>
+      </c>
+      <c r="AK280">
+        <v>0</v>
+      </c>
+      <c r="AL280">
+        <v>0</v>
+      </c>
+      <c r="AM280">
+        <v>0</v>
+      </c>
+      <c r="AN280">
+        <v>1.67</v>
+      </c>
+      <c r="AO280">
+        <v>1.13</v>
+      </c>
+      <c r="AP280">
+        <v>1.56</v>
+      </c>
+      <c r="AQ280">
+        <v>1.25</v>
+      </c>
+      <c r="AR280">
+        <v>1.2</v>
+      </c>
+      <c r="AS280">
+        <v>1.23</v>
+      </c>
+      <c r="AT280">
+        <v>2.43</v>
+      </c>
+      <c r="AU280">
+        <v>5</v>
+      </c>
+      <c r="AV280">
+        <v>6</v>
+      </c>
+      <c r="AW280">
+        <v>4</v>
+      </c>
+      <c r="AX280">
+        <v>7</v>
+      </c>
+      <c r="AY280">
+        <v>11</v>
+      </c>
+      <c r="AZ280">
+        <v>16</v>
+      </c>
+      <c r="BA280">
+        <v>4</v>
+      </c>
+      <c r="BB280">
+        <v>4</v>
+      </c>
+      <c r="BC280">
+        <v>8</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>0</v>
+      </c>
+      <c r="BG280">
+        <v>0</v>
+      </c>
+      <c r="BH280">
+        <v>0</v>
+      </c>
+      <c r="BI280">
+        <v>0</v>
+      </c>
+      <c r="BJ280">
+        <v>0</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280">
+        <v>0</v>
+      </c>
+      <c r="BM280">
+        <v>0</v>
+      </c>
+      <c r="BN280">
+        <v>0</v>
+      </c>
+      <c r="BO280">
+        <v>0</v>
+      </c>
+      <c r="BP280">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -796,6 +796,9 @@
     <t>['15', '31', '44']</t>
   </si>
   <si>
+    <t>['40', '70', '79']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1506,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1971,7 +1974,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2461,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ5">
         <v>0.87</v>
@@ -2589,7 +2592,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -3001,7 +3004,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3082,7 +3085,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ8">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3619,7 +3622,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3825,7 +3828,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4237,7 +4240,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -5061,7 +5064,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5267,7 +5270,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5473,7 +5476,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5679,7 +5682,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5963,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ22">
         <v>0.6899999999999999</v>
@@ -7202,7 +7205,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR28">
         <v>1.72</v>
@@ -7327,7 +7330,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7533,7 +7536,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7739,7 +7742,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -9181,7 +9184,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9387,7 +9390,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9468,7 +9471,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR39">
         <v>1.27</v>
@@ -9799,7 +9802,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -10005,7 +10008,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10211,7 +10214,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10289,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ43">
         <v>0.8100000000000001</v>
@@ -10623,7 +10626,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10829,7 +10832,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11035,7 +11038,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11241,7 +11244,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11653,7 +11656,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -12065,7 +12068,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12683,7 +12686,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12889,7 +12892,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13176,7 +13179,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ57">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13301,7 +13304,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13997,7 +14000,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -15979,7 +15982,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16185,7 +16188,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16263,7 +16266,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ72">
         <v>2.13</v>
@@ -16597,7 +16600,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16803,7 +16806,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17009,7 +17012,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17090,7 +17093,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ76">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR76">
         <v>1.15</v>
@@ -17215,7 +17218,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17833,7 +17836,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18039,7 +18042,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18245,7 +18248,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18451,7 +18454,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18657,7 +18660,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18863,7 +18866,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19069,7 +19072,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19356,7 +19359,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19481,7 +19484,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19765,7 +19768,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ89">
         <v>1.25</v>
@@ -20099,7 +20102,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20305,7 +20308,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20923,7 +20926,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21541,7 +21544,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22159,7 +22162,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22240,7 +22243,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ101">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22571,7 +22574,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22983,7 +22986,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23679,7 +23682,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ108">
         <v>1.07</v>
@@ -24013,7 +24016,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -25948,7 +25951,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ119">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26073,7 +26076,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26691,7 +26694,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26897,7 +26900,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27181,7 +27184,7 @@
         <v>0.17</v>
       </c>
       <c r="AP125">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ125">
         <v>0.67</v>
@@ -27309,7 +27312,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27515,7 +27518,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27927,7 +27930,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28339,7 +28342,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28545,7 +28548,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28957,7 +28960,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29987,7 +29990,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30068,7 +30071,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ139">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR139">
         <v>1.09</v>
@@ -30271,7 +30274,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30399,7 +30402,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30605,7 +30608,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30811,7 +30814,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31223,7 +31226,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31429,7 +31432,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31841,7 +31844,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -32047,7 +32050,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32459,7 +32462,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32665,7 +32668,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32871,7 +32874,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33489,7 +33492,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33695,7 +33698,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33901,7 +33904,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34107,7 +34110,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34519,7 +34522,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34725,7 +34728,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34931,7 +34934,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35218,7 +35221,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ164">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR164">
         <v>1.09</v>
@@ -35343,7 +35346,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -36373,7 +36376,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36451,7 +36454,7 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ170">
         <v>1.4</v>
@@ -36991,7 +36994,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37403,7 +37406,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37609,7 +37612,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -38227,7 +38230,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38433,7 +38436,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38639,7 +38642,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38845,7 +38848,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -38923,7 +38926,7 @@
         <v>2.3</v>
       </c>
       <c r="AP182">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ182">
         <v>2.31</v>
@@ -39257,7 +39260,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39338,7 +39341,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ184">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR184">
         <v>2.05</v>
@@ -39669,7 +39672,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40905,7 +40908,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41111,7 +41114,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41523,7 +41526,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41935,7 +41938,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42347,7 +42350,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -43171,7 +43174,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43583,7 +43586,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43789,7 +43792,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44076,7 +44079,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ207">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR207">
         <v>1.11</v>
@@ -44201,7 +44204,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44279,7 +44282,7 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ208">
         <v>1.27</v>
@@ -44613,7 +44616,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -45643,7 +45646,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -46055,7 +46058,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46261,7 +46264,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46467,7 +46470,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -47085,7 +47088,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47166,7 +47169,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ222">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR222">
         <v>1.43</v>
@@ -47291,7 +47294,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47497,7 +47500,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47909,7 +47912,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48399,7 +48402,7 @@
         <v>0.75</v>
       </c>
       <c r="AP228">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ228">
         <v>0.5600000000000001</v>
@@ -48527,7 +48530,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48939,7 +48942,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49145,7 +49148,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49763,7 +49766,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49969,7 +49972,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50175,7 +50178,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50381,7 +50384,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50999,7 +51002,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51205,7 +51208,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51411,7 +51414,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51617,7 +51620,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51823,7 +51826,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52029,7 +52032,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52441,7 +52444,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52522,7 +52525,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ248">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR248">
         <v>1.24</v>
@@ -52853,7 +52856,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -52931,7 +52934,7 @@
         <v>2</v>
       </c>
       <c r="AP250">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ250">
         <v>2.13</v>
@@ -53471,7 +53474,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53883,7 +53886,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54501,7 +54504,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -55119,7 +55122,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55325,7 +55328,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55531,7 +55534,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55737,7 +55740,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56021,7 +56024,7 @@
         <v>1.36</v>
       </c>
       <c r="AP265">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ265">
         <v>1.27</v>
@@ -56230,7 +56233,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ266">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR266">
         <v>2.12</v>
@@ -56561,7 +56564,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56767,7 +56770,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57179,7 +57182,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -58827,7 +58830,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -59033,7 +59036,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59189,6 +59192,212 @@
         <v>0</v>
       </c>
       <c r="BP280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7574845</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45779.67708333334</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>73</v>
+      </c>
+      <c r="H281" t="s">
+        <v>84</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
+      </c>
+      <c r="L281">
+        <v>3</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281">
+        <v>4</v>
+      </c>
+      <c r="O281" t="s">
+        <v>260</v>
+      </c>
+      <c r="P281" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q281">
+        <v>1.83</v>
+      </c>
+      <c r="R281">
+        <v>2.3</v>
+      </c>
+      <c r="S281">
+        <v>10</v>
+      </c>
+      <c r="T281">
+        <v>1.4</v>
+      </c>
+      <c r="U281">
+        <v>2.75</v>
+      </c>
+      <c r="V281">
+        <v>3</v>
+      </c>
+      <c r="W281">
+        <v>1.36</v>
+      </c>
+      <c r="X281">
+        <v>9</v>
+      </c>
+      <c r="Y281">
+        <v>1.07</v>
+      </c>
+      <c r="Z281">
+        <v>1.36</v>
+      </c>
+      <c r="AA281">
+        <v>4.1</v>
+      </c>
+      <c r="AB281">
+        <v>8.5</v>
+      </c>
+      <c r="AC281">
+        <v>0</v>
+      </c>
+      <c r="AD281">
+        <v>0</v>
+      </c>
+      <c r="AE281">
+        <v>0</v>
+      </c>
+      <c r="AF281">
+        <v>0</v>
+      </c>
+      <c r="AG281">
+        <v>2.05</v>
+      </c>
+      <c r="AH281">
+        <v>1.7</v>
+      </c>
+      <c r="AI281">
+        <v>2.63</v>
+      </c>
+      <c r="AJ281">
+        <v>1.44</v>
+      </c>
+      <c r="AK281">
+        <v>1.05</v>
+      </c>
+      <c r="AL281">
+        <v>1.16</v>
+      </c>
+      <c r="AM281">
+        <v>3.57</v>
+      </c>
+      <c r="AN281">
+        <v>2.4</v>
+      </c>
+      <c r="AO281">
+        <v>0.73</v>
+      </c>
+      <c r="AP281">
+        <v>2.44</v>
+      </c>
+      <c r="AQ281">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR281">
+        <v>1.93</v>
+      </c>
+      <c r="AS281">
+        <v>1.15</v>
+      </c>
+      <c r="AT281">
+        <v>3.08</v>
+      </c>
+      <c r="AU281">
+        <v>5</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>11</v>
+      </c>
+      <c r="AX281">
+        <v>1</v>
+      </c>
+      <c r="AY281">
+        <v>21</v>
+      </c>
+      <c r="AZ281">
+        <v>6</v>
+      </c>
+      <c r="BA281">
+        <v>9</v>
+      </c>
+      <c r="BB281">
+        <v>2</v>
+      </c>
+      <c r="BC281">
+        <v>11</v>
+      </c>
+      <c r="BD281">
+        <v>0</v>
+      </c>
+      <c r="BE281">
+        <v>0</v>
+      </c>
+      <c r="BF281">
+        <v>0</v>
+      </c>
+      <c r="BG281">
+        <v>0</v>
+      </c>
+      <c r="BH281">
+        <v>0</v>
+      </c>
+      <c r="BI281">
+        <v>1.61</v>
+      </c>
+      <c r="BJ281">
+        <v>2.23</v>
+      </c>
+      <c r="BK281">
+        <v>1.99</v>
+      </c>
+      <c r="BL281">
+        <v>1.8</v>
+      </c>
+      <c r="BM281">
+        <v>2.57</v>
+      </c>
+      <c r="BN281">
+        <v>1.46</v>
+      </c>
+      <c r="BO281">
+        <v>0</v>
+      </c>
+      <c r="BP281">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,12 @@
     <t>['40', '70', '79']</t>
   </si>
   <si>
+    <t>['45+4', '90+1']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1148,6 +1154,12 @@
   </si>
   <si>
     <t>['21', '82', '87']</t>
+  </si>
+  <si>
+    <t>['13', '64']</t>
+  </si>
+  <si>
+    <t>['7', '35']</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1974,7 +1986,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2592,7 +2604,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2670,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2879,7 +2891,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3004,7 +3016,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3082,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ8">
         <v>0.6899999999999999</v>
@@ -3288,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ9">
         <v>0.67</v>
@@ -3497,7 +3509,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3622,7 +3634,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3828,7 +3840,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4240,7 +4252,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4318,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
         <v>2.31</v>
@@ -5064,7 +5076,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5270,7 +5282,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5351,7 +5363,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ19">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5476,7 +5488,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5554,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ20">
         <v>2.31</v>
@@ -5682,7 +5694,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5763,7 +5775,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR21">
         <v>1.57</v>
@@ -6790,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
         <v>0.87</v>
@@ -6999,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.62</v>
@@ -7202,7 +7214,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ28">
         <v>0.6899999999999999</v>
@@ -7330,7 +7342,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7411,7 +7423,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ29">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR29">
         <v>1.3</v>
@@ -7536,7 +7548,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7742,7 +7754,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8438,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ34">
         <v>0.8100000000000001</v>
@@ -8853,7 +8865,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR36">
         <v>1.59</v>
@@ -9184,7 +9196,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9390,7 +9402,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9802,7 +9814,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -10008,7 +10020,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10089,7 +10101,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR42">
         <v>2.4</v>
@@ -10214,7 +10226,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10498,7 +10510,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>0.63</v>
@@ -10626,7 +10638,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10704,10 +10716,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ45">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.78</v>
@@ -10832,7 +10844,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11038,7 +11050,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11116,7 +11128,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
         <v>2.13</v>
@@ -11244,7 +11256,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11656,7 +11668,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11943,7 +11955,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR51">
         <v>1.08</v>
@@ -12068,7 +12080,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12352,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12686,7 +12698,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12767,7 +12779,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ55">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12892,7 +12904,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12970,7 +12982,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
         <v>2.31</v>
@@ -13304,7 +13316,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13385,7 +13397,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ58">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
         <v>1.27</v>
@@ -14206,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ62">
         <v>0.6899999999999999</v>
@@ -14827,7 +14839,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ65">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -15239,7 +15251,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -15854,7 +15866,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ70">
         <v>1.25</v>
@@ -15982,7 +15994,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16188,7 +16200,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16600,7 +16612,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16806,7 +16818,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16884,7 +16896,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17012,7 +17024,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17218,7 +17230,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17502,7 +17514,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ78">
         <v>0.8100000000000001</v>
@@ -17836,7 +17848,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17917,7 +17929,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ80">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR80">
         <v>1.2</v>
@@ -18042,7 +18054,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18248,7 +18260,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18454,7 +18466,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18660,7 +18672,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18738,10 +18750,10 @@
         <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ84">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR84">
         <v>1.17</v>
@@ -18866,7 +18878,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19072,7 +19084,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19153,7 +19165,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR86">
         <v>1.12</v>
@@ -19484,7 +19496,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19974,10 +19986,10 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ90">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -20102,7 +20114,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20308,7 +20320,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20592,7 +20604,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
         <v>0.5600000000000001</v>
@@ -20926,7 +20938,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21419,7 +21431,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ97">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -21544,7 +21556,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21622,7 +21634,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>2.31</v>
@@ -22034,7 +22046,7 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ100">
         <v>0.67</v>
@@ -22162,7 +22174,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22446,7 +22458,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22574,7 +22586,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22655,7 +22667,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ103">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR103">
         <v>2.02</v>
@@ -22858,10 +22870,10 @@
         <v>1.6</v>
       </c>
       <c r="AP104">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR104">
         <v>1</v>
@@ -22986,7 +22998,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23067,7 +23079,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR105">
         <v>0.97</v>
@@ -24016,7 +24028,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24094,7 +24106,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ110">
         <v>1.25</v>
@@ -24509,7 +24521,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ112">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR112">
         <v>2.24</v>
@@ -25742,7 +25754,7 @@
         <v>0.29</v>
       </c>
       <c r="AP118">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ118">
         <v>0.87</v>
@@ -25948,7 +25960,7 @@
         <v>0.86</v>
       </c>
       <c r="AP119">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119">
         <v>0.6899999999999999</v>
@@ -26076,7 +26088,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26363,7 +26375,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR121">
         <v>1.05</v>
@@ -26569,7 +26581,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR122">
         <v>1.11</v>
@@ -26694,7 +26706,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26772,7 +26784,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
         <v>1.07</v>
@@ -26900,7 +26912,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -26978,10 +26990,10 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR124">
         <v>1.55</v>
@@ -27312,7 +27324,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27393,7 +27405,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ126">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR126">
         <v>1.4</v>
@@ -27518,7 +27530,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27596,10 +27608,10 @@
         <v>1.83</v>
       </c>
       <c r="AP127">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ127">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR127">
         <v>1.37</v>
@@ -27930,7 +27942,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28342,7 +28354,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28548,7 +28560,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28960,7 +28972,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29990,7 +30002,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30068,7 +30080,7 @@
         <v>0.75</v>
       </c>
       <c r="AP139">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ139">
         <v>0.6899999999999999</v>
@@ -30402,7 +30414,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30480,10 +30492,10 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ141">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR141">
         <v>1.17</v>
@@ -30608,7 +30620,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30814,7 +30826,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -30892,7 +30904,7 @@
         <v>1.14</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ143">
         <v>1.07</v>
@@ -31101,7 +31113,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ144">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR144">
         <v>2.11</v>
@@ -31226,7 +31238,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31307,7 +31319,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ145">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR145">
         <v>1.04</v>
@@ -31432,7 +31444,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31844,7 +31856,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -32050,7 +32062,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32462,7 +32474,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32543,7 +32555,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ151">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR151">
         <v>1.25</v>
@@ -32668,7 +32680,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32874,7 +32886,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33158,7 +33170,7 @@
         <v>1.86</v>
       </c>
       <c r="AP154">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
         <v>1.63</v>
@@ -33367,7 +33379,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ155">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR155">
         <v>2.01</v>
@@ -33492,7 +33504,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33698,7 +33710,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33904,7 +33916,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34110,7 +34122,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34188,7 +34200,7 @@
         <v>0.63</v>
       </c>
       <c r="AP159">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ159">
         <v>0.5600000000000001</v>
@@ -34522,7 +34534,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34728,7 +34740,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34934,7 +34946,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35346,7 +35358,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35424,7 +35436,7 @@
         <v>0.44</v>
       </c>
       <c r="AP165">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ165">
         <v>0.6899999999999999</v>
@@ -35839,7 +35851,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ167">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR167">
         <v>1.21</v>
@@ -36248,10 +36260,10 @@
         <v>1.11</v>
       </c>
       <c r="AP169">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ169">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR169">
         <v>1.15</v>
@@ -36376,7 +36388,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36457,7 +36469,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ170">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR170">
         <v>1.95</v>
@@ -36660,7 +36672,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36994,7 +37006,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37075,7 +37087,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ173">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR173">
         <v>1.33</v>
@@ -37406,7 +37418,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37484,7 +37496,7 @@
         <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37612,7 +37624,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -38230,7 +38242,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38311,7 +38323,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ179">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR179">
         <v>1.18</v>
@@ -38436,7 +38448,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38642,7 +38654,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38848,7 +38860,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39135,7 +39147,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR183">
         <v>1.2</v>
@@ -39260,7 +39272,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39547,7 +39559,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ185">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR185">
         <v>1.11</v>
@@ -39672,7 +39684,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39750,7 +39762,7 @@
         <v>0.9</v>
       </c>
       <c r="AP186">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -39956,7 +39968,7 @@
         <v>0.3</v>
       </c>
       <c r="AP187">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ187">
         <v>0.63</v>
@@ -40162,7 +40174,7 @@
         <v>0.6</v>
       </c>
       <c r="AP188">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ188">
         <v>0.87</v>
@@ -40908,7 +40920,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41114,7 +41126,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41192,7 +41204,7 @@
         <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ193">
         <v>1.25</v>
@@ -41401,7 +41413,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ194">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR194">
         <v>1.46</v>
@@ -41526,7 +41538,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41938,7 +41950,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42016,7 +42028,7 @@
         <v>1.4</v>
       </c>
       <c r="AP197">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ197">
         <v>1.63</v>
@@ -42350,7 +42362,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42431,7 +42443,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ199">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR199">
         <v>1.25</v>
@@ -42634,7 +42646,7 @@
         <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ200">
         <v>0.63</v>
@@ -43174,7 +43186,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43252,7 +43264,7 @@
         <v>0.73</v>
       </c>
       <c r="AP203">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ203">
         <v>0.6899999999999999</v>
@@ -43461,7 +43473,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ204">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR204">
         <v>1.15</v>
@@ -43586,7 +43598,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43792,7 +43804,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44204,7 +44216,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44285,7 +44297,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ208">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR208">
         <v>2.01</v>
@@ -44488,10 +44500,10 @@
         <v>1.45</v>
       </c>
       <c r="AP209">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ209">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR209">
         <v>1.41</v>
@@ -44616,7 +44628,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -45315,7 +45327,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ213">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR213">
         <v>1.28</v>
@@ -45518,7 +45530,7 @@
         <v>0.55</v>
       </c>
       <c r="AP214">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ214">
         <v>0.5600000000000001</v>
@@ -45646,7 +45658,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -46058,7 +46070,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46264,7 +46276,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46470,7 +46482,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -46548,7 +46560,7 @@
         <v>0.75</v>
       </c>
       <c r="AP219">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ219">
         <v>0.8100000000000001</v>
@@ -46960,7 +46972,7 @@
         <v>1.67</v>
       </c>
       <c r="AP221">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ221">
         <v>1.63</v>
@@ -47088,7 +47100,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47294,7 +47306,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47500,7 +47512,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47581,7 +47593,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ224">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR224">
         <v>1.29</v>
@@ -47912,7 +47924,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -47990,7 +48002,7 @@
         <v>2.17</v>
       </c>
       <c r="AP226">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ226">
         <v>2.13</v>
@@ -48199,7 +48211,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ227">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR227">
         <v>1.27</v>
@@ -48530,7 +48542,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48611,7 +48623,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ229">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR229">
         <v>2.09</v>
@@ -48942,7 +48954,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49020,7 +49032,7 @@
         <v>1.17</v>
       </c>
       <c r="AP231">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ231">
         <v>1.07</v>
@@ -49148,7 +49160,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49229,7 +49241,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ232">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR232">
         <v>1.33</v>
@@ -49766,7 +49778,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49847,7 +49859,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ235">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR235">
         <v>1.26</v>
@@ -49972,7 +49984,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50178,7 +50190,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50384,7 +50396,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50462,7 +50474,7 @@
         <v>1.15</v>
       </c>
       <c r="AP238">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ238">
         <v>1</v>
@@ -51002,7 +51014,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51080,7 +51092,7 @@
         <v>1.54</v>
       </c>
       <c r="AP241">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ241">
         <v>1.63</v>
@@ -51208,7 +51220,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51289,7 +51301,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ242">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR242">
         <v>1.3</v>
@@ -51414,7 +51426,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51620,7 +51632,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51826,7 +51838,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52032,7 +52044,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52113,7 +52125,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ246">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR246">
         <v>1.19</v>
@@ -52319,7 +52331,7 @@
         <v>2</v>
       </c>
       <c r="AQ247">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR247">
         <v>1.56</v>
@@ -52444,7 +52456,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52728,7 +52740,7 @@
         <v>0.54</v>
       </c>
       <c r="AP249">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ249">
         <v>0.67</v>
@@ -52856,7 +52868,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -52937,7 +52949,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ250">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR250">
         <v>2.02</v>
@@ -53140,7 +53152,7 @@
         <v>1.08</v>
       </c>
       <c r="AP251">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ251">
         <v>1.07</v>
@@ -53474,7 +53486,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53761,7 +53773,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ254">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR254">
         <v>1.25</v>
@@ -53886,7 +53898,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54504,7 +54516,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54994,7 +55006,7 @@
         <v>0.64</v>
       </c>
       <c r="AP260">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ260">
         <v>0.5600000000000001</v>
@@ -55122,7 +55134,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55328,7 +55340,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55534,7 +55546,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55612,7 +55624,7 @@
         <v>0.86</v>
       </c>
       <c r="AP263">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ263">
         <v>1</v>
@@ -55740,7 +55752,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -55821,7 +55833,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ264">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR264">
         <v>1.34</v>
@@ -56027,7 +56039,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ265">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR265">
         <v>1.99</v>
@@ -56564,7 +56576,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56642,7 +56654,7 @@
         <v>0.71</v>
       </c>
       <c r="AP268">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ268">
         <v>0.87</v>
@@ -56770,7 +56782,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -56848,7 +56860,7 @@
         <v>2.14</v>
       </c>
       <c r="AP269">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ269">
         <v>2.13</v>
@@ -57182,7 +57194,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57263,7 +57275,7 @@
         <v>2</v>
       </c>
       <c r="AQ271">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AR271">
         <v>1.54</v>
@@ -58830,7 +58842,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -59036,7 +59048,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59398,6 +59410,830 @@
         <v>0</v>
       </c>
       <c r="BP281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7574842</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45780.47916666666</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>76</v>
+      </c>
+      <c r="H282" t="s">
+        <v>75</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>261</v>
+      </c>
+      <c r="P282" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q282">
+        <v>3.25</v>
+      </c>
+      <c r="R282">
+        <v>2.1</v>
+      </c>
+      <c r="S282">
+        <v>3.4</v>
+      </c>
+      <c r="T282">
+        <v>1.44</v>
+      </c>
+      <c r="U282">
+        <v>2.63</v>
+      </c>
+      <c r="V282">
+        <v>3.25</v>
+      </c>
+      <c r="W282">
+        <v>1.33</v>
+      </c>
+      <c r="X282">
+        <v>9</v>
+      </c>
+      <c r="Y282">
+        <v>1.07</v>
+      </c>
+      <c r="Z282">
+        <v>2.55</v>
+      </c>
+      <c r="AA282">
+        <v>3.1</v>
+      </c>
+      <c r="AB282">
+        <v>2.6</v>
+      </c>
+      <c r="AC282">
+        <v>0</v>
+      </c>
+      <c r="AD282">
+        <v>0</v>
+      </c>
+      <c r="AE282">
+        <v>0</v>
+      </c>
+      <c r="AF282">
+        <v>0</v>
+      </c>
+      <c r="AG282">
+        <v>2.1</v>
+      </c>
+      <c r="AH282">
+        <v>1.67</v>
+      </c>
+      <c r="AI282">
+        <v>1.8</v>
+      </c>
+      <c r="AJ282">
+        <v>1.95</v>
+      </c>
+      <c r="AK282">
+        <v>1.41</v>
+      </c>
+      <c r="AL282">
+        <v>1.36</v>
+      </c>
+      <c r="AM282">
+        <v>1.52</v>
+      </c>
+      <c r="AN282">
+        <v>0.53</v>
+      </c>
+      <c r="AO282">
+        <v>1.27</v>
+      </c>
+      <c r="AP282">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ282">
+        <v>1.19</v>
+      </c>
+      <c r="AR282">
+        <v>1.43</v>
+      </c>
+      <c r="AS282">
+        <v>1.38</v>
+      </c>
+      <c r="AT282">
+        <v>2.81</v>
+      </c>
+      <c r="AU282">
+        <v>7</v>
+      </c>
+      <c r="AV282">
+        <v>6</v>
+      </c>
+      <c r="AW282">
+        <v>11</v>
+      </c>
+      <c r="AX282">
+        <v>6</v>
+      </c>
+      <c r="AY282">
+        <v>24</v>
+      </c>
+      <c r="AZ282">
+        <v>17</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
+        <v>10</v>
+      </c>
+      <c r="BC282">
+        <v>14</v>
+      </c>
+      <c r="BD282">
+        <v>0</v>
+      </c>
+      <c r="BE282">
+        <v>0</v>
+      </c>
+      <c r="BF282">
+        <v>0</v>
+      </c>
+      <c r="BG282">
+        <v>0</v>
+      </c>
+      <c r="BH282">
+        <v>0</v>
+      </c>
+      <c r="BI282">
+        <v>0</v>
+      </c>
+      <c r="BJ282">
+        <v>0</v>
+      </c>
+      <c r="BK282">
+        <v>0</v>
+      </c>
+      <c r="BL282">
+        <v>0</v>
+      </c>
+      <c r="BM282">
+        <v>0</v>
+      </c>
+      <c r="BN282">
+        <v>0</v>
+      </c>
+      <c r="BO282">
+        <v>0</v>
+      </c>
+      <c r="BP282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7574848</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45780.47916666666</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>82</v>
+      </c>
+      <c r="H283" t="s">
+        <v>85</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>262</v>
+      </c>
+      <c r="P283" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q283">
+        <v>4.75</v>
+      </c>
+      <c r="R283">
+        <v>2.2</v>
+      </c>
+      <c r="S283">
+        <v>2.4</v>
+      </c>
+      <c r="T283">
+        <v>1.4</v>
+      </c>
+      <c r="U283">
+        <v>2.75</v>
+      </c>
+      <c r="V283">
+        <v>2.75</v>
+      </c>
+      <c r="W283">
+        <v>1.4</v>
+      </c>
+      <c r="X283">
+        <v>8</v>
+      </c>
+      <c r="Y283">
+        <v>1.08</v>
+      </c>
+      <c r="Z283">
+        <v>4.1</v>
+      </c>
+      <c r="AA283">
+        <v>3.3</v>
+      </c>
+      <c r="AB283">
+        <v>1.8</v>
+      </c>
+      <c r="AC283">
+        <v>0</v>
+      </c>
+      <c r="AD283">
+        <v>0</v>
+      </c>
+      <c r="AE283">
+        <v>0</v>
+      </c>
+      <c r="AF283">
+        <v>0</v>
+      </c>
+      <c r="AG283">
+        <v>2.05</v>
+      </c>
+      <c r="AH283">
+        <v>1.73</v>
+      </c>
+      <c r="AI283">
+        <v>1.91</v>
+      </c>
+      <c r="AJ283">
+        <v>1.91</v>
+      </c>
+      <c r="AK283">
+        <v>1.95</v>
+      </c>
+      <c r="AL283">
+        <v>1.31</v>
+      </c>
+      <c r="AM283">
+        <v>1.23</v>
+      </c>
+      <c r="AN283">
+        <v>1.53</v>
+      </c>
+      <c r="AO283">
+        <v>1.27</v>
+      </c>
+      <c r="AP283">
+        <v>1.44</v>
+      </c>
+      <c r="AQ283">
+        <v>1.38</v>
+      </c>
+      <c r="AR283">
+        <v>1.55</v>
+      </c>
+      <c r="AS283">
+        <v>1.49</v>
+      </c>
+      <c r="AT283">
+        <v>3.04</v>
+      </c>
+      <c r="AU283">
+        <v>2</v>
+      </c>
+      <c r="AV283">
+        <v>4</v>
+      </c>
+      <c r="AW283">
+        <v>15</v>
+      </c>
+      <c r="AX283">
+        <v>8</v>
+      </c>
+      <c r="AY283">
+        <v>23</v>
+      </c>
+      <c r="AZ283">
+        <v>13</v>
+      </c>
+      <c r="BA283">
+        <v>6</v>
+      </c>
+      <c r="BB283">
+        <v>3</v>
+      </c>
+      <c r="BC283">
+        <v>9</v>
+      </c>
+      <c r="BD283">
+        <v>0</v>
+      </c>
+      <c r="BE283">
+        <v>0</v>
+      </c>
+      <c r="BF283">
+        <v>0</v>
+      </c>
+      <c r="BG283">
+        <v>0</v>
+      </c>
+      <c r="BH283">
+        <v>0</v>
+      </c>
+      <c r="BI283">
+        <v>0</v>
+      </c>
+      <c r="BJ283">
+        <v>0</v>
+      </c>
+      <c r="BK283">
+        <v>0</v>
+      </c>
+      <c r="BL283">
+        <v>0</v>
+      </c>
+      <c r="BM283">
+        <v>0</v>
+      </c>
+      <c r="BN283">
+        <v>0</v>
+      </c>
+      <c r="BO283">
+        <v>0</v>
+      </c>
+      <c r="BP283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7574846</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45780.58333333334</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>77</v>
+      </c>
+      <c r="H284" t="s">
+        <v>79</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" t="s">
+        <v>198</v>
+      </c>
+      <c r="P284" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q284">
+        <v>2.38</v>
+      </c>
+      <c r="R284">
+        <v>2.05</v>
+      </c>
+      <c r="S284">
+        <v>6</v>
+      </c>
+      <c r="T284">
+        <v>1.5</v>
+      </c>
+      <c r="U284">
+        <v>2.5</v>
+      </c>
+      <c r="V284">
+        <v>3.5</v>
+      </c>
+      <c r="W284">
+        <v>1.29</v>
+      </c>
+      <c r="X284">
+        <v>10</v>
+      </c>
+      <c r="Y284">
+        <v>1.06</v>
+      </c>
+      <c r="Z284">
+        <v>1.71</v>
+      </c>
+      <c r="AA284">
+        <v>3.2</v>
+      </c>
+      <c r="AB284">
+        <v>5.1</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>0</v>
+      </c>
+      <c r="AF284">
+        <v>0</v>
+      </c>
+      <c r="AG284">
+        <v>2.3</v>
+      </c>
+      <c r="AH284">
+        <v>1.57</v>
+      </c>
+      <c r="AI284">
+        <v>2.2</v>
+      </c>
+      <c r="AJ284">
+        <v>1.62</v>
+      </c>
+      <c r="AK284">
+        <v>1.17</v>
+      </c>
+      <c r="AL284">
+        <v>1.31</v>
+      </c>
+      <c r="AM284">
+        <v>2.13</v>
+      </c>
+      <c r="AN284">
+        <v>2</v>
+      </c>
+      <c r="AO284">
+        <v>1.4</v>
+      </c>
+      <c r="AP284">
+        <v>1.94</v>
+      </c>
+      <c r="AQ284">
+        <v>1.38</v>
+      </c>
+      <c r="AR284">
+        <v>1.69</v>
+      </c>
+      <c r="AS284">
+        <v>1.09</v>
+      </c>
+      <c r="AT284">
+        <v>2.78</v>
+      </c>
+      <c r="AU284">
+        <v>5</v>
+      </c>
+      <c r="AV284">
+        <v>4</v>
+      </c>
+      <c r="AW284">
+        <v>14</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>23</v>
+      </c>
+      <c r="AZ284">
+        <v>9</v>
+      </c>
+      <c r="BA284">
+        <v>8</v>
+      </c>
+      <c r="BB284">
+        <v>0</v>
+      </c>
+      <c r="BC284">
+        <v>8</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>0</v>
+      </c>
+      <c r="BG284">
+        <v>0</v>
+      </c>
+      <c r="BH284">
+        <v>0</v>
+      </c>
+      <c r="BI284">
+        <v>0</v>
+      </c>
+      <c r="BJ284">
+        <v>0</v>
+      </c>
+      <c r="BK284">
+        <v>0</v>
+      </c>
+      <c r="BL284">
+        <v>0</v>
+      </c>
+      <c r="BM284">
+        <v>0</v>
+      </c>
+      <c r="BN284">
+        <v>0</v>
+      </c>
+      <c r="BO284">
+        <v>0</v>
+      </c>
+      <c r="BP284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7574849</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45780.6875</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>74</v>
+      </c>
+      <c r="H285" t="s">
+        <v>83</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>2</v>
+      </c>
+      <c r="K285">
+        <v>2</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285">
+        <v>2</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285" t="s">
+        <v>223</v>
+      </c>
+      <c r="P285" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q285">
+        <v>10</v>
+      </c>
+      <c r="R285">
+        <v>3.1</v>
+      </c>
+      <c r="S285">
+        <v>1.53</v>
+      </c>
+      <c r="T285">
+        <v>1.2</v>
+      </c>
+      <c r="U285">
+        <v>4.33</v>
+      </c>
+      <c r="V285">
+        <v>1.91</v>
+      </c>
+      <c r="W285">
+        <v>1.8</v>
+      </c>
+      <c r="X285">
+        <v>4</v>
+      </c>
+      <c r="Y285">
+        <v>1.22</v>
+      </c>
+      <c r="Z285">
+        <v>9</v>
+      </c>
+      <c r="AA285">
+        <v>5.9</v>
+      </c>
+      <c r="AB285">
+        <v>1.24</v>
+      </c>
+      <c r="AC285">
+        <v>0</v>
+      </c>
+      <c r="AD285">
+        <v>0</v>
+      </c>
+      <c r="AE285">
+        <v>0</v>
+      </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
+      <c r="AG285">
+        <v>1.38</v>
+      </c>
+      <c r="AH285">
+        <v>2.92</v>
+      </c>
+      <c r="AI285">
+        <v>1.95</v>
+      </c>
+      <c r="AJ285">
+        <v>1.8</v>
+      </c>
+      <c r="AK285">
+        <v>5.28</v>
+      </c>
+      <c r="AL285">
+        <v>1.09</v>
+      </c>
+      <c r="AM285">
+        <v>1.04</v>
+      </c>
+      <c r="AN285">
+        <v>1.47</v>
+      </c>
+      <c r="AO285">
+        <v>2.13</v>
+      </c>
+      <c r="AP285">
+        <v>1.38</v>
+      </c>
+      <c r="AQ285">
+        <v>2.19</v>
+      </c>
+      <c r="AR285">
+        <v>1.2</v>
+      </c>
+      <c r="AS285">
+        <v>1.85</v>
+      </c>
+      <c r="AT285">
+        <v>3.05</v>
+      </c>
+      <c r="AU285">
+        <v>2</v>
+      </c>
+      <c r="AV285">
+        <v>4</v>
+      </c>
+      <c r="AW285">
+        <v>8</v>
+      </c>
+      <c r="AX285">
+        <v>7</v>
+      </c>
+      <c r="AY285">
+        <v>11</v>
+      </c>
+      <c r="AZ285">
+        <v>12</v>
+      </c>
+      <c r="BA285">
+        <v>2</v>
+      </c>
+      <c r="BB285">
+        <v>4</v>
+      </c>
+      <c r="BC285">
+        <v>6</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="384">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,9 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['81', '90+3']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1160,6 +1163,9 @@
   </si>
   <si>
     <t>['7', '35']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ2">
         <v>0.6899999999999999</v>
@@ -1986,7 +1992,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2479,7 +2485,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ5">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2604,7 +2610,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -3016,7 +3022,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3634,7 +3640,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3840,7 +3846,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4252,7 +4258,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4539,7 +4545,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ15">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5076,7 +5082,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5282,7 +5288,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5488,7 +5494,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5694,7 +5700,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6805,7 +6811,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR26">
         <v>0.6</v>
@@ -7342,7 +7348,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7548,7 +7554,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7754,7 +7760,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7835,7 +7841,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ31">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -8244,7 +8250,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ33">
         <v>1.63</v>
@@ -9196,7 +9202,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9402,7 +9408,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9814,7 +9820,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9895,7 +9901,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -10020,7 +10026,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10226,7 +10232,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10638,7 +10644,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10844,7 +10850,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11050,7 +11056,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11256,7 +11262,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11668,7 +11674,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -12080,7 +12086,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12161,7 +12167,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ52">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -12570,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ54">
         <v>0.5600000000000001</v>
@@ -12698,7 +12704,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12904,7 +12910,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13316,7 +13322,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13603,7 +13609,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ59">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR59">
         <v>2.26</v>
@@ -15660,10 +15666,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ69">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR69">
         <v>2.1</v>
@@ -15994,7 +16000,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16200,7 +16206,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16612,7 +16618,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16693,7 +16699,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ74">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR74">
         <v>1.21</v>
@@ -16818,7 +16824,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17024,7 +17030,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17230,7 +17236,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17848,7 +17854,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18054,7 +18060,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18260,7 +18266,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18338,7 +18344,7 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ82">
         <v>0.67</v>
@@ -18466,7 +18472,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18547,7 +18553,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ83">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18672,7 +18678,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18878,7 +18884,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19084,7 +19090,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19496,7 +19502,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -20114,7 +20120,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20195,7 +20201,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR91">
         <v>1.03</v>
@@ -20320,7 +20326,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20938,7 +20944,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21556,7 +21562,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22174,7 +22180,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22586,7 +22592,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22664,7 +22670,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ103">
         <v>1.38</v>
@@ -22998,7 +23004,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23491,7 +23497,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23697,7 +23703,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ108">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR108">
         <v>2.03</v>
@@ -24028,7 +24034,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -25757,7 +25763,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ118">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR118">
         <v>1.14</v>
@@ -26088,7 +26094,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26166,7 +26172,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26706,7 +26712,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26787,7 +26793,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR123">
         <v>1.04</v>
@@ -26912,7 +26918,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27324,7 +27330,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27530,7 +27536,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27942,7 +27948,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28354,7 +28360,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28560,7 +28566,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28972,7 +28978,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29671,7 +29677,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ137">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -30002,7 +30008,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30414,7 +30420,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30620,7 +30626,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30826,7 +30832,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -30907,7 +30913,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ143">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR143">
         <v>1.64</v>
@@ -31110,7 +31116,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ144">
         <v>2.19</v>
@@ -31238,7 +31244,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31444,7 +31450,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31856,7 +31862,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -32062,7 +32068,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32474,7 +32480,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32680,7 +32686,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32886,7 +32892,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33504,7 +33510,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33710,7 +33716,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33916,7 +33922,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34122,7 +34128,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34534,7 +34540,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34740,7 +34746,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34946,7 +34952,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35027,7 +35033,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ163">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR163">
         <v>1.32</v>
@@ -35358,7 +35364,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -36054,7 +36060,7 @@
         <v>0.33</v>
       </c>
       <c r="AP168">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ168">
         <v>0.63</v>
@@ -36388,7 +36394,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36881,7 +36887,7 @@
         <v>1</v>
       </c>
       <c r="AQ172">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR172">
         <v>1.24</v>
@@ -37006,7 +37012,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37293,7 +37299,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ174">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR174">
         <v>1.43</v>
@@ -37418,7 +37424,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37624,7 +37630,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -38114,7 +38120,7 @@
         <v>0.8</v>
       </c>
       <c r="AP178">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ178">
         <v>0.8100000000000001</v>
@@ -38242,7 +38248,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38448,7 +38454,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38654,7 +38660,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38860,7 +38866,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39272,7 +39278,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39684,7 +39690,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40177,7 +40183,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ188">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR188">
         <v>1.68</v>
@@ -40920,7 +40926,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41001,7 +41007,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ192">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR192">
         <v>1.22</v>
@@ -41126,7 +41132,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41538,7 +41544,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41616,7 +41622,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ195">
         <v>1</v>
@@ -41950,7 +41956,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42362,7 +42368,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42855,7 +42861,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ201">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR201">
         <v>1.24</v>
@@ -43186,7 +43192,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43598,7 +43604,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43804,7 +43810,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44216,7 +44222,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44628,7 +44634,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -44915,7 +44921,7 @@
         <v>2</v>
       </c>
       <c r="AQ211">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR211">
         <v>1.51</v>
@@ -45658,7 +45664,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -45942,7 +45948,7 @@
         <v>1.18</v>
       </c>
       <c r="AP216">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ216">
         <v>1.25</v>
@@ -46070,7 +46076,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46151,7 +46157,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ217">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR217">
         <v>1.16</v>
@@ -46276,7 +46282,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46482,7 +46488,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -47100,7 +47106,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47306,7 +47312,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47512,7 +47518,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47924,7 +47930,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48542,7 +48548,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48620,7 +48626,7 @@
         <v>1.33</v>
       </c>
       <c r="AP229">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ229">
         <v>1.19</v>
@@ -48954,7 +48960,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49035,7 +49041,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ231">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR231">
         <v>1.44</v>
@@ -49160,7 +49166,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49778,7 +49784,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49984,7 +49990,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50190,7 +50196,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50396,7 +50402,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -51014,7 +51020,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51220,7 +51226,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51426,7 +51432,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51507,7 +51513,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ243">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR243">
         <v>1.27</v>
@@ -51632,7 +51638,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51838,7 +51844,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52044,7 +52050,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52456,7 +52462,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52868,7 +52874,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53155,7 +53161,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ251">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR251">
         <v>1.39</v>
@@ -53486,7 +53492,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53564,7 +53570,7 @@
         <v>2.23</v>
       </c>
       <c r="AP253">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ253">
         <v>2.13</v>
@@ -53898,7 +53904,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54516,7 +54522,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -55134,7 +55140,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55340,7 +55346,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55546,7 +55552,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55752,7 +55758,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56242,7 +56248,7 @@
         <v>0.79</v>
       </c>
       <c r="AP266">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ266">
         <v>0.6899999999999999</v>
@@ -56451,7 +56457,7 @@
         <v>1</v>
       </c>
       <c r="AQ267">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR267">
         <v>1.18</v>
@@ -56576,7 +56582,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56657,7 +56663,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ268">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR268">
         <v>1.49</v>
@@ -56782,7 +56788,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57194,7 +57200,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -58842,7 +58848,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -59048,7 +59054,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59666,7 +59672,7 @@
         <v>262</v>
       </c>
       <c r="P283" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q283">
         <v>4.75</v>
@@ -60078,7 +60084,7 @@
         <v>223</v>
       </c>
       <c r="P285" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q285">
         <v>10</v>
@@ -60234,6 +60240,418 @@
         <v>0</v>
       </c>
       <c r="BP285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7574843</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45781.58333333334</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>78</v>
+      </c>
+      <c r="H286" t="s">
+        <v>72</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286" t="s">
+        <v>90</v>
+      </c>
+      <c r="P286" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q286">
+        <v>2.6</v>
+      </c>
+      <c r="R286">
+        <v>2.1</v>
+      </c>
+      <c r="S286">
+        <v>4.5</v>
+      </c>
+      <c r="T286">
+        <v>1.44</v>
+      </c>
+      <c r="U286">
+        <v>2.63</v>
+      </c>
+      <c r="V286">
+        <v>3.25</v>
+      </c>
+      <c r="W286">
+        <v>1.33</v>
+      </c>
+      <c r="X286">
+        <v>9</v>
+      </c>
+      <c r="Y286">
+        <v>1.07</v>
+      </c>
+      <c r="Z286">
+        <v>2.1</v>
+      </c>
+      <c r="AA286">
+        <v>3.1</v>
+      </c>
+      <c r="AB286">
+        <v>3.3</v>
+      </c>
+      <c r="AC286">
+        <v>3.67</v>
+      </c>
+      <c r="AD286">
+        <v>1.29</v>
+      </c>
+      <c r="AE286">
+        <v>0</v>
+      </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
+      <c r="AG286">
+        <v>2.1</v>
+      </c>
+      <c r="AH286">
+        <v>1.67</v>
+      </c>
+      <c r="AI286">
+        <v>1.95</v>
+      </c>
+      <c r="AJ286">
+        <v>1.8</v>
+      </c>
+      <c r="AK286">
+        <v>0</v>
+      </c>
+      <c r="AL286">
+        <v>0</v>
+      </c>
+      <c r="AM286">
+        <v>0</v>
+      </c>
+      <c r="AN286">
+        <v>1.13</v>
+      </c>
+      <c r="AO286">
+        <v>1.07</v>
+      </c>
+      <c r="AP286">
+        <v>1.13</v>
+      </c>
+      <c r="AQ286">
+        <v>1.06</v>
+      </c>
+      <c r="AR286">
+        <v>1.29</v>
+      </c>
+      <c r="AS286">
+        <v>1.1</v>
+      </c>
+      <c r="AT286">
+        <v>2.39</v>
+      </c>
+      <c r="AU286">
+        <v>5</v>
+      </c>
+      <c r="AV286">
+        <v>2</v>
+      </c>
+      <c r="AW286">
+        <v>11</v>
+      </c>
+      <c r="AX286">
+        <v>3</v>
+      </c>
+      <c r="AY286">
+        <v>17</v>
+      </c>
+      <c r="AZ286">
+        <v>5</v>
+      </c>
+      <c r="BA286">
+        <v>5</v>
+      </c>
+      <c r="BB286">
+        <v>0</v>
+      </c>
+      <c r="BC286">
+        <v>5</v>
+      </c>
+      <c r="BD286">
+        <v>0</v>
+      </c>
+      <c r="BE286">
+        <v>0</v>
+      </c>
+      <c r="BF286">
+        <v>0</v>
+      </c>
+      <c r="BG286">
+        <v>0</v>
+      </c>
+      <c r="BH286">
+        <v>0</v>
+      </c>
+      <c r="BI286">
+        <v>0</v>
+      </c>
+      <c r="BJ286">
+        <v>0</v>
+      </c>
+      <c r="BK286">
+        <v>0</v>
+      </c>
+      <c r="BL286">
+        <v>0</v>
+      </c>
+      <c r="BM286">
+        <v>0</v>
+      </c>
+      <c r="BN286">
+        <v>0</v>
+      </c>
+      <c r="BO286">
+        <v>0</v>
+      </c>
+      <c r="BP286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7574850</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45781.6875</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>70</v>
+      </c>
+      <c r="H287" t="s">
+        <v>80</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>263</v>
+      </c>
+      <c r="P287" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q287">
+        <v>1.44</v>
+      </c>
+      <c r="R287">
+        <v>3.1</v>
+      </c>
+      <c r="S287">
+        <v>15</v>
+      </c>
+      <c r="T287">
+        <v>1.25</v>
+      </c>
+      <c r="U287">
+        <v>3.75</v>
+      </c>
+      <c r="V287">
+        <v>2.1</v>
+      </c>
+      <c r="W287">
+        <v>1.67</v>
+      </c>
+      <c r="X287">
+        <v>5</v>
+      </c>
+      <c r="Y287">
+        <v>1.17</v>
+      </c>
+      <c r="Z287">
+        <v>1.11</v>
+      </c>
+      <c r="AA287">
+        <v>7</v>
+      </c>
+      <c r="AB287">
+        <v>17</v>
+      </c>
+      <c r="AC287">
+        <v>0</v>
+      </c>
+      <c r="AD287">
+        <v>0</v>
+      </c>
+      <c r="AE287">
+        <v>0</v>
+      </c>
+      <c r="AF287">
+        <v>0</v>
+      </c>
+      <c r="AG287">
+        <v>1.48</v>
+      </c>
+      <c r="AH287">
+        <v>2.54</v>
+      </c>
+      <c r="AI287">
+        <v>2.5</v>
+      </c>
+      <c r="AJ287">
+        <v>1.5</v>
+      </c>
+      <c r="AK287">
+        <v>0</v>
+      </c>
+      <c r="AL287">
+        <v>0</v>
+      </c>
+      <c r="AM287">
+        <v>0</v>
+      </c>
+      <c r="AN287">
+        <v>2.53</v>
+      </c>
+      <c r="AO287">
+        <v>0.87</v>
+      </c>
+      <c r="AP287">
+        <v>2.56</v>
+      </c>
+      <c r="AQ287">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR287">
+        <v>2.14</v>
+      </c>
+      <c r="AS287">
+        <v>0.99</v>
+      </c>
+      <c r="AT287">
+        <v>3.13</v>
+      </c>
+      <c r="AU287">
+        <v>4</v>
+      </c>
+      <c r="AV287">
+        <v>2</v>
+      </c>
+      <c r="AW287">
+        <v>12</v>
+      </c>
+      <c r="AX287">
+        <v>1</v>
+      </c>
+      <c r="AY287">
+        <v>18</v>
+      </c>
+      <c r="AZ287">
+        <v>3</v>
+      </c>
+      <c r="BA287">
+        <v>9</v>
+      </c>
+      <c r="BB287">
+        <v>2</v>
+      </c>
+      <c r="BC287">
+        <v>11</v>
+      </c>
+      <c r="BD287">
+        <v>0</v>
+      </c>
+      <c r="BE287">
+        <v>0</v>
+      </c>
+      <c r="BF287">
+        <v>0</v>
+      </c>
+      <c r="BG287">
+        <v>0</v>
+      </c>
+      <c r="BH287">
+        <v>0</v>
+      </c>
+      <c r="BI287">
+        <v>0</v>
+      </c>
+      <c r="BJ287">
+        <v>0</v>
+      </c>
+      <c r="BK287">
+        <v>0</v>
+      </c>
+      <c r="BL287">
+        <v>0</v>
+      </c>
+      <c r="BM287">
+        <v>0</v>
+      </c>
+      <c r="BN287">
+        <v>0</v>
+      </c>
+      <c r="BO287">
+        <v>0</v>
+      </c>
+      <c r="BP287">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="386">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,9 @@
     <t>['81', '90+3']</t>
   </si>
   <si>
+    <t>['79', '90+7']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1166,6 +1169,9 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['67', '89']</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP287"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1992,7 +1998,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ3">
         <v>0.63</v>
@@ -2279,7 +2285,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2610,7 +2616,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -3022,7 +3028,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3309,7 +3315,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3640,7 +3646,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3846,7 +3852,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4130,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>0.8100000000000001</v>
@@ -4258,7 +4264,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -5082,7 +5088,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5288,7 +5294,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5494,7 +5500,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5700,7 +5706,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6193,7 +6199,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
         <v>1.27</v>
@@ -6399,7 +6405,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR24">
         <v>2.62</v>
@@ -7014,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ27">
         <v>1.38</v>
@@ -7348,7 +7354,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7554,7 +7560,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7760,7 +7766,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8662,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -9202,7 +9208,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9408,7 +9414,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9692,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ40">
         <v>0.6899999999999999</v>
@@ -9820,7 +9826,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -10026,7 +10032,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10232,7 +10238,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10644,7 +10650,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10850,7 +10856,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10931,7 +10937,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.1</v>
@@ -11056,7 +11062,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11262,7 +11268,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11340,7 +11346,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>1.25</v>
@@ -11549,7 +11555,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11674,7 +11680,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -12086,7 +12092,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12704,7 +12710,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12910,7 +12916,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13322,7 +13328,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -14433,7 +14439,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR63">
         <v>1.11</v>
@@ -14636,7 +14642,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
         <v>0.8100000000000001</v>
@@ -14842,7 +14848,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
         <v>1.19</v>
@@ -15051,7 +15057,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -16000,7 +16006,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16081,7 +16087,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.19</v>
@@ -16206,7 +16212,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16618,7 +16624,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16824,7 +16830,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17030,7 +17036,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17236,7 +17242,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17854,7 +17860,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18060,7 +18066,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18138,7 +18144,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ81">
         <v>1.63</v>
@@ -18266,7 +18272,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18347,7 +18353,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR82">
         <v>2.06</v>
@@ -18472,7 +18478,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18550,7 +18556,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -18678,7 +18684,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18884,7 +18890,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18965,7 +18971,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.21</v>
@@ -19090,7 +19096,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19168,7 +19174,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ86">
         <v>1.19</v>
@@ -19502,7 +19508,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -20120,7 +20126,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20326,7 +20332,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20944,7 +20950,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21562,7 +21568,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22055,7 +22061,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.15</v>
@@ -22180,7 +22186,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22258,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ101">
         <v>0.6899999999999999</v>
@@ -22467,7 +22473,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR102">
         <v>1.15</v>
@@ -22592,7 +22598,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -23004,7 +23010,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23288,7 +23294,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ106">
         <v>2.13</v>
@@ -24034,7 +24040,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -26094,7 +26100,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26175,7 +26181,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR120">
         <v>2.02</v>
@@ -26584,7 +26590,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ122">
         <v>2.19</v>
@@ -26712,7 +26718,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26918,7 +26924,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27205,7 +27211,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ125">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27330,7 +27336,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27408,7 +27414,7 @@
         <v>1.14</v>
       </c>
       <c r="AP126">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ126">
         <v>1.38</v>
@@ -27536,7 +27542,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27948,7 +27954,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28360,7 +28366,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28566,7 +28572,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28978,7 +28984,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29880,10 +29886,10 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ138">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -30008,7 +30014,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30295,7 +30301,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR140">
         <v>1.98</v>
@@ -30420,7 +30426,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30626,7 +30632,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30704,7 +30710,7 @@
         <v>0.38</v>
       </c>
       <c r="AP142">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
         <v>0.63</v>
@@ -30832,7 +30838,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31244,7 +31250,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31450,7 +31456,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31862,7 +31868,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -32068,7 +32074,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32480,7 +32486,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32686,7 +32692,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32892,7 +32898,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33510,7 +33516,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33716,7 +33722,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33794,7 +33800,7 @@
         <v>2.22</v>
       </c>
       <c r="AP157">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ157">
         <v>2.31</v>
@@ -33922,7 +33928,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34128,7 +34134,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34540,7 +34546,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34746,7 +34752,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34952,7 +34958,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35364,7 +35370,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35651,7 +35657,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ166">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR166">
         <v>1.12</v>
@@ -36394,7 +36400,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36681,7 +36687,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ171">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR171">
         <v>1.66</v>
@@ -36884,7 +36890,7 @@
         <v>0.67</v>
       </c>
       <c r="AP172">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ172">
         <v>0.8100000000000001</v>
@@ -37012,7 +37018,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37424,7 +37430,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37630,7 +37636,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -38248,7 +38254,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38454,7 +38460,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38660,7 +38666,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38738,7 +38744,7 @@
         <v>1.44</v>
       </c>
       <c r="AP181">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ181">
         <v>1.63</v>
@@ -38866,7 +38872,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39150,7 +39156,7 @@
         <v>1.44</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ183">
         <v>1.38</v>
@@ -39278,7 +39284,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39690,7 +39696,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39771,7 +39777,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR186">
         <v>1.19</v>
@@ -40389,7 +40395,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ189">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR189">
         <v>1.19</v>
@@ -40801,7 +40807,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ191">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR191">
         <v>1.28</v>
@@ -40926,7 +40932,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41132,7 +41138,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41544,7 +41550,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41828,7 +41834,7 @@
         <v>0.5</v>
       </c>
       <c r="AP196">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ196">
         <v>0.5600000000000001</v>
@@ -41956,7 +41962,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42368,7 +42374,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -43067,7 +43073,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ202">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR202">
         <v>2.01</v>
@@ -43192,7 +43198,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43604,7 +43610,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43810,7 +43816,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -43888,7 +43894,7 @@
         <v>2.18</v>
       </c>
       <c r="AP206">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ206">
         <v>2.31</v>
@@ -44222,7 +44228,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44634,7 +44640,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -45127,7 +45133,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ212">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR212">
         <v>1.24</v>
@@ -45664,7 +45670,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -45742,7 +45748,7 @@
         <v>2.36</v>
       </c>
       <c r="AP215">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ215">
         <v>2.13</v>
@@ -46076,7 +46082,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46282,7 +46288,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46360,7 +46366,7 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ218">
         <v>1</v>
@@ -46488,7 +46494,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -47106,7 +47112,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47312,7 +47318,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47518,7 +47524,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47930,7 +47936,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48548,7 +48554,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48960,7 +48966,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49166,7 +49172,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49244,7 +49250,7 @@
         <v>1.82</v>
       </c>
       <c r="AP232">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ232">
         <v>2.19</v>
@@ -49453,7 +49459,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ233">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR233">
         <v>1.25</v>
@@ -49659,7 +49665,7 @@
         <v>2</v>
       </c>
       <c r="AQ234">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR234">
         <v>1.56</v>
@@ -49784,7 +49790,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49990,7 +49996,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50196,7 +50202,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50402,7 +50408,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -51020,7 +51026,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51226,7 +51232,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51432,7 +51438,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51638,7 +51644,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51844,7 +51850,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -51922,7 +51928,7 @@
         <v>1.08</v>
       </c>
       <c r="AP245">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ245">
         <v>1.25</v>
@@ -52050,7 +52056,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52462,7 +52468,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52749,7 +52755,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ249">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR249">
         <v>1.45</v>
@@ -52874,7 +52880,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53364,10 +53370,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP252">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ252">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR252">
         <v>1.3</v>
@@ -53492,7 +53498,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53904,7 +53910,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54522,7 +54528,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -55140,7 +55146,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55346,7 +55352,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55552,7 +55558,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55633,7 +55639,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ263">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR263">
         <v>1.42</v>
@@ -55758,7 +55764,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -55836,7 +55842,7 @@
         <v>1.43</v>
       </c>
       <c r="AP264">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ264">
         <v>1.38</v>
@@ -56454,7 +56460,7 @@
         <v>1.07</v>
       </c>
       <c r="AP267">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ267">
         <v>1.06</v>
@@ -56582,7 +56588,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56788,7 +56794,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57075,7 +57081,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ270">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR270">
         <v>1.23</v>
@@ -57200,7 +57206,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -58848,7 +58854,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -59054,7 +59060,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59672,7 +59678,7 @@
         <v>262</v>
       </c>
       <c r="P283" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q283">
         <v>4.75</v>
@@ -60084,7 +60090,7 @@
         <v>223</v>
       </c>
       <c r="P285" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q285">
         <v>10</v>
@@ -60496,7 +60502,7 @@
         <v>263</v>
       </c>
       <c r="P287" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q287">
         <v>1.44</v>
@@ -60652,6 +60658,418 @@
         <v>0</v>
       </c>
       <c r="BP287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7574847</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45782.64583333334</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>81</v>
+      </c>
+      <c r="H288" t="s">
+        <v>87</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>2</v>
+      </c>
+      <c r="O288" t="s">
+        <v>264</v>
+      </c>
+      <c r="P288" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q288">
+        <v>3</v>
+      </c>
+      <c r="R288">
+        <v>2.1</v>
+      </c>
+      <c r="S288">
+        <v>3.6</v>
+      </c>
+      <c r="T288">
+        <v>1.44</v>
+      </c>
+      <c r="U288">
+        <v>2.63</v>
+      </c>
+      <c r="V288">
+        <v>3</v>
+      </c>
+      <c r="W288">
+        <v>1.36</v>
+      </c>
+      <c r="X288">
+        <v>9</v>
+      </c>
+      <c r="Y288">
+        <v>1.07</v>
+      </c>
+      <c r="Z288">
+        <v>2.3</v>
+      </c>
+      <c r="AA288">
+        <v>3.1</v>
+      </c>
+      <c r="AB288">
+        <v>2.95</v>
+      </c>
+      <c r="AC288">
+        <v>0</v>
+      </c>
+      <c r="AD288">
+        <v>0</v>
+      </c>
+      <c r="AE288">
+        <v>0</v>
+      </c>
+      <c r="AF288">
+        <v>0</v>
+      </c>
+      <c r="AG288">
+        <v>2.05</v>
+      </c>
+      <c r="AH288">
+        <v>1.73</v>
+      </c>
+      <c r="AI288">
+        <v>1.8</v>
+      </c>
+      <c r="AJ288">
+        <v>1.95</v>
+      </c>
+      <c r="AK288">
+        <v>0</v>
+      </c>
+      <c r="AL288">
+        <v>0</v>
+      </c>
+      <c r="AM288">
+        <v>0</v>
+      </c>
+      <c r="AN288">
+        <v>1.47</v>
+      </c>
+      <c r="AO288">
+        <v>0.67</v>
+      </c>
+      <c r="AP288">
+        <v>1.56</v>
+      </c>
+      <c r="AQ288">
+        <v>0.63</v>
+      </c>
+      <c r="AR288">
+        <v>1.33</v>
+      </c>
+      <c r="AS288">
+        <v>1.09</v>
+      </c>
+      <c r="AT288">
+        <v>2.42</v>
+      </c>
+      <c r="AU288">
+        <v>8</v>
+      </c>
+      <c r="AV288">
+        <v>4</v>
+      </c>
+      <c r="AW288">
+        <v>12</v>
+      </c>
+      <c r="AX288">
+        <v>6</v>
+      </c>
+      <c r="AY288">
+        <v>23</v>
+      </c>
+      <c r="AZ288">
+        <v>11</v>
+      </c>
+      <c r="BA288">
+        <v>5</v>
+      </c>
+      <c r="BB288">
+        <v>3</v>
+      </c>
+      <c r="BC288">
+        <v>8</v>
+      </c>
+      <c r="BD288">
+        <v>0</v>
+      </c>
+      <c r="BE288">
+        <v>0</v>
+      </c>
+      <c r="BF288">
+        <v>0</v>
+      </c>
+      <c r="BG288">
+        <v>0</v>
+      </c>
+      <c r="BH288">
+        <v>0</v>
+      </c>
+      <c r="BI288">
+        <v>0</v>
+      </c>
+      <c r="BJ288">
+        <v>0</v>
+      </c>
+      <c r="BK288">
+        <v>0</v>
+      </c>
+      <c r="BL288">
+        <v>0</v>
+      </c>
+      <c r="BM288">
+        <v>0</v>
+      </c>
+      <c r="BN288">
+        <v>0</v>
+      </c>
+      <c r="BO288">
+        <v>0</v>
+      </c>
+      <c r="BP288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7574844</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45782.67708333334</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>71</v>
+      </c>
+      <c r="H289" t="s">
+        <v>86</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>2</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289" t="s">
+        <v>215</v>
+      </c>
+      <c r="P289" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q289">
+        <v>2.75</v>
+      </c>
+      <c r="R289">
+        <v>2.1</v>
+      </c>
+      <c r="S289">
+        <v>4.33</v>
+      </c>
+      <c r="T289">
+        <v>1.44</v>
+      </c>
+      <c r="U289">
+        <v>2.63</v>
+      </c>
+      <c r="V289">
+        <v>3.25</v>
+      </c>
+      <c r="W289">
+        <v>1.33</v>
+      </c>
+      <c r="X289">
+        <v>9</v>
+      </c>
+      <c r="Y289">
+        <v>1.07</v>
+      </c>
+      <c r="Z289">
+        <v>2.35</v>
+      </c>
+      <c r="AA289">
+        <v>3</v>
+      </c>
+      <c r="AB289">
+        <v>3</v>
+      </c>
+      <c r="AC289">
+        <v>0</v>
+      </c>
+      <c r="AD289">
+        <v>0</v>
+      </c>
+      <c r="AE289">
+        <v>0</v>
+      </c>
+      <c r="AF289">
+        <v>0</v>
+      </c>
+      <c r="AG289">
+        <v>2.15</v>
+      </c>
+      <c r="AH289">
+        <v>1.61</v>
+      </c>
+      <c r="AI289">
+        <v>1.91</v>
+      </c>
+      <c r="AJ289">
+        <v>1.91</v>
+      </c>
+      <c r="AK289">
+        <v>0</v>
+      </c>
+      <c r="AL289">
+        <v>0</v>
+      </c>
+      <c r="AM289">
+        <v>0</v>
+      </c>
+      <c r="AN289">
+        <v>1</v>
+      </c>
+      <c r="AO289">
+        <v>1</v>
+      </c>
+      <c r="AP289">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ289">
+        <v>1.13</v>
+      </c>
+      <c r="AR289">
+        <v>1.2</v>
+      </c>
+      <c r="AS289">
+        <v>0.96</v>
+      </c>
+      <c r="AT289">
+        <v>2.16</v>
+      </c>
+      <c r="AU289">
+        <v>7</v>
+      </c>
+      <c r="AV289">
+        <v>3</v>
+      </c>
+      <c r="AW289">
+        <v>8</v>
+      </c>
+      <c r="AX289">
+        <v>11</v>
+      </c>
+      <c r="AY289">
+        <v>15</v>
+      </c>
+      <c r="AZ289">
+        <v>17</v>
+      </c>
+      <c r="BA289">
+        <v>4</v>
+      </c>
+      <c r="BB289">
+        <v>5</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>0</v>
+      </c>
+      <c r="BE289">
+        <v>0</v>
+      </c>
+      <c r="BF289">
+        <v>0</v>
+      </c>
+      <c r="BG289">
+        <v>0</v>
+      </c>
+      <c r="BH289">
+        <v>0</v>
+      </c>
+      <c r="BI289">
+        <v>0</v>
+      </c>
+      <c r="BJ289">
+        <v>0</v>
+      </c>
+      <c r="BK289">
+        <v>0</v>
+      </c>
+      <c r="BL289">
+        <v>0</v>
+      </c>
+      <c r="BM289">
+        <v>0</v>
+      </c>
+      <c r="BN289">
+        <v>0</v>
+      </c>
+      <c r="BO289">
+        <v>0</v>
+      </c>
+      <c r="BP289">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="389">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -811,6 +811,12 @@
     <t>['79', '90+7']</t>
   </si>
   <si>
+    <t>['46', '90', '90+4']</t>
+  </si>
+  <si>
+    <t>['23', '81']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1173,6 +1179,9 @@
   <si>
     <t>['67', '89']</t>
   </si>
+  <si>
+    <t>['3', '28', '43']</t>
+  </si>
 </sst>
 </file>
 
@@ -1533,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,7 +1882,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ2">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1998,7 +2007,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2616,7 +2625,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -3028,7 +3037,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3646,7 +3655,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3724,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11">
         <v>1.63</v>
@@ -3852,7 +3861,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4264,7 +4273,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4342,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ14">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4548,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -5088,7 +5097,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5294,7 +5303,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5375,7 +5384,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ19">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5500,7 +5509,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5581,7 +5590,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ20">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5706,7 +5715,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5993,7 +6002,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ22">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -6402,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ24">
         <v>0.63</v>
@@ -7354,7 +7363,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7560,7 +7569,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7638,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ30">
         <v>0.5600000000000001</v>
@@ -7766,7 +7775,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8462,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ34">
         <v>0.8100000000000001</v>
@@ -8877,7 +8886,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR36">
         <v>1.59</v>
@@ -9208,7 +9217,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9289,7 +9298,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR38">
         <v>0.93</v>
@@ -9414,7 +9423,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9701,7 +9710,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ40">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9826,7 +9835,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -10032,7 +10041,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10110,7 +10119,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ42">
         <v>1.38</v>
@@ -10238,7 +10247,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10650,7 +10659,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10856,7 +10865,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11062,7 +11071,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11140,7 +11149,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ47">
         <v>2.13</v>
@@ -11268,7 +11277,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11552,7 +11561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
         <v>0.63</v>
@@ -11680,7 +11689,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11967,7 +11976,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR51">
         <v>1.08</v>
@@ -12092,7 +12101,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12710,7 +12719,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12916,7 +12925,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -12997,7 +13006,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR56">
         <v>0.98</v>
@@ -13328,7 +13337,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13612,7 +13621,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ59">
         <v>0.8100000000000001</v>
@@ -14233,7 +14242,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ62">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR62">
         <v>1.53</v>
@@ -14436,7 +14445,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
         <v>1.13</v>
@@ -14851,7 +14860,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -16006,7 +16015,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16212,7 +16221,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16624,7 +16633,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16702,7 +16711,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74">
         <v>0.8100000000000001</v>
@@ -16830,7 +16839,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17036,7 +17045,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17242,7 +17251,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17323,7 +17332,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ77">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17732,10 +17741,10 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ79">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR79">
         <v>2.16</v>
@@ -17860,7 +17869,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18066,7 +18075,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18272,7 +18281,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18478,7 +18487,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18684,7 +18693,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18890,7 +18899,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19096,7 +19105,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19177,7 +19186,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ86">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR86">
         <v>1.12</v>
@@ -19508,7 +19517,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19998,7 +20007,7 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -20126,7 +20135,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20332,7 +20341,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20950,7 +20959,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21031,7 +21040,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ95">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR95">
         <v>1.16</v>
@@ -21440,7 +21449,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97">
         <v>1.38</v>
@@ -21568,7 +21577,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21649,7 +21658,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR98">
         <v>1.75</v>
@@ -21852,7 +21861,7 @@
         <v>2.25</v>
       </c>
       <c r="AP99">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ99">
         <v>1.63</v>
@@ -22186,7 +22195,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22470,7 +22479,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ102">
         <v>1.13</v>
@@ -22598,7 +22607,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22885,7 +22894,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR104">
         <v>1</v>
@@ -23010,7 +23019,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23915,7 +23924,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ109">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR109">
         <v>1.17</v>
@@ -24040,7 +24049,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24530,7 +24539,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ112">
         <v>1.38</v>
@@ -24736,10 +24745,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR113">
         <v>1.38</v>
@@ -25972,7 +25981,7 @@
         <v>0.86</v>
       </c>
       <c r="AP119">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ119">
         <v>0.6899999999999999</v>
@@ -26100,7 +26109,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26718,7 +26727,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26924,7 +26933,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27005,7 +27014,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR124">
         <v>1.55</v>
@@ -27336,7 +27345,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27542,7 +27551,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27620,7 +27629,7 @@
         <v>1.83</v>
       </c>
       <c r="AP127">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ127">
         <v>2.19</v>
@@ -27954,7 +27963,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28366,7 +28375,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28572,7 +28581,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28650,7 +28659,7 @@
         <v>2.17</v>
       </c>
       <c r="AP132">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ132">
         <v>2.13</v>
@@ -28859,7 +28868,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ133">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR133">
         <v>1.29</v>
@@ -28984,7 +28993,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29268,7 +29277,7 @@
         <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ135">
         <v>1.25</v>
@@ -29477,7 +29486,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ136">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR136">
         <v>1.19</v>
@@ -30014,7 +30023,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30426,7 +30435,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30632,7 +30641,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30838,7 +30847,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31250,7 +31259,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31456,7 +31465,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31537,7 +31546,7 @@
         <v>2</v>
       </c>
       <c r="AQ146">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -31868,7 +31877,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -31946,7 +31955,7 @@
         <v>2.29</v>
       </c>
       <c r="AP148">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ148">
         <v>2.13</v>
@@ -32074,7 +32083,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32358,7 +32367,7 @@
         <v>0.75</v>
       </c>
       <c r="AP150">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ150">
         <v>0.8100000000000001</v>
@@ -32486,7 +32495,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32567,7 +32576,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ151">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR151">
         <v>1.25</v>
@@ -32692,7 +32701,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32898,7 +32907,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32979,7 +32988,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ153">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR153">
         <v>1.2</v>
@@ -33182,7 +33191,7 @@
         <v>1.86</v>
       </c>
       <c r="AP154">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ154">
         <v>1.63</v>
@@ -33388,10 +33397,10 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ155">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR155">
         <v>2.01</v>
@@ -33516,7 +33525,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33594,7 +33603,7 @@
         <v>0.75</v>
       </c>
       <c r="AP156">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ156">
         <v>1.25</v>
@@ -33722,7 +33731,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33803,7 +33812,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ157">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR157">
         <v>1.39</v>
@@ -33928,7 +33937,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34134,7 +34143,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34212,7 +34221,7 @@
         <v>0.63</v>
       </c>
       <c r="AP159">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ159">
         <v>0.5600000000000001</v>
@@ -34546,7 +34555,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34752,7 +34761,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34958,7 +34967,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35370,7 +35379,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35451,7 +35460,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ165">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR165">
         <v>1.12</v>
@@ -36400,7 +36409,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -37018,7 +37027,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37099,7 +37108,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ173">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR173">
         <v>1.33</v>
@@ -37302,7 +37311,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ174">
         <v>1.06</v>
@@ -37430,7 +37439,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37508,7 +37517,7 @@
         <v>0.8</v>
       </c>
       <c r="AP175">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37636,7 +37645,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -38254,7 +38263,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38460,7 +38469,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38666,7 +38675,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38872,7 +38881,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -38953,7 +38962,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ182">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR182">
         <v>2.01</v>
@@ -39284,7 +39293,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39362,7 +39371,7 @@
         <v>0.7</v>
       </c>
       <c r="AP184">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ184">
         <v>0.6899999999999999</v>
@@ -39696,7 +39705,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40601,7 +40610,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ190">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR190">
         <v>1.16</v>
@@ -40932,7 +40941,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41138,7 +41147,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41216,7 +41225,7 @@
         <v>1.2</v>
       </c>
       <c r="AP193">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ193">
         <v>1.25</v>
@@ -41422,7 +41431,7 @@
         <v>1.7</v>
       </c>
       <c r="AP194">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ194">
         <v>2.19</v>
@@ -41550,7 +41559,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41962,7 +41971,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42374,7 +42383,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42455,7 +42464,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ199">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR199">
         <v>1.25</v>
@@ -43070,7 +43079,7 @@
         <v>0.82</v>
       </c>
       <c r="AP202">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ202">
         <v>1.13</v>
@@ -43198,7 +43207,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43279,7 +43288,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR203">
         <v>1.23</v>
@@ -43610,7 +43619,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43816,7 +43825,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -43897,7 +43906,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ206">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR206">
         <v>1.22</v>
@@ -44228,7 +44237,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44512,10 +44521,10 @@
         <v>1.45</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ209">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR209">
         <v>1.41</v>
@@ -44640,7 +44649,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -45670,7 +45679,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -46082,7 +46091,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46288,7 +46297,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46494,7 +46503,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -46778,7 +46787,7 @@
         <v>0.5</v>
       </c>
       <c r="AP220">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ220">
         <v>0.63</v>
@@ -47112,7 +47121,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47190,7 +47199,7 @@
         <v>0.58</v>
       </c>
       <c r="AP222">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ222">
         <v>0.6899999999999999</v>
@@ -47318,7 +47327,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47399,7 +47408,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ223">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR223">
         <v>1.24</v>
@@ -47524,7 +47533,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47811,7 +47820,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ225">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR225">
         <v>1.18</v>
@@ -47936,7 +47945,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48554,7 +48563,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48635,7 +48644,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ229">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR229">
         <v>2.09</v>
@@ -48966,7 +48975,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49044,7 +49053,7 @@
         <v>1.17</v>
       </c>
       <c r="AP231">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ231">
         <v>1.06</v>
@@ -49172,7 +49181,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49790,7 +49799,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49996,7 +50005,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50077,7 +50086,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ236">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR236">
         <v>1.24</v>
@@ -50202,7 +50211,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50283,7 +50292,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ237">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR237">
         <v>1.14</v>
@@ -50408,7 +50417,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50692,7 +50701,7 @@
         <v>0.46</v>
       </c>
       <c r="AP239">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ239">
         <v>0.63</v>
@@ -51026,7 +51035,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51232,7 +51241,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51438,7 +51447,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51644,7 +51653,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51722,7 +51731,7 @@
         <v>0.77</v>
       </c>
       <c r="AP244">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ244">
         <v>0.8100000000000001</v>
@@ -51850,7 +51859,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52056,7 +52065,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52137,7 +52146,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ246">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR246">
         <v>1.19</v>
@@ -52468,7 +52477,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52752,7 +52761,7 @@
         <v>0.54</v>
       </c>
       <c r="AP249">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ249">
         <v>0.63</v>
@@ -52880,7 +52889,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53498,7 +53507,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53910,7 +53919,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54400,10 +54409,10 @@
         <v>2.21</v>
       </c>
       <c r="AP257">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ257">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR257">
         <v>1.44</v>
@@ -54528,7 +54537,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -55146,7 +55155,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55224,7 +55233,7 @@
         <v>1.07</v>
       </c>
       <c r="AP261">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ261">
         <v>1</v>
@@ -55352,7 +55361,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55433,7 +55442,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ262">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR262">
         <v>1.31</v>
@@ -55558,7 +55567,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55764,7 +55773,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56051,7 +56060,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ265">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR265">
         <v>1.99</v>
@@ -56588,7 +56597,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56666,7 +56675,7 @@
         <v>0.71</v>
       </c>
       <c r="AP268">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ268">
         <v>0.8100000000000001</v>
@@ -56794,7 +56803,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57206,7 +57215,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57696,7 +57705,7 @@
         <v>1.07</v>
       </c>
       <c r="AP273">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ273">
         <v>1</v>
@@ -58520,7 +58529,7 @@
         <v>0.6</v>
       </c>
       <c r="AP277">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AQ277">
         <v>0.5600000000000001</v>
@@ -58729,7 +58738,7 @@
         <v>2</v>
       </c>
       <c r="AQ278">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR278">
         <v>1.57</v>
@@ -58854,7 +58863,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -58935,7 +58944,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ279">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR279">
         <v>1.33</v>
@@ -59060,7 +59069,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59553,7 +59562,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ282">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR282">
         <v>1.43</v>
@@ -59678,7 +59687,7 @@
         <v>262</v>
       </c>
       <c r="P283" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q283">
         <v>4.75</v>
@@ -59756,7 +59765,7 @@
         <v>1.27</v>
       </c>
       <c r="AP283">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ283">
         <v>1.38</v>
@@ -60090,7 +60099,7 @@
         <v>223</v>
       </c>
       <c r="P285" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q285">
         <v>10</v>
@@ -60502,7 +60511,7 @@
         <v>263</v>
       </c>
       <c r="P287" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q287">
         <v>1.44</v>
@@ -60914,7 +60923,7 @@
         <v>215</v>
       </c>
       <c r="P289" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q289">
         <v>2.75</v>
@@ -61070,6 +61079,624 @@
         <v>0</v>
       </c>
       <c r="BP289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7574852</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45787.47916666666</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>82</v>
+      </c>
+      <c r="H290" t="s">
+        <v>81</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>3</v>
+      </c>
+      <c r="K290">
+        <v>3</v>
+      </c>
+      <c r="L290">
+        <v>3</v>
+      </c>
+      <c r="M290">
+        <v>3</v>
+      </c>
+      <c r="N290">
+        <v>6</v>
+      </c>
+      <c r="O290" t="s">
+        <v>265</v>
+      </c>
+      <c r="P290" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q290">
+        <v>2.6</v>
+      </c>
+      <c r="R290">
+        <v>2.2</v>
+      </c>
+      <c r="S290">
+        <v>4.33</v>
+      </c>
+      <c r="T290">
+        <v>1.36</v>
+      </c>
+      <c r="U290">
+        <v>3</v>
+      </c>
+      <c r="V290">
+        <v>2.75</v>
+      </c>
+      <c r="W290">
+        <v>1.4</v>
+      </c>
+      <c r="X290">
+        <v>7</v>
+      </c>
+      <c r="Y290">
+        <v>1.1</v>
+      </c>
+      <c r="Z290">
+        <v>1.95</v>
+      </c>
+      <c r="AA290">
+        <v>3.3</v>
+      </c>
+      <c r="AB290">
+        <v>3.5</v>
+      </c>
+      <c r="AC290">
+        <v>0</v>
+      </c>
+      <c r="AD290">
+        <v>0</v>
+      </c>
+      <c r="AE290">
+        <v>0</v>
+      </c>
+      <c r="AF290">
+        <v>0</v>
+      </c>
+      <c r="AG290">
+        <v>1.83</v>
+      </c>
+      <c r="AH290">
+        <v>1.91</v>
+      </c>
+      <c r="AI290">
+        <v>1.75</v>
+      </c>
+      <c r="AJ290">
+        <v>2</v>
+      </c>
+      <c r="AK290">
+        <v>0</v>
+      </c>
+      <c r="AL290">
+        <v>0</v>
+      </c>
+      <c r="AM290">
+        <v>0</v>
+      </c>
+      <c r="AN290">
+        <v>1.44</v>
+      </c>
+      <c r="AO290">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP290">
+        <v>1.41</v>
+      </c>
+      <c r="AQ290">
+        <v>0.71</v>
+      </c>
+      <c r="AR290">
+        <v>1.55</v>
+      </c>
+      <c r="AS290">
+        <v>1.07</v>
+      </c>
+      <c r="AT290">
+        <v>2.62</v>
+      </c>
+      <c r="AU290">
+        <v>6</v>
+      </c>
+      <c r="AV290">
+        <v>8</v>
+      </c>
+      <c r="AW290">
+        <v>8</v>
+      </c>
+      <c r="AX290">
+        <v>5</v>
+      </c>
+      <c r="AY290">
+        <v>18</v>
+      </c>
+      <c r="AZ290">
+        <v>16</v>
+      </c>
+      <c r="BA290">
+        <v>4</v>
+      </c>
+      <c r="BB290">
+        <v>5</v>
+      </c>
+      <c r="BC290">
+        <v>9</v>
+      </c>
+      <c r="BD290">
+        <v>0</v>
+      </c>
+      <c r="BE290">
+        <v>0</v>
+      </c>
+      <c r="BF290">
+        <v>0</v>
+      </c>
+      <c r="BG290">
+        <v>0</v>
+      </c>
+      <c r="BH290">
+        <v>0</v>
+      </c>
+      <c r="BI290">
+        <v>0</v>
+      </c>
+      <c r="BJ290">
+        <v>0</v>
+      </c>
+      <c r="BK290">
+        <v>0</v>
+      </c>
+      <c r="BL290">
+        <v>0</v>
+      </c>
+      <c r="BM290">
+        <v>0</v>
+      </c>
+      <c r="BN290">
+        <v>0</v>
+      </c>
+      <c r="BO290">
+        <v>0</v>
+      </c>
+      <c r="BP290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7574853</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45787.47916666666</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>79</v>
+      </c>
+      <c r="H291" t="s">
+        <v>75</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>2</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>266</v>
+      </c>
+      <c r="P291" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q291">
+        <v>2.75</v>
+      </c>
+      <c r="R291">
+        <v>1.95</v>
+      </c>
+      <c r="S291">
+        <v>4.75</v>
+      </c>
+      <c r="T291">
+        <v>1.53</v>
+      </c>
+      <c r="U291">
+        <v>2.38</v>
+      </c>
+      <c r="V291">
+        <v>3.75</v>
+      </c>
+      <c r="W291">
+        <v>1.25</v>
+      </c>
+      <c r="X291">
+        <v>11</v>
+      </c>
+      <c r="Y291">
+        <v>1.05</v>
+      </c>
+      <c r="Z291">
+        <v>2</v>
+      </c>
+      <c r="AA291">
+        <v>3</v>
+      </c>
+      <c r="AB291">
+        <v>3.8</v>
+      </c>
+      <c r="AC291">
+        <v>0</v>
+      </c>
+      <c r="AD291">
+        <v>0</v>
+      </c>
+      <c r="AE291">
+        <v>1.5</v>
+      </c>
+      <c r="AF291">
+        <v>2.4</v>
+      </c>
+      <c r="AG291">
+        <v>2.45</v>
+      </c>
+      <c r="AH291">
+        <v>1.55</v>
+      </c>
+      <c r="AI291">
+        <v>2.2</v>
+      </c>
+      <c r="AJ291">
+        <v>1.62</v>
+      </c>
+      <c r="AK291">
+        <v>0</v>
+      </c>
+      <c r="AL291">
+        <v>0</v>
+      </c>
+      <c r="AM291">
+        <v>0</v>
+      </c>
+      <c r="AN291">
+        <v>1.81</v>
+      </c>
+      <c r="AO291">
+        <v>1.19</v>
+      </c>
+      <c r="AP291">
+        <v>1.88</v>
+      </c>
+      <c r="AQ291">
+        <v>1.12</v>
+      </c>
+      <c r="AR291">
+        <v>1.42</v>
+      </c>
+      <c r="AS291">
+        <v>1.38</v>
+      </c>
+      <c r="AT291">
+        <v>2.8</v>
+      </c>
+      <c r="AU291">
+        <v>6</v>
+      </c>
+      <c r="AV291">
+        <v>3</v>
+      </c>
+      <c r="AW291">
+        <v>9</v>
+      </c>
+      <c r="AX291">
+        <v>9</v>
+      </c>
+      <c r="AY291">
+        <v>17</v>
+      </c>
+      <c r="AZ291">
+        <v>17</v>
+      </c>
+      <c r="BA291">
+        <v>3</v>
+      </c>
+      <c r="BB291">
+        <v>6</v>
+      </c>
+      <c r="BC291">
+        <v>9</v>
+      </c>
+      <c r="BD291">
+        <v>0</v>
+      </c>
+      <c r="BE291">
+        <v>0</v>
+      </c>
+      <c r="BF291">
+        <v>0</v>
+      </c>
+      <c r="BG291">
+        <v>0</v>
+      </c>
+      <c r="BH291">
+        <v>0</v>
+      </c>
+      <c r="BI291">
+        <v>0</v>
+      </c>
+      <c r="BJ291">
+        <v>0</v>
+      </c>
+      <c r="BK291">
+        <v>0</v>
+      </c>
+      <c r="BL291">
+        <v>0</v>
+      </c>
+      <c r="BM291">
+        <v>0</v>
+      </c>
+      <c r="BN291">
+        <v>0</v>
+      </c>
+      <c r="BO291">
+        <v>0</v>
+      </c>
+      <c r="BP291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7574851</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>83</v>
+      </c>
+      <c r="H292" t="s">
+        <v>70</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292" t="s">
+        <v>257</v>
+      </c>
+      <c r="P292" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q292">
+        <v>2.75</v>
+      </c>
+      <c r="R292">
+        <v>2.3</v>
+      </c>
+      <c r="S292">
+        <v>3.6</v>
+      </c>
+      <c r="T292">
+        <v>1.33</v>
+      </c>
+      <c r="U292">
+        <v>3.25</v>
+      </c>
+      <c r="V292">
+        <v>2.5</v>
+      </c>
+      <c r="W292">
+        <v>1.5</v>
+      </c>
+      <c r="X292">
+        <v>6.5</v>
+      </c>
+      <c r="Y292">
+        <v>1.11</v>
+      </c>
+      <c r="Z292">
+        <v>2.25</v>
+      </c>
+      <c r="AA292">
+        <v>3.3</v>
+      </c>
+      <c r="AB292">
+        <v>2.85</v>
+      </c>
+      <c r="AC292">
+        <v>0</v>
+      </c>
+      <c r="AD292">
+        <v>0</v>
+      </c>
+      <c r="AE292">
+        <v>0</v>
+      </c>
+      <c r="AF292">
+        <v>0</v>
+      </c>
+      <c r="AG292">
+        <v>1.75</v>
+      </c>
+      <c r="AH292">
+        <v>2</v>
+      </c>
+      <c r="AI292">
+        <v>1.62</v>
+      </c>
+      <c r="AJ292">
+        <v>2.2</v>
+      </c>
+      <c r="AK292">
+        <v>0</v>
+      </c>
+      <c r="AL292">
+        <v>0</v>
+      </c>
+      <c r="AM292">
+        <v>0</v>
+      </c>
+      <c r="AN292">
+        <v>2.69</v>
+      </c>
+      <c r="AO292">
+        <v>2.31</v>
+      </c>
+      <c r="AP292">
+        <v>2.59</v>
+      </c>
+      <c r="AQ292">
+        <v>2.24</v>
+      </c>
+      <c r="AR292">
+        <v>2.25</v>
+      </c>
+      <c r="AS292">
+        <v>1.93</v>
+      </c>
+      <c r="AT292">
+        <v>4.18</v>
+      </c>
+      <c r="AU292">
+        <v>2</v>
+      </c>
+      <c r="AV292">
+        <v>5</v>
+      </c>
+      <c r="AW292">
+        <v>13</v>
+      </c>
+      <c r="AX292">
+        <v>3</v>
+      </c>
+      <c r="AY292">
+        <v>22</v>
+      </c>
+      <c r="AZ292">
+        <v>9</v>
+      </c>
+      <c r="BA292">
+        <v>6</v>
+      </c>
+      <c r="BB292">
+        <v>2</v>
+      </c>
+      <c r="BC292">
+        <v>8</v>
+      </c>
+      <c r="BD292">
+        <v>0</v>
+      </c>
+      <c r="BE292">
+        <v>0</v>
+      </c>
+      <c r="BF292">
+        <v>0</v>
+      </c>
+      <c r="BG292">
+        <v>0</v>
+      </c>
+      <c r="BH292">
+        <v>0</v>
+      </c>
+      <c r="BI292">
+        <v>0</v>
+      </c>
+      <c r="BJ292">
+        <v>0</v>
+      </c>
+      <c r="BK292">
+        <v>0</v>
+      </c>
+      <c r="BL292">
+        <v>0</v>
+      </c>
+      <c r="BM292">
+        <v>0</v>
+      </c>
+      <c r="BN292">
+        <v>0</v>
+      </c>
+      <c r="BO292">
+        <v>0</v>
+      </c>
+      <c r="BP292">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -817,6 +817,9 @@
     <t>['23', '81']</t>
   </si>
   <si>
+    <t>['45', '79']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1182,6 +1185,9 @@
   <si>
     <t>['3', '28', '43']</t>
   </si>
+  <si>
+    <t>['20']</t>
+  </si>
 </sst>
 </file>
 
@@ -1542,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP292"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2007,7 +2013,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2291,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -2625,7 +2631,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -3037,7 +3043,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3655,7 +3661,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3861,7 +3867,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3939,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ12">
         <v>0.5600000000000001</v>
@@ -4273,7 +4279,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -5097,7 +5103,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5178,7 +5184,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ18">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5303,7 +5309,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5509,7 +5515,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5715,7 +5721,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5793,7 +5799,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ21">
         <v>1.38</v>
@@ -7363,7 +7369,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7569,7 +7575,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7775,7 +7781,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -9089,10 +9095,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -9217,7 +9223,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9423,7 +9429,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9501,7 +9507,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ39">
         <v>0.6899999999999999</v>
@@ -9835,7 +9841,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -10041,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10247,7 +10253,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10659,7 +10665,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10865,7 +10871,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11071,7 +11077,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11152,7 +11158,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ47">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.27</v>
@@ -11277,7 +11283,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11689,7 +11695,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -12101,7 +12107,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12179,7 +12185,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ52">
         <v>1.06</v>
@@ -12719,7 +12725,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12925,7 +12931,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13337,7 +13343,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13415,7 +13421,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ58">
         <v>1.38</v>
@@ -15063,7 +15069,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ66">
         <v>0.63</v>
@@ -16015,7 +16021,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16221,7 +16227,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16302,7 +16308,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ72">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>2.36</v>
@@ -16505,7 +16511,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ73">
         <v>0.63</v>
@@ -16633,7 +16639,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16839,7 +16845,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17045,7 +17051,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17251,7 +17257,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17869,7 +17875,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18075,7 +18081,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18281,7 +18287,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18487,7 +18493,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18693,7 +18699,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18899,7 +18905,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18977,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ85">
         <v>1.13</v>
@@ -19105,7 +19111,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19517,7 +19523,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19598,7 +19604,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -20135,7 +20141,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20341,7 +20347,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20419,7 +20425,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -20959,7 +20965,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21577,7 +21583,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22195,7 +22201,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22607,7 +22613,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -23019,7 +23025,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23306,7 +23312,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ106">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -24049,7 +24055,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24333,7 +24339,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ111">
         <v>0.63</v>
@@ -25363,7 +25369,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ116">
         <v>0.5600000000000001</v>
@@ -26109,7 +26115,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26727,7 +26733,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26933,7 +26939,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27345,7 +27351,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27551,7 +27557,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27835,7 +27841,7 @@
         <v>0.57</v>
       </c>
       <c r="AP128">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27963,7 +27969,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28375,7 +28381,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28581,7 +28587,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28662,7 +28668,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ132">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.35</v>
@@ -28865,7 +28871,7 @@
         <v>2.57</v>
       </c>
       <c r="AP133">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ133">
         <v>2.24</v>
@@ -28993,7 +28999,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -30023,7 +30029,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30435,7 +30441,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30641,7 +30647,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30847,7 +30853,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31259,7 +31265,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31465,7 +31471,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31877,7 +31883,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -31958,7 +31964,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ148">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR148">
         <v>2.01</v>
@@ -32083,7 +32089,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32495,7 +32501,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32573,7 +32579,7 @@
         <v>1.29</v>
       </c>
       <c r="AP151">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ151">
         <v>1.12</v>
@@ -32701,7 +32707,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32907,7 +32913,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -32985,7 +32991,7 @@
         <v>0.38</v>
       </c>
       <c r="AP153">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ153">
         <v>0.71</v>
@@ -33525,7 +33531,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33731,7 +33737,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33937,7 +33943,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34143,7 +34149,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34555,7 +34561,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34636,7 +34642,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ161">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR161">
         <v>1.17</v>
@@ -34761,7 +34767,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34839,7 +34845,7 @@
         <v>1.63</v>
       </c>
       <c r="AP162">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ162">
         <v>1.63</v>
@@ -34967,7 +34973,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35379,7 +35385,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35869,7 +35875,7 @@
         <v>1.75</v>
       </c>
       <c r="AP167">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ167">
         <v>2.19</v>
@@ -36409,7 +36415,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -37027,7 +37033,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37439,7 +37445,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37645,7 +37651,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -37723,7 +37729,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ176">
         <v>1.25</v>
@@ -38263,7 +38269,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38469,7 +38475,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38550,7 +38556,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ180">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38675,7 +38681,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38881,7 +38887,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39293,7 +39299,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39705,7 +39711,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40401,7 +40407,7 @@
         <v>0.33</v>
       </c>
       <c r="AP189">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ189">
         <v>0.63</v>
@@ -40941,7 +40947,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41147,7 +41153,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41559,7 +41565,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41971,7 +41977,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42258,7 +42264,7 @@
         <v>2</v>
       </c>
       <c r="AQ198">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR198">
         <v>1.47</v>
@@ -42383,7 +42389,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42461,7 +42467,7 @@
         <v>1.3</v>
       </c>
       <c r="AP199">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ199">
         <v>1.12</v>
@@ -42873,7 +42879,7 @@
         <v>0.55</v>
       </c>
       <c r="AP201">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ201">
         <v>0.8100000000000001</v>
@@ -43207,7 +43213,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43619,7 +43625,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43825,7 +43831,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44237,7 +44243,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44649,7 +44655,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -45679,7 +45685,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -45760,7 +45766,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ215">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR215">
         <v>1.31</v>
@@ -46091,7 +46097,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46297,7 +46303,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46503,7 +46509,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -47121,7 +47127,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47327,7 +47333,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47405,7 +47411,7 @@
         <v>2.08</v>
       </c>
       <c r="AP223">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ223">
         <v>2.24</v>
@@ -47533,7 +47539,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47945,7 +47951,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48026,7 +48032,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ226">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR226">
         <v>1.35</v>
@@ -48229,7 +48235,7 @@
         <v>1.42</v>
       </c>
       <c r="AP227">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ227">
         <v>1.38</v>
@@ -48563,7 +48569,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48975,7 +48981,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49181,7 +49187,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49799,7 +49805,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49877,7 +49883,7 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ235">
         <v>2.19</v>
@@ -50005,7 +50011,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50083,7 +50089,7 @@
         <v>0.62</v>
       </c>
       <c r="AP236">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ236">
         <v>0.71</v>
@@ -50211,7 +50217,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50417,7 +50423,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -51035,7 +51041,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51241,7 +51247,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51447,7 +51453,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51653,7 +51659,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51859,7 +51865,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52065,7 +52071,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52477,7 +52483,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52555,7 +52561,7 @@
         <v>0.62</v>
       </c>
       <c r="AP248">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ248">
         <v>0.6899999999999999</v>
@@ -52889,7 +52895,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53507,7 +53513,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53588,7 +53594,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ253">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR253">
         <v>2.13</v>
@@ -53791,7 +53797,7 @@
         <v>1.14</v>
       </c>
       <c r="AP254">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ254">
         <v>1.38</v>
@@ -53919,7 +53925,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54537,7 +54543,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54615,7 +54621,7 @@
         <v>1.64</v>
       </c>
       <c r="AP258">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ258">
         <v>1.63</v>
@@ -55155,7 +55161,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55361,7 +55367,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55567,7 +55573,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55773,7 +55779,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56597,7 +56603,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56803,7 +56809,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -56884,7 +56890,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ269">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR269">
         <v>1.21</v>
@@ -57215,7 +57221,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57502,7 +57508,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ272">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR272">
         <v>1.28</v>
@@ -57911,7 +57917,7 @@
         <v>0.87</v>
       </c>
       <c r="AP274">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ274">
         <v>0.8100000000000001</v>
@@ -58863,7 +58869,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -59069,7 +59075,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59147,7 +59153,7 @@
         <v>1.13</v>
       </c>
       <c r="AP280">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ280">
         <v>1.25</v>
@@ -59687,7 +59693,7 @@
         <v>262</v>
       </c>
       <c r="P283" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q283">
         <v>4.75</v>
@@ -60099,7 +60105,7 @@
         <v>223</v>
       </c>
       <c r="P285" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q285">
         <v>10</v>
@@ -60511,7 +60517,7 @@
         <v>263</v>
       </c>
       <c r="P287" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q287">
         <v>1.44</v>
@@ -60923,7 +60929,7 @@
         <v>215</v>
       </c>
       <c r="P289" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q289">
         <v>2.75</v>
@@ -61129,7 +61135,7 @@
         <v>265</v>
       </c>
       <c r="P290" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61697,6 +61703,418 @@
         <v>0</v>
       </c>
       <c r="BP292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7574857</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45787.6875</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>80</v>
+      </c>
+      <c r="H293" t="s">
+        <v>78</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>180</v>
+      </c>
+      <c r="P293" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q293">
+        <v>3</v>
+      </c>
+      <c r="R293">
+        <v>2.05</v>
+      </c>
+      <c r="S293">
+        <v>3.75</v>
+      </c>
+      <c r="T293">
+        <v>1.44</v>
+      </c>
+      <c r="U293">
+        <v>2.63</v>
+      </c>
+      <c r="V293">
+        <v>3.25</v>
+      </c>
+      <c r="W293">
+        <v>1.33</v>
+      </c>
+      <c r="X293">
+        <v>9</v>
+      </c>
+      <c r="Y293">
+        <v>1.07</v>
+      </c>
+      <c r="Z293">
+        <v>2.5</v>
+      </c>
+      <c r="AA293">
+        <v>3</v>
+      </c>
+      <c r="AB293">
+        <v>2.75</v>
+      </c>
+      <c r="AC293">
+        <v>0</v>
+      </c>
+      <c r="AD293">
+        <v>0</v>
+      </c>
+      <c r="AE293">
+        <v>0</v>
+      </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
+      <c r="AG293">
+        <v>2.1</v>
+      </c>
+      <c r="AH293">
+        <v>1.67</v>
+      </c>
+      <c r="AI293">
+        <v>1.91</v>
+      </c>
+      <c r="AJ293">
+        <v>1.91</v>
+      </c>
+      <c r="AK293">
+        <v>0</v>
+      </c>
+      <c r="AL293">
+        <v>0</v>
+      </c>
+      <c r="AM293">
+        <v>0</v>
+      </c>
+      <c r="AN293">
+        <v>1.19</v>
+      </c>
+      <c r="AO293">
+        <v>1</v>
+      </c>
+      <c r="AP293">
+        <v>1.18</v>
+      </c>
+      <c r="AQ293">
+        <v>1</v>
+      </c>
+      <c r="AR293">
+        <v>1.24</v>
+      </c>
+      <c r="AS293">
+        <v>1.32</v>
+      </c>
+      <c r="AT293">
+        <v>2.56</v>
+      </c>
+      <c r="AU293">
+        <v>6</v>
+      </c>
+      <c r="AV293">
+        <v>5</v>
+      </c>
+      <c r="AW293">
+        <v>11</v>
+      </c>
+      <c r="AX293">
+        <v>5</v>
+      </c>
+      <c r="AY293">
+        <v>19</v>
+      </c>
+      <c r="AZ293">
+        <v>11</v>
+      </c>
+      <c r="BA293">
+        <v>3</v>
+      </c>
+      <c r="BB293">
+        <v>1</v>
+      </c>
+      <c r="BC293">
+        <v>4</v>
+      </c>
+      <c r="BD293">
+        <v>0</v>
+      </c>
+      <c r="BE293">
+        <v>0</v>
+      </c>
+      <c r="BF293">
+        <v>0</v>
+      </c>
+      <c r="BG293">
+        <v>0</v>
+      </c>
+      <c r="BH293">
+        <v>0</v>
+      </c>
+      <c r="BI293">
+        <v>0</v>
+      </c>
+      <c r="BJ293">
+        <v>0</v>
+      </c>
+      <c r="BK293">
+        <v>0</v>
+      </c>
+      <c r="BL293">
+        <v>0</v>
+      </c>
+      <c r="BM293">
+        <v>0</v>
+      </c>
+      <c r="BN293">
+        <v>0</v>
+      </c>
+      <c r="BO293">
+        <v>0</v>
+      </c>
+      <c r="BP293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7574858</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45787.6875</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>72</v>
+      </c>
+      <c r="H294" t="s">
+        <v>77</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>2</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294" t="s">
+        <v>267</v>
+      </c>
+      <c r="P294" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q294">
+        <v>6</v>
+      </c>
+      <c r="R294">
+        <v>2.2</v>
+      </c>
+      <c r="S294">
+        <v>2.2</v>
+      </c>
+      <c r="T294">
+        <v>1.4</v>
+      </c>
+      <c r="U294">
+        <v>2.75</v>
+      </c>
+      <c r="V294">
+        <v>3</v>
+      </c>
+      <c r="W294">
+        <v>1.36</v>
+      </c>
+      <c r="X294">
+        <v>8</v>
+      </c>
+      <c r="Y294">
+        <v>1.08</v>
+      </c>
+      <c r="Z294">
+        <v>5.1</v>
+      </c>
+      <c r="AA294">
+        <v>3.5</v>
+      </c>
+      <c r="AB294">
+        <v>1.63</v>
+      </c>
+      <c r="AC294">
+        <v>0</v>
+      </c>
+      <c r="AD294">
+        <v>0</v>
+      </c>
+      <c r="AE294">
+        <v>0</v>
+      </c>
+      <c r="AF294">
+        <v>0</v>
+      </c>
+      <c r="AG294">
+        <v>2.05</v>
+      </c>
+      <c r="AH294">
+        <v>1.7</v>
+      </c>
+      <c r="AI294">
+        <v>2</v>
+      </c>
+      <c r="AJ294">
+        <v>1.75</v>
+      </c>
+      <c r="AK294">
+        <v>0</v>
+      </c>
+      <c r="AL294">
+        <v>0</v>
+      </c>
+      <c r="AM294">
+        <v>0</v>
+      </c>
+      <c r="AN294">
+        <v>1.56</v>
+      </c>
+      <c r="AO294">
+        <v>2.13</v>
+      </c>
+      <c r="AP294">
+        <v>1.65</v>
+      </c>
+      <c r="AQ294">
+        <v>2</v>
+      </c>
+      <c r="AR294">
+        <v>1.2</v>
+      </c>
+      <c r="AS294">
+        <v>1.44</v>
+      </c>
+      <c r="AT294">
+        <v>2.64</v>
+      </c>
+      <c r="AU294">
+        <v>4</v>
+      </c>
+      <c r="AV294">
+        <v>7</v>
+      </c>
+      <c r="AW294">
+        <v>3</v>
+      </c>
+      <c r="AX294">
+        <v>14</v>
+      </c>
+      <c r="AY294">
+        <v>8</v>
+      </c>
+      <c r="AZ294">
+        <v>26</v>
+      </c>
+      <c r="BA294">
+        <v>2</v>
+      </c>
+      <c r="BB294">
+        <v>7</v>
+      </c>
+      <c r="BC294">
+        <v>9</v>
+      </c>
+      <c r="BD294">
+        <v>0</v>
+      </c>
+      <c r="BE294">
+        <v>0</v>
+      </c>
+      <c r="BF294">
+        <v>0</v>
+      </c>
+      <c r="BG294">
+        <v>0</v>
+      </c>
+      <c r="BH294">
+        <v>0</v>
+      </c>
+      <c r="BI294">
+        <v>0</v>
+      </c>
+      <c r="BJ294">
+        <v>0</v>
+      </c>
+      <c r="BK294">
+        <v>0</v>
+      </c>
+      <c r="BL294">
+        <v>0</v>
+      </c>
+      <c r="BM294">
+        <v>0</v>
+      </c>
+      <c r="BN294">
+        <v>0</v>
+      </c>
+      <c r="BO294">
+        <v>0</v>
+      </c>
+      <c r="BP294">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1548,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP294"/>
+  <dimension ref="A1:BP295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3948,7 +3948,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ12">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ19">
         <v>1.12</v>
@@ -7656,7 +7656,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ30">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
         <v>0.55</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ31">
         <v>1.06</v>
@@ -10949,7 +10949,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -12600,7 +12600,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ54">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR54">
         <v>1.92</v>
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ57">
         <v>0.6899999999999999</v>
@@ -15484,7 +15484,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ68">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR68">
         <v>0.83</v>
@@ -17953,7 +17953,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ80">
         <v>1.38</v>
@@ -20634,7 +20634,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>0.99</v>
@@ -21249,7 +21249,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ96">
         <v>0.63</v>
@@ -25372,7 +25372,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ116">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
         <v>1.23</v>
@@ -25575,7 +25575,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -28256,7 +28256,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ130">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR130">
         <v>1.33</v>
@@ -29489,7 +29489,7 @@
         <v>0.43</v>
       </c>
       <c r="AP136">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ136">
         <v>0.71</v>
@@ -31758,7 +31758,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ147">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR147">
         <v>1.11</v>
@@ -32785,7 +32785,7 @@
         <v>0.43</v>
       </c>
       <c r="AP152">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ152">
         <v>1.25</v>
@@ -34230,7 +34230,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ159">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR159">
         <v>1.19</v>
@@ -34639,7 +34639,7 @@
         <v>2.38</v>
       </c>
       <c r="AP161">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ161">
         <v>2</v>
@@ -37938,7 +37938,7 @@
         <v>2</v>
       </c>
       <c r="AQ177">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -38347,7 +38347,7 @@
         <v>1.56</v>
       </c>
       <c r="AP179">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ179">
         <v>2.19</v>
@@ -41852,7 +41852,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ196">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR196">
         <v>1.29</v>
@@ -43497,7 +43497,7 @@
         <v>1.6</v>
       </c>
       <c r="AP204">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ204">
         <v>1.38</v>
@@ -45560,7 +45560,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ214">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR214">
         <v>1.29</v>
@@ -46175,7 +46175,7 @@
         <v>0.5</v>
       </c>
       <c r="AP217">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ217">
         <v>0.8100000000000001</v>
@@ -48444,7 +48444,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ228">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR228">
         <v>1.98</v>
@@ -50295,7 +50295,7 @@
         <v>2.15</v>
       </c>
       <c r="AP237">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ237">
         <v>2.24</v>
@@ -50916,7 +50916,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ240">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR240">
         <v>1.26</v>
@@ -54827,7 +54827,7 @@
         <v>0.71</v>
       </c>
       <c r="AP259">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ259">
         <v>0.8100000000000001</v>
@@ -55036,7 +55036,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ260">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR260">
         <v>1.66</v>
@@ -58123,7 +58123,7 @@
         <v>1.73</v>
       </c>
       <c r="AP275">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ275">
         <v>1.63</v>
@@ -58538,7 +58538,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ277">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AR277">
         <v>2.21</v>
@@ -62115,6 +62115,212 @@
         <v>0</v>
       </c>
       <c r="BP294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7574854</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45788.47916666666</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>87</v>
+      </c>
+      <c r="H295" t="s">
+        <v>71</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>1</v>
+      </c>
+      <c r="O295" t="s">
+        <v>90</v>
+      </c>
+      <c r="P295" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q295">
+        <v>2.6</v>
+      </c>
+      <c r="R295">
+        <v>2.1</v>
+      </c>
+      <c r="S295">
+        <v>4.75</v>
+      </c>
+      <c r="T295">
+        <v>1.44</v>
+      </c>
+      <c r="U295">
+        <v>2.63</v>
+      </c>
+      <c r="V295">
+        <v>3.25</v>
+      </c>
+      <c r="W295">
+        <v>1.33</v>
+      </c>
+      <c r="X295">
+        <v>9</v>
+      </c>
+      <c r="Y295">
+        <v>1.07</v>
+      </c>
+      <c r="Z295">
+        <v>1.87</v>
+      </c>
+      <c r="AA295">
+        <v>3.3</v>
+      </c>
+      <c r="AB295">
+        <v>4</v>
+      </c>
+      <c r="AC295">
+        <v>3.77</v>
+      </c>
+      <c r="AD295">
+        <v>1.3</v>
+      </c>
+      <c r="AE295">
+        <v>2.03</v>
+      </c>
+      <c r="AF295">
+        <v>1.85</v>
+      </c>
+      <c r="AG295">
+        <v>2.1</v>
+      </c>
+      <c r="AH295">
+        <v>1.67</v>
+      </c>
+      <c r="AI295">
+        <v>2</v>
+      </c>
+      <c r="AJ295">
+        <v>1.75</v>
+      </c>
+      <c r="AK295">
+        <v>0</v>
+      </c>
+      <c r="AL295">
+        <v>0</v>
+      </c>
+      <c r="AM295">
+        <v>0</v>
+      </c>
+      <c r="AN295">
+        <v>1.19</v>
+      </c>
+      <c r="AO295">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP295">
+        <v>1.12</v>
+      </c>
+      <c r="AQ295">
+        <v>0.71</v>
+      </c>
+      <c r="AR295">
+        <v>1.16</v>
+      </c>
+      <c r="AS295">
+        <v>0.99</v>
+      </c>
+      <c r="AT295">
+        <v>2.15</v>
+      </c>
+      <c r="AU295">
+        <v>4</v>
+      </c>
+      <c r="AV295">
+        <v>4</v>
+      </c>
+      <c r="AW295">
+        <v>8</v>
+      </c>
+      <c r="AX295">
+        <v>14</v>
+      </c>
+      <c r="AY295">
+        <v>16</v>
+      </c>
+      <c r="AZ295">
+        <v>23</v>
+      </c>
+      <c r="BA295">
+        <v>1</v>
+      </c>
+      <c r="BB295">
+        <v>6</v>
+      </c>
+      <c r="BC295">
+        <v>7</v>
+      </c>
+      <c r="BD295">
+        <v>0</v>
+      </c>
+      <c r="BE295">
+        <v>0</v>
+      </c>
+      <c r="BF295">
+        <v>0</v>
+      </c>
+      <c r="BG295">
+        <v>0</v>
+      </c>
+      <c r="BH295">
+        <v>0</v>
+      </c>
+      <c r="BI295">
+        <v>0</v>
+      </c>
+      <c r="BJ295">
+        <v>0</v>
+      </c>
+      <c r="BK295">
+        <v>0</v>
+      </c>
+      <c r="BL295">
+        <v>0</v>
+      </c>
+      <c r="BM295">
+        <v>0</v>
+      </c>
+      <c r="BN295">
+        <v>0</v>
+      </c>
+      <c r="BO295">
+        <v>0</v>
+      </c>
+      <c r="BP295">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="395">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,12 @@
     <t>['45', '79']</t>
   </si>
   <si>
+    <t>['21', '55']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -851,9 +857,6 @@
   </si>
   <si>
     <t>['90+7']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['61']</t>
@@ -1187,6 +1190,15 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['76', '80']</t>
+  </si>
+  <si>
+    <t>['6', '90+2']</t>
+  </si>
+  <si>
+    <t>['20', '25']</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2013,7 +2025,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2631,7 +2643,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -3043,7 +3055,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3661,7 +3673,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3742,7 +3754,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ11">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3867,7 +3879,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4154,7 +4166,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4279,7 +4291,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4769,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4975,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5103,7 +5115,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5181,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5309,7 +5321,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5515,7 +5527,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5721,7 +5733,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -7369,7 +7381,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7447,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29">
         <v>2.19</v>
@@ -7575,7 +7587,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7781,7 +7793,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8065,10 +8077,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR32">
         <v>0.64</v>
@@ -8274,7 +8286,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ33">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR33">
         <v>2.25</v>
@@ -8480,7 +8492,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ34">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34">
         <v>1.18</v>
@@ -8889,7 +8901,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
         <v>1.12</v>
@@ -9223,7 +9235,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9429,7 +9441,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9841,7 +9853,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -10047,7 +10059,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10253,7 +10265,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10334,7 +10346,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ43">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR43">
         <v>2.13</v>
@@ -10665,7 +10677,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10871,7 +10883,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11077,7 +11089,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11283,7 +11295,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11364,7 +11376,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11695,7 +11707,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -11773,10 +11785,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11979,7 +11991,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ51">
         <v>1.12</v>
@@ -12107,7 +12119,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12725,7 +12737,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12803,7 +12815,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ55">
         <v>2.19</v>
@@ -12931,7 +12943,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13343,7 +13355,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -14660,7 +14672,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ64">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR64">
         <v>1.27</v>
@@ -15275,7 +15287,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15896,7 +15908,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -16021,7 +16033,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16099,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -16227,7 +16239,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16639,7 +16651,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16845,7 +16857,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17051,7 +17063,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17129,7 +17141,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ76">
         <v>0.6899999999999999</v>
@@ -17257,7 +17269,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17544,7 +17556,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ78">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
         <v>1.68</v>
@@ -17875,7 +17887,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18081,7 +18093,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18162,7 +18174,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR81">
         <v>1.3</v>
@@ -18287,7 +18299,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18493,7 +18505,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18699,7 +18711,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18905,7 +18917,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19111,7 +19123,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19395,7 +19407,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ87">
         <v>0.6899999999999999</v>
@@ -19523,7 +19535,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19810,7 +19822,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR89">
         <v>2.03</v>
@@ -20141,7 +20153,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20219,7 +20231,7 @@
         <v>0.4</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
         <v>0.8100000000000001</v>
@@ -20347,7 +20359,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20428,7 +20440,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ92">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
         <v>1.25</v>
@@ -20965,7 +20977,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21043,7 +21055,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ95">
         <v>0.71</v>
@@ -21583,7 +21595,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21870,7 +21882,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ99">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR99">
         <v>2.36</v>
@@ -22201,7 +22213,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22613,7 +22625,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -23025,7 +23037,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23515,7 +23527,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ107">
         <v>0.8100000000000001</v>
@@ -23927,7 +23939,7 @@
         <v>3</v>
       </c>
       <c r="AP109">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ109">
         <v>2.24</v>
@@ -24055,7 +24067,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24136,7 +24148,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR110">
         <v>1.54</v>
@@ -24960,7 +24972,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ114">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR114">
         <v>1.09</v>
@@ -25163,10 +25175,10 @@
         <v>0.33</v>
       </c>
       <c r="AP115">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ115">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -26115,7 +26127,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26733,7 +26745,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26939,7 +26951,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27351,7 +27363,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27557,7 +27569,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27969,7 +27981,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28050,7 +28062,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ129">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
         <v>1.02</v>
@@ -28253,7 +28265,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ130">
         <v>0.71</v>
@@ -28381,7 +28393,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28459,10 +28471,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR131">
         <v>1.14</v>
@@ -28587,7 +28599,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -28999,7 +29011,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29077,7 +29089,7 @@
         <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
         <v>0.63</v>
@@ -29286,7 +29298,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ135">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR135">
         <v>2.03</v>
@@ -30029,7 +30041,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30441,7 +30453,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30647,7 +30659,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>2.75</v>
@@ -30853,7 +30865,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -31265,7 +31277,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31471,7 +31483,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31549,7 +31561,7 @@
         <v>2.38</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ146">
         <v>2.24</v>
@@ -31755,7 +31767,7 @@
         <v>0.57</v>
       </c>
       <c r="AP147">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
         <v>0.71</v>
@@ -31883,7 +31895,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -32089,7 +32101,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32167,7 +32179,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32376,7 +32388,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ150">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
         <v>1.34</v>
@@ -32501,7 +32513,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32707,7 +32719,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32788,7 +32800,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ152">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR152">
         <v>1.17</v>
@@ -32913,7 +32925,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33200,7 +33212,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ154">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR154">
         <v>1.23</v>
@@ -33531,7 +33543,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33612,7 +33624,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ156">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR156">
         <v>1.41</v>
@@ -33737,7 +33749,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33943,7 +33955,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34021,7 +34033,7 @@
         <v>0.78</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34149,7 +34161,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34433,10 +34445,10 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ160">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR160">
         <v>1.14</v>
@@ -34561,7 +34573,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34767,7 +34779,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34848,7 +34860,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ162">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR162">
         <v>1.23</v>
@@ -34973,7 +34985,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35051,7 +35063,7 @@
         <v>1.38</v>
       </c>
       <c r="AP163">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -35385,7 +35397,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -36415,7 +36427,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -37033,7 +37045,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37111,7 +37123,7 @@
         <v>1.11</v>
       </c>
       <c r="AP173">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ173">
         <v>1.12</v>
@@ -37445,7 +37457,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37651,7 +37663,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -37732,7 +37744,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ176">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR176">
         <v>1.21</v>
@@ -37935,7 +37947,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ177">
         <v>0.71</v>
@@ -38144,7 +38156,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ178">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR178">
         <v>2.03</v>
@@ -38269,7 +38281,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38475,7 +38487,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38553,7 +38565,7 @@
         <v>2.44</v>
       </c>
       <c r="AP180">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ180">
         <v>2</v>
@@ -38681,7 +38693,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38762,7 +38774,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ181">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR181">
         <v>1.3</v>
@@ -38887,7 +38899,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39299,7 +39311,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39711,7 +39723,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40819,7 +40831,7 @@
         <v>0.3</v>
       </c>
       <c r="AP191">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ191">
         <v>0.63</v>
@@ -40947,7 +40959,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41025,7 +41037,7 @@
         <v>1.4</v>
       </c>
       <c r="AP192">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ192">
         <v>1.06</v>
@@ -41153,7 +41165,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41234,7 +41246,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ193">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR193">
         <v>1.34</v>
@@ -41565,7 +41577,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41977,7 +41989,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42058,7 +42070,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ197">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR197">
         <v>1.32</v>
@@ -42261,7 +42273,7 @@
         <v>2.5</v>
       </c>
       <c r="AP198">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ198">
         <v>2</v>
@@ -42389,7 +42401,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -43213,7 +43225,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43625,7 +43637,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43706,7 +43718,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ205">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR205">
         <v>1.23</v>
@@ -43831,7 +43843,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44243,7 +44255,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44655,7 +44667,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -44736,7 +44748,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR210">
         <v>1.22</v>
@@ -44939,7 +44951,7 @@
         <v>1.27</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ211">
         <v>1.06</v>
@@ -45145,7 +45157,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ212">
         <v>0.63</v>
@@ -45351,7 +45363,7 @@
         <v>1.55</v>
       </c>
       <c r="AP213">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ213">
         <v>1.38</v>
@@ -45685,7 +45697,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -45972,7 +45984,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ216">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR216">
         <v>2.12</v>
@@ -46097,7 +46109,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46303,7 +46315,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46509,7 +46521,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -46590,7 +46602,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ219">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR219">
         <v>1.24</v>
@@ -47002,7 +47014,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ221">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR221">
         <v>1.72</v>
@@ -47127,7 +47139,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47333,7 +47345,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47539,7 +47551,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47617,7 +47629,7 @@
         <v>1</v>
       </c>
       <c r="AP224">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ224">
         <v>1.38</v>
@@ -47951,7 +47963,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48569,7 +48581,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48856,7 +48868,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ230">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR230">
         <v>1.23</v>
@@ -48981,7 +48993,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49187,7 +49199,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49471,7 +49483,7 @@
         <v>0.75</v>
       </c>
       <c r="AP233">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ233">
         <v>1.13</v>
@@ -49677,7 +49689,7 @@
         <v>0.58</v>
       </c>
       <c r="AP234">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ234">
         <v>0.63</v>
@@ -49805,7 +49817,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -50011,7 +50023,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50217,7 +50229,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50423,7 +50435,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -51041,7 +51053,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51122,7 +51134,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ241">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR241">
         <v>1.26</v>
@@ -51247,7 +51259,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51325,7 +51337,7 @@
         <v>1.15</v>
       </c>
       <c r="AP242">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ242">
         <v>1.38</v>
@@ -51453,7 +51465,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51531,7 +51543,7 @@
         <v>0.54</v>
       </c>
       <c r="AP243">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ243">
         <v>0.8100000000000001</v>
@@ -51659,7 +51671,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51740,7 +51752,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ244">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR244">
         <v>2.18</v>
@@ -51865,7 +51877,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -51946,7 +51958,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ245">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR245">
         <v>1.2</v>
@@ -52071,7 +52083,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52355,7 +52367,7 @@
         <v>1.54</v>
       </c>
       <c r="AP247">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ247">
         <v>1.38</v>
@@ -52483,7 +52495,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52895,7 +52907,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53513,7 +53525,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53925,7 +53937,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54003,7 +54015,7 @@
         <v>0.43</v>
       </c>
       <c r="AP255">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ255">
         <v>0.63</v>
@@ -54212,7 +54224,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ256">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR256">
         <v>1.28</v>
@@ -54543,7 +54555,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -54624,7 +54636,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ258">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR258">
         <v>1.23</v>
@@ -54830,7 +54842,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ259">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR259">
         <v>1.12</v>
@@ -55161,7 +55173,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55367,7 +55379,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55445,7 +55457,7 @@
         <v>0.57</v>
       </c>
       <c r="AP262">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ262">
         <v>0.71</v>
@@ -55573,7 +55585,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55779,7 +55791,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -56603,7 +56615,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56809,7 +56821,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57221,7 +57233,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57299,7 +57311,7 @@
         <v>2.07</v>
       </c>
       <c r="AP271">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ271">
         <v>2.19</v>
@@ -57920,7 +57932,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ274">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR274">
         <v>1.22</v>
@@ -58126,7 +58138,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ275">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR275">
         <v>1.14</v>
@@ -58329,7 +58341,7 @@
         <v>0.6</v>
       </c>
       <c r="AP276">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ276">
         <v>0.63</v>
@@ -58741,7 +58753,7 @@
         <v>0.73</v>
       </c>
       <c r="AP278">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ278">
         <v>0.71</v>
@@ -58869,7 +58881,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -58947,7 +58959,7 @@
         <v>2.27</v>
       </c>
       <c r="AP279">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AQ279">
         <v>2.24</v>
@@ -59075,7 +59087,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59156,7 +59168,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ280">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR280">
         <v>1.2</v>
@@ -59693,7 +59705,7 @@
         <v>262</v>
       </c>
       <c r="P283" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q283">
         <v>4.75</v>
@@ -60105,7 +60117,7 @@
         <v>223</v>
       </c>
       <c r="P285" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q285">
         <v>10</v>
@@ -60517,7 +60529,7 @@
         <v>263</v>
       </c>
       <c r="P287" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q287">
         <v>1.44</v>
@@ -60929,7 +60941,7 @@
         <v>215</v>
       </c>
       <c r="P289" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q289">
         <v>2.75</v>
@@ -61135,7 +61147,7 @@
         <v>265</v>
       </c>
       <c r="P290" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61959,7 +61971,7 @@
         <v>267</v>
       </c>
       <c r="P294" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q294">
         <v>6</v>
@@ -62165,7 +62177,7 @@
         <v>90</v>
       </c>
       <c r="P295" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q295">
         <v>2.6</v>
@@ -62322,6 +62334,624 @@
       </c>
       <c r="BP295">
         <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7574859</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>84</v>
+      </c>
+      <c r="H296" t="s">
+        <v>74</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296" t="s">
+        <v>268</v>
+      </c>
+      <c r="P296" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q296">
+        <v>3.1</v>
+      </c>
+      <c r="R296">
+        <v>2.1</v>
+      </c>
+      <c r="S296">
+        <v>3.6</v>
+      </c>
+      <c r="T296">
+        <v>1.44</v>
+      </c>
+      <c r="U296">
+        <v>2.63</v>
+      </c>
+      <c r="V296">
+        <v>3</v>
+      </c>
+      <c r="W296">
+        <v>1.36</v>
+      </c>
+      <c r="X296">
+        <v>9</v>
+      </c>
+      <c r="Y296">
+        <v>1.07</v>
+      </c>
+      <c r="Z296">
+        <v>2.3</v>
+      </c>
+      <c r="AA296">
+        <v>3.1</v>
+      </c>
+      <c r="AB296">
+        <v>2.95</v>
+      </c>
+      <c r="AC296">
+        <v>0</v>
+      </c>
+      <c r="AD296">
+        <v>0</v>
+      </c>
+      <c r="AE296">
+        <v>0</v>
+      </c>
+      <c r="AF296">
+        <v>0</v>
+      </c>
+      <c r="AG296">
+        <v>2.05</v>
+      </c>
+      <c r="AH296">
+        <v>1.7</v>
+      </c>
+      <c r="AI296">
+        <v>1.91</v>
+      </c>
+      <c r="AJ296">
+        <v>1.91</v>
+      </c>
+      <c r="AK296">
+        <v>0</v>
+      </c>
+      <c r="AL296">
+        <v>0</v>
+      </c>
+      <c r="AM296">
+        <v>0</v>
+      </c>
+      <c r="AN296">
+        <v>1.56</v>
+      </c>
+      <c r="AO296">
+        <v>1.25</v>
+      </c>
+      <c r="AP296">
+        <v>1.53</v>
+      </c>
+      <c r="AQ296">
+        <v>1.24</v>
+      </c>
+      <c r="AR296">
+        <v>1.27</v>
+      </c>
+      <c r="AS296">
+        <v>1.25</v>
+      </c>
+      <c r="AT296">
+        <v>2.52</v>
+      </c>
+      <c r="AU296">
+        <v>7</v>
+      </c>
+      <c r="AV296">
+        <v>6</v>
+      </c>
+      <c r="AW296">
+        <v>4</v>
+      </c>
+      <c r="AX296">
+        <v>3</v>
+      </c>
+      <c r="AY296">
+        <v>11</v>
+      </c>
+      <c r="AZ296">
+        <v>10</v>
+      </c>
+      <c r="BA296">
+        <v>2</v>
+      </c>
+      <c r="BB296">
+        <v>7</v>
+      </c>
+      <c r="BC296">
+        <v>9</v>
+      </c>
+      <c r="BD296">
+        <v>0</v>
+      </c>
+      <c r="BE296">
+        <v>0</v>
+      </c>
+      <c r="BF296">
+        <v>0</v>
+      </c>
+      <c r="BG296">
+        <v>0</v>
+      </c>
+      <c r="BH296">
+        <v>0</v>
+      </c>
+      <c r="BI296">
+        <v>0</v>
+      </c>
+      <c r="BJ296">
+        <v>0</v>
+      </c>
+      <c r="BK296">
+        <v>0</v>
+      </c>
+      <c r="BL296">
+        <v>0</v>
+      </c>
+      <c r="BM296">
+        <v>0</v>
+      </c>
+      <c r="BN296">
+        <v>0</v>
+      </c>
+      <c r="BO296">
+        <v>0</v>
+      </c>
+      <c r="BP296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7574856</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>85</v>
+      </c>
+      <c r="H297" t="s">
+        <v>76</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>3</v>
+      </c>
+      <c r="O297" t="s">
+        <v>198</v>
+      </c>
+      <c r="P297" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q297">
+        <v>2.1</v>
+      </c>
+      <c r="R297">
+        <v>2.3</v>
+      </c>
+      <c r="S297">
+        <v>6</v>
+      </c>
+      <c r="T297">
+        <v>1.36</v>
+      </c>
+      <c r="U297">
+        <v>3</v>
+      </c>
+      <c r="V297">
+        <v>2.75</v>
+      </c>
+      <c r="W297">
+        <v>1.4</v>
+      </c>
+      <c r="X297">
+        <v>7</v>
+      </c>
+      <c r="Y297">
+        <v>1.1</v>
+      </c>
+      <c r="Z297">
+        <v>1.51</v>
+      </c>
+      <c r="AA297">
+        <v>3.8</v>
+      </c>
+      <c r="AB297">
+        <v>5.9</v>
+      </c>
+      <c r="AC297">
+        <v>0</v>
+      </c>
+      <c r="AD297">
+        <v>0</v>
+      </c>
+      <c r="AE297">
+        <v>0</v>
+      </c>
+      <c r="AF297">
+        <v>0</v>
+      </c>
+      <c r="AG297">
+        <v>1.91</v>
+      </c>
+      <c r="AH297">
+        <v>1.83</v>
+      </c>
+      <c r="AI297">
+        <v>1.95</v>
+      </c>
+      <c r="AJ297">
+        <v>1.8</v>
+      </c>
+      <c r="AK297">
+        <v>0</v>
+      </c>
+      <c r="AL297">
+        <v>0</v>
+      </c>
+      <c r="AM297">
+        <v>0</v>
+      </c>
+      <c r="AN297">
+        <v>2</v>
+      </c>
+      <c r="AO297">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP297">
+        <v>1.88</v>
+      </c>
+      <c r="AQ297">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR297">
+        <v>1.63</v>
+      </c>
+      <c r="AS297">
+        <v>1.16</v>
+      </c>
+      <c r="AT297">
+        <v>2.79</v>
+      </c>
+      <c r="AU297">
+        <v>5</v>
+      </c>
+      <c r="AV297">
+        <v>4</v>
+      </c>
+      <c r="AW297">
+        <v>15</v>
+      </c>
+      <c r="AX297">
+        <v>4</v>
+      </c>
+      <c r="AY297">
+        <v>22</v>
+      </c>
+      <c r="AZ297">
+        <v>8</v>
+      </c>
+      <c r="BA297">
+        <v>16</v>
+      </c>
+      <c r="BB297">
+        <v>3</v>
+      </c>
+      <c r="BC297">
+        <v>19</v>
+      </c>
+      <c r="BD297">
+        <v>0</v>
+      </c>
+      <c r="BE297">
+        <v>0</v>
+      </c>
+      <c r="BF297">
+        <v>0</v>
+      </c>
+      <c r="BG297">
+        <v>0</v>
+      </c>
+      <c r="BH297">
+        <v>0</v>
+      </c>
+      <c r="BI297">
+        <v>0</v>
+      </c>
+      <c r="BJ297">
+        <v>0</v>
+      </c>
+      <c r="BK297">
+        <v>0</v>
+      </c>
+      <c r="BL297">
+        <v>0</v>
+      </c>
+      <c r="BM297">
+        <v>0</v>
+      </c>
+      <c r="BN297">
+        <v>0</v>
+      </c>
+      <c r="BO297">
+        <v>0</v>
+      </c>
+      <c r="BP297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7574855</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45788.6875</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>86</v>
+      </c>
+      <c r="H298" t="s">
+        <v>73</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>2</v>
+      </c>
+      <c r="K298">
+        <v>3</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>2</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298" t="s">
+        <v>269</v>
+      </c>
+      <c r="P298" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q298">
+        <v>7.5</v>
+      </c>
+      <c r="R298">
+        <v>2.4</v>
+      </c>
+      <c r="S298">
+        <v>1.91</v>
+      </c>
+      <c r="T298">
+        <v>1.33</v>
+      </c>
+      <c r="U298">
+        <v>3.25</v>
+      </c>
+      <c r="V298">
+        <v>2.5</v>
+      </c>
+      <c r="W298">
+        <v>1.5</v>
+      </c>
+      <c r="X298">
+        <v>6.5</v>
+      </c>
+      <c r="Y298">
+        <v>1.11</v>
+      </c>
+      <c r="Z298">
+        <v>9.5</v>
+      </c>
+      <c r="AA298">
+        <v>5.3</v>
+      </c>
+      <c r="AB298">
+        <v>1.27</v>
+      </c>
+      <c r="AC298">
+        <v>1.07</v>
+      </c>
+      <c r="AD298">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="AE298">
+        <v>1.32</v>
+      </c>
+      <c r="AF298">
+        <v>3.54</v>
+      </c>
+      <c r="AG298">
+        <v>1.7</v>
+      </c>
+      <c r="AH298">
+        <v>2.1</v>
+      </c>
+      <c r="AI298">
+        <v>2</v>
+      </c>
+      <c r="AJ298">
+        <v>1.75</v>
+      </c>
+      <c r="AK298">
+        <v>2.8</v>
+      </c>
+      <c r="AL298">
+        <v>1.15</v>
+      </c>
+      <c r="AM298">
+        <v>1.08</v>
+      </c>
+      <c r="AN298">
+        <v>0.38</v>
+      </c>
+      <c r="AO298">
+        <v>1.63</v>
+      </c>
+      <c r="AP298">
+        <v>0.35</v>
+      </c>
+      <c r="AQ298">
+        <v>1.71</v>
+      </c>
+      <c r="AR298">
+        <v>1.28</v>
+      </c>
+      <c r="AS298">
+        <v>1.45</v>
+      </c>
+      <c r="AT298">
+        <v>2.73</v>
+      </c>
+      <c r="AU298">
+        <v>5</v>
+      </c>
+      <c r="AV298">
+        <v>8</v>
+      </c>
+      <c r="AW298">
+        <v>5</v>
+      </c>
+      <c r="AX298">
+        <v>9</v>
+      </c>
+      <c r="AY298">
+        <v>12</v>
+      </c>
+      <c r="AZ298">
+        <v>19</v>
+      </c>
+      <c r="BA298">
+        <v>0</v>
+      </c>
+      <c r="BB298">
+        <v>4</v>
+      </c>
+      <c r="BC298">
+        <v>4</v>
+      </c>
+      <c r="BD298">
+        <v>4</v>
+      </c>
+      <c r="BE298">
+        <v>10</v>
+      </c>
+      <c r="BF298">
+        <v>1.29</v>
+      </c>
+      <c r="BG298">
+        <v>1.24</v>
+      </c>
+      <c r="BH298">
+        <v>3.34</v>
+      </c>
+      <c r="BI298">
+        <v>1.48</v>
+      </c>
+      <c r="BJ298">
+        <v>2.4</v>
+      </c>
+      <c r="BK298">
+        <v>1.91</v>
+      </c>
+      <c r="BL298">
+        <v>1.8</v>
+      </c>
+      <c r="BM298">
+        <v>2.34</v>
+      </c>
+      <c r="BN298">
+        <v>1.5</v>
+      </c>
+      <c r="BO298">
+        <v>3.14</v>
+      </c>
+      <c r="BP298">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -61876,13 +61876,13 @@
         <v>11</v>
       </c>
       <c r="BA293">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB293">
         <v>1</v>
       </c>
       <c r="BC293">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD293">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="396">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,9 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['37', '72']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -1560,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2025,7 +2028,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2518,7 +2521,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ5">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2643,7 +2646,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2927,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ7">
         <v>2.19</v>
@@ -3055,7 +3058,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3673,7 +3676,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3879,7 +3882,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4163,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ13">
         <v>0.9399999999999999</v>
@@ -4291,7 +4294,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4578,7 +4581,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5115,7 +5118,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5321,7 +5324,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5527,7 +5530,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5733,7 +5736,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -6223,7 +6226,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ23">
         <v>1.13</v>
@@ -6844,7 +6847,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR26">
         <v>0.6</v>
@@ -7381,7 +7384,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7793,7 +7796,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7874,7 +7877,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ31">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -8695,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -9235,7 +9238,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9441,7 +9444,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9853,7 +9856,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9931,10 +9934,10 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ41">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -10059,7 +10062,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10265,7 +10268,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10677,7 +10680,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10883,7 +10886,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -11089,7 +11092,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11295,7 +11298,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11373,7 +11376,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ48">
         <v>1.24</v>
@@ -11707,7 +11710,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -12119,7 +12122,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12200,7 +12203,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ52">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -12737,7 +12740,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12943,7 +12946,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13355,7 +13358,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13642,7 +13645,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ59">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR59">
         <v>2.26</v>
@@ -13845,7 +13848,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ60">
         <v>0.63</v>
@@ -14875,7 +14878,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ65">
         <v>1.12</v>
@@ -15702,7 +15705,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ69">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>2.1</v>
@@ -16033,7 +16036,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16239,7 +16242,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16651,7 +16654,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16732,7 +16735,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR74">
         <v>1.21</v>
@@ -16857,7 +16860,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17063,7 +17066,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17269,7 +17272,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17347,7 +17350,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ77">
         <v>2.24</v>
@@ -17887,7 +17890,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18093,7 +18096,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18299,7 +18302,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18505,7 +18508,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18583,10 +18586,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ83">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18711,7 +18714,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18917,7 +18920,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19123,7 +19126,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19535,7 +19538,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -20153,7 +20156,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20234,7 +20237,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ91">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR91">
         <v>1.03</v>
@@ -20359,7 +20362,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20849,7 +20852,7 @@
         <v>0.6</v>
       </c>
       <c r="AP94">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20977,7 +20980,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21595,7 +21598,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22213,7 +22216,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22291,7 +22294,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ101">
         <v>0.6899999999999999</v>
@@ -22625,7 +22628,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -23037,7 +23040,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23530,7 +23533,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ107">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23736,7 +23739,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ108">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>2.03</v>
@@ -24067,7 +24070,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24969,7 +24972,7 @@
         <v>1.8</v>
       </c>
       <c r="AP114">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ114">
         <v>1.71</v>
@@ -25796,7 +25799,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ118">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR118">
         <v>1.14</v>
@@ -26127,7 +26130,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26745,7 +26748,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26826,7 +26829,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.04</v>
@@ -26951,7 +26954,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27363,7 +27366,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27441,7 +27444,7 @@
         <v>1.14</v>
       </c>
       <c r="AP126">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ126">
         <v>1.38</v>
@@ -27569,7 +27572,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27981,7 +27984,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28059,7 +28062,7 @@
         <v>0.43</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ129">
         <v>0.9399999999999999</v>
@@ -28393,7 +28396,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28599,7 +28602,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -29011,7 +29014,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29710,7 +29713,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ137">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -30041,7 +30044,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30453,7 +30456,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30737,7 +30740,7 @@
         <v>0.38</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ142">
         <v>0.63</v>
@@ -30865,7 +30868,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -30946,7 +30949,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ143">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.64</v>
@@ -31277,7 +31280,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31355,7 +31358,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ145">
         <v>1.38</v>
@@ -31483,7 +31486,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31895,7 +31898,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -32101,7 +32104,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32719,7 +32722,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32925,7 +32928,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33543,7 +33546,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33749,7 +33752,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33827,7 +33830,7 @@
         <v>2.22</v>
       </c>
       <c r="AP157">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ157">
         <v>2.24</v>
@@ -33955,7 +33958,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34161,7 +34164,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34573,7 +34576,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34779,7 +34782,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34985,7 +34988,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35066,7 +35069,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ163">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR163">
         <v>1.32</v>
@@ -35397,7 +35400,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35681,7 +35684,7 @@
         <v>0.25</v>
       </c>
       <c r="AP166">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ166">
         <v>0.63</v>
@@ -36427,7 +36430,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36920,7 +36923,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ172">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR172">
         <v>1.24</v>
@@ -37045,7 +37048,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37332,7 +37335,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ174">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>1.43</v>
@@ -37457,7 +37460,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37663,7 +37666,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -38281,7 +38284,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38487,7 +38490,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38693,7 +38696,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38771,7 +38774,7 @@
         <v>1.44</v>
       </c>
       <c r="AP181">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ181">
         <v>1.71</v>
@@ -38899,7 +38902,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -39311,7 +39314,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39595,7 +39598,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ185">
         <v>1.38</v>
@@ -39723,7 +39726,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40216,7 +40219,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ188">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR188">
         <v>1.68</v>
@@ -40959,7 +40962,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41040,7 +41043,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ192">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.22</v>
@@ -41165,7 +41168,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41577,7 +41580,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41861,7 +41864,7 @@
         <v>0.5</v>
       </c>
       <c r="AP196">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ196">
         <v>0.71</v>
@@ -41989,7 +41992,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42401,7 +42404,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42894,7 +42897,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ201">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR201">
         <v>1.24</v>
@@ -43225,7 +43228,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43637,7 +43640,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43843,7 +43846,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -44127,7 +44130,7 @@
         <v>0.64</v>
       </c>
       <c r="AP207">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ207">
         <v>0.6899999999999999</v>
@@ -44255,7 +44258,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44667,7 +44670,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -44954,7 +44957,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ211">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR211">
         <v>1.51</v>
@@ -45697,7 +45700,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -45775,7 +45778,7 @@
         <v>2.36</v>
       </c>
       <c r="AP215">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ215">
         <v>2</v>
@@ -46109,7 +46112,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46190,7 +46193,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ217">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR217">
         <v>1.16</v>
@@ -46315,7 +46318,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46521,7 +46524,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -47139,7 +47142,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47345,7 +47348,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47551,7 +47554,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47835,7 +47838,7 @@
         <v>0.67</v>
       </c>
       <c r="AP225">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ225">
         <v>0.71</v>
@@ -47963,7 +47966,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48581,7 +48584,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48993,7 +48996,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49074,7 +49077,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ231">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR231">
         <v>1.44</v>
@@ -49199,7 +49202,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49277,7 +49280,7 @@
         <v>1.82</v>
       </c>
       <c r="AP232">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ232">
         <v>2.19</v>
@@ -49817,7 +49820,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -50023,7 +50026,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50229,7 +50232,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50435,7 +50438,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50925,7 +50928,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP240">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ240">
         <v>0.71</v>
@@ -51053,7 +51056,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51259,7 +51262,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51465,7 +51468,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51546,7 +51549,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ243">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR243">
         <v>1.27</v>
@@ -51671,7 +51674,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51877,7 +51880,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -52083,7 +52086,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52495,7 +52498,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52907,7 +52910,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -53194,7 +53197,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ251">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR251">
         <v>1.39</v>
@@ -53397,7 +53400,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP252">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ252">
         <v>1.13</v>
@@ -53525,7 +53528,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53937,7 +53940,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54221,7 +54224,7 @@
         <v>1.21</v>
       </c>
       <c r="AP256">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ256">
         <v>1.24</v>
@@ -54555,7 +54558,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -55173,7 +55176,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55379,7 +55382,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55585,7 +55588,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55791,7 +55794,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -55869,7 +55872,7 @@
         <v>1.43</v>
       </c>
       <c r="AP264">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ264">
         <v>1.38</v>
@@ -56490,7 +56493,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ267">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR267">
         <v>1.18</v>
@@ -56615,7 +56618,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56696,7 +56699,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ268">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR268">
         <v>1.49</v>
@@ -56821,7 +56824,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -57233,7 +57236,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57517,7 +57520,7 @@
         <v>2.2</v>
       </c>
       <c r="AP272">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ272">
         <v>2</v>
@@ -58881,7 +58884,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -59087,7 +59090,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59705,7 +59708,7 @@
         <v>262</v>
       </c>
       <c r="P283" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q283">
         <v>4.75</v>
@@ -60117,7 +60120,7 @@
         <v>223</v>
       </c>
       <c r="P285" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q285">
         <v>10</v>
@@ -60404,7 +60407,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ286">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR286">
         <v>1.29</v>
@@ -60529,7 +60532,7 @@
         <v>263</v>
       </c>
       <c r="P287" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q287">
         <v>1.44</v>
@@ -60610,7 +60613,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ287">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR287">
         <v>2.14</v>
@@ -60813,7 +60816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP288">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ288">
         <v>0.63</v>
@@ -60941,7 +60944,7 @@
         <v>215</v>
       </c>
       <c r="P289" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q289">
         <v>2.75</v>
@@ -61147,7 +61150,7 @@
         <v>265</v>
       </c>
       <c r="P290" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61971,7 +61974,7 @@
         <v>267</v>
       </c>
       <c r="P294" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q294">
         <v>6</v>
@@ -62177,7 +62180,7 @@
         <v>90</v>
       </c>
       <c r="P295" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q295">
         <v>2.6</v>
@@ -62383,7 +62386,7 @@
         <v>268</v>
       </c>
       <c r="P296" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q296">
         <v>3.1</v>
@@ -62589,7 +62592,7 @@
         <v>198</v>
       </c>
       <c r="P297" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q297">
         <v>2.1</v>
@@ -62795,7 +62798,7 @@
         <v>269</v>
       </c>
       <c r="P298" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q298">
         <v>7.5</v>
@@ -62952,6 +62955,418 @@
       </c>
       <c r="BP298">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7574864</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45793.625</v>
+      </c>
+      <c r="F299">
+        <v>34</v>
+      </c>
+      <c r="G299" t="s">
+        <v>75</v>
+      </c>
+      <c r="H299" t="s">
+        <v>72</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
+      <c r="L299">
+        <v>2</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="N299">
+        <v>3</v>
+      </c>
+      <c r="O299" t="s">
+        <v>270</v>
+      </c>
+      <c r="P299" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q299">
+        <v>2.4</v>
+      </c>
+      <c r="R299">
+        <v>2.25</v>
+      </c>
+      <c r="S299">
+        <v>4.5</v>
+      </c>
+      <c r="T299">
+        <v>1.36</v>
+      </c>
+      <c r="U299">
+        <v>3</v>
+      </c>
+      <c r="V299">
+        <v>2.75</v>
+      </c>
+      <c r="W299">
+        <v>1.4</v>
+      </c>
+      <c r="X299">
+        <v>7</v>
+      </c>
+      <c r="Y299">
+        <v>1.1</v>
+      </c>
+      <c r="Z299">
+        <v>1.97</v>
+      </c>
+      <c r="AA299">
+        <v>3.3</v>
+      </c>
+      <c r="AB299">
+        <v>3.85</v>
+      </c>
+      <c r="AC299">
+        <v>1.05</v>
+      </c>
+      <c r="AD299">
+        <v>9</v>
+      </c>
+      <c r="AE299">
+        <v>1.3</v>
+      </c>
+      <c r="AF299">
+        <v>3.45</v>
+      </c>
+      <c r="AG299">
+        <v>2</v>
+      </c>
+      <c r="AH299">
+        <v>1.75</v>
+      </c>
+      <c r="AI299">
+        <v>1.8</v>
+      </c>
+      <c r="AJ299">
+        <v>1.95</v>
+      </c>
+      <c r="AK299">
+        <v>1.22</v>
+      </c>
+      <c r="AL299">
+        <v>1.25</v>
+      </c>
+      <c r="AM299">
+        <v>1.91</v>
+      </c>
+      <c r="AN299">
+        <v>1.56</v>
+      </c>
+      <c r="AO299">
+        <v>1.06</v>
+      </c>
+      <c r="AP299">
+        <v>1.65</v>
+      </c>
+      <c r="AQ299">
+        <v>1</v>
+      </c>
+      <c r="AR299">
+        <v>1.27</v>
+      </c>
+      <c r="AS299">
+        <v>1.07</v>
+      </c>
+      <c r="AT299">
+        <v>2.34</v>
+      </c>
+      <c r="AU299">
+        <v>4</v>
+      </c>
+      <c r="AV299">
+        <v>2</v>
+      </c>
+      <c r="AW299">
+        <v>14</v>
+      </c>
+      <c r="AX299">
+        <v>2</v>
+      </c>
+      <c r="AY299">
+        <v>24</v>
+      </c>
+      <c r="AZ299">
+        <v>4</v>
+      </c>
+      <c r="BA299">
+        <v>13</v>
+      </c>
+      <c r="BB299">
+        <v>4</v>
+      </c>
+      <c r="BC299">
+        <v>17</v>
+      </c>
+      <c r="BD299">
+        <v>1.57</v>
+      </c>
+      <c r="BE299">
+        <v>6.75</v>
+      </c>
+      <c r="BF299">
+        <v>2.65</v>
+      </c>
+      <c r="BG299">
+        <v>1.3</v>
+      </c>
+      <c r="BH299">
+        <v>3.05</v>
+      </c>
+      <c r="BI299">
+        <v>1.53</v>
+      </c>
+      <c r="BJ299">
+        <v>2.28</v>
+      </c>
+      <c r="BK299">
+        <v>1.85</v>
+      </c>
+      <c r="BL299">
+        <v>1.81</v>
+      </c>
+      <c r="BM299">
+        <v>2.32</v>
+      </c>
+      <c r="BN299">
+        <v>1.52</v>
+      </c>
+      <c r="BO299">
+        <v>3.05</v>
+      </c>
+      <c r="BP299">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7574867</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45793.625</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>81</v>
+      </c>
+      <c r="H300" t="s">
+        <v>80</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>2</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>187</v>
+      </c>
+      <c r="P300" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q300">
+        <v>3.1</v>
+      </c>
+      <c r="R300">
+        <v>2.2</v>
+      </c>
+      <c r="S300">
+        <v>3.25</v>
+      </c>
+      <c r="T300">
+        <v>1.36</v>
+      </c>
+      <c r="U300">
+        <v>3</v>
+      </c>
+      <c r="V300">
+        <v>2.75</v>
+      </c>
+      <c r="W300">
+        <v>1.4</v>
+      </c>
+      <c r="X300">
+        <v>7</v>
+      </c>
+      <c r="Y300">
+        <v>1.1</v>
+      </c>
+      <c r="Z300">
+        <v>2.55</v>
+      </c>
+      <c r="AA300">
+        <v>3.15</v>
+      </c>
+      <c r="AB300">
+        <v>2.8</v>
+      </c>
+      <c r="AC300">
+        <v>1.06</v>
+      </c>
+      <c r="AD300">
+        <v>8.5</v>
+      </c>
+      <c r="AE300">
+        <v>1.3</v>
+      </c>
+      <c r="AF300">
+        <v>3.35</v>
+      </c>
+      <c r="AG300">
+        <v>1.95</v>
+      </c>
+      <c r="AH300">
+        <v>1.75</v>
+      </c>
+      <c r="AI300">
+        <v>1.7</v>
+      </c>
+      <c r="AJ300">
+        <v>2.05</v>
+      </c>
+      <c r="AK300">
+        <v>1.42</v>
+      </c>
+      <c r="AL300">
+        <v>1.28</v>
+      </c>
+      <c r="AM300">
+        <v>1.5</v>
+      </c>
+      <c r="AN300">
+        <v>1.56</v>
+      </c>
+      <c r="AO300">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP300">
+        <v>1.53</v>
+      </c>
+      <c r="AQ300">
+        <v>0.82</v>
+      </c>
+      <c r="AR300">
+        <v>1.39</v>
+      </c>
+      <c r="AS300">
+        <v>0.98</v>
+      </c>
+      <c r="AT300">
+        <v>2.37</v>
+      </c>
+      <c r="AU300">
+        <v>3</v>
+      </c>
+      <c r="AV300">
+        <v>4</v>
+      </c>
+      <c r="AW300">
+        <v>4</v>
+      </c>
+      <c r="AX300">
+        <v>8</v>
+      </c>
+      <c r="AY300">
+        <v>9</v>
+      </c>
+      <c r="AZ300">
+        <v>16</v>
+      </c>
+      <c r="BA300">
+        <v>6</v>
+      </c>
+      <c r="BB300">
+        <v>7</v>
+      </c>
+      <c r="BC300">
+        <v>13</v>
+      </c>
+      <c r="BD300">
+        <v>1.94</v>
+      </c>
+      <c r="BE300">
+        <v>6.5</v>
+      </c>
+      <c r="BF300">
+        <v>2.05</v>
+      </c>
+      <c r="BG300">
+        <v>1.3</v>
+      </c>
+      <c r="BH300">
+        <v>3.1</v>
+      </c>
+      <c r="BI300">
+        <v>1.52</v>
+      </c>
+      <c r="BJ300">
+        <v>2.32</v>
+      </c>
+      <c r="BK300">
+        <v>1.84</v>
+      </c>
+      <c r="BL300">
+        <v>1.82</v>
+      </c>
+      <c r="BM300">
+        <v>2.32</v>
+      </c>
+      <c r="BN300">
+        <v>1.52</v>
+      </c>
+      <c r="BO300">
+        <v>3</v>
+      </c>
+      <c r="BP300">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="404">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,24 @@
     <t>['37', '72']</t>
   </si>
   <si>
+    <t>['1', '69', '83']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['55', '82']</t>
+  </si>
+  <si>
+    <t>['7', '17', '25', '90+4']</t>
+  </si>
+  <si>
+    <t>['6', '8', '20', '23']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -908,9 +926,6 @@
   </si>
   <si>
     <t>['28']</t>
-  </si>
-  <si>
-    <t>['24']</t>
   </si>
   <si>
     <t>['20', '90+2']</t>
@@ -1202,6 +1217,15 @@
   </si>
   <si>
     <t>['20', '25']</t>
+  </si>
+  <si>
+    <t>['17', '25', '50']</t>
+  </si>
+  <si>
+    <t>['42', '48']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP300"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1900,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ2">
         <v>0.71</v>
@@ -2028,7 +2052,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2106,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ3">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2315,7 +2339,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2518,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ5">
         <v>0.82</v>
@@ -2646,7 +2670,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2724,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2933,7 +2957,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ7">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3058,7 +3082,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q8">
         <v>3.5</v>
@@ -3136,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ8">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3342,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3548,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3676,7 +3700,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3882,7 +3906,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4294,7 +4318,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -5118,7 +5142,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5324,7 +5348,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5530,7 +5554,7 @@
         <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q20">
         <v>9.6</v>
@@ -5608,7 +5632,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ20">
         <v>2.24</v>
@@ -5736,7 +5760,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q21">
         <v>3.2</v>
@@ -5817,7 +5841,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ21">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR21">
         <v>1.57</v>
@@ -6020,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ22">
         <v>0.71</v>
@@ -6229,7 +6253,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
         <v>1.27</v>
@@ -6435,7 +6459,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ24">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR24">
         <v>2.62</v>
@@ -6638,10 +6662,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ25">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR25">
         <v>0.7</v>
@@ -6844,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ26">
         <v>0.82</v>
@@ -7050,10 +7074,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>1.62</v>
@@ -7256,10 +7280,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR28">
         <v>1.72</v>
@@ -7384,7 +7408,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7465,7 +7489,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ29">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR29">
         <v>1.3</v>
@@ -7796,7 +7820,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8286,7 +8310,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ33">
         <v>1.71</v>
@@ -9238,7 +9262,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q38">
         <v>8.5</v>
@@ -9316,7 +9340,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ38">
         <v>2.24</v>
@@ -9444,7 +9468,7 @@
         <v>112</v>
       </c>
       <c r="P39" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q39">
         <v>3.5</v>
@@ -9525,7 +9549,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ39">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR39">
         <v>1.27</v>
@@ -9728,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40">
         <v>0.71</v>
@@ -9856,7 +9880,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -10062,7 +10086,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q42">
         <v>1.67</v>
@@ -10143,7 +10167,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ42">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR42">
         <v>2.4</v>
@@ -10268,7 +10292,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q43">
         <v>1.5</v>
@@ -10346,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ43">
         <v>0.9399999999999999</v>
@@ -10552,10 +10576,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR44">
         <v>0.8100000000000001</v>
@@ -10680,7 +10704,7 @@
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10758,10 +10782,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
         <v>1.78</v>
@@ -10886,7 +10910,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q46">
         <v>2.63</v>
@@ -10967,7 +10991,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR46">
         <v>1.1</v>
@@ -11092,7 +11116,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -11298,7 +11322,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q48">
         <v>2.65</v>
@@ -11585,7 +11609,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ49">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11710,7 +11734,7 @@
         <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q50">
         <v>4.5</v>
@@ -12122,7 +12146,7 @@
         <v>110</v>
       </c>
       <c r="P52" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12406,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12612,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ54">
         <v>0.71</v>
@@ -12740,7 +12764,7 @@
         <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12821,7 +12845,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ55">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR55">
         <v>1.28</v>
@@ -12946,7 +12970,7 @@
         <v>90</v>
       </c>
       <c r="P56" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -13024,7 +13048,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ56">
         <v>2.24</v>
@@ -13233,7 +13257,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ57">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13358,7 +13382,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13439,7 +13463,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ58">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>1.27</v>
@@ -13851,7 +13875,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ60">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR60">
         <v>1.14</v>
@@ -14054,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -14260,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>0.71</v>
@@ -14469,7 +14493,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR63">
         <v>1.11</v>
@@ -14672,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ64">
         <v>0.9399999999999999</v>
@@ -15087,7 +15111,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ66">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR66">
         <v>1.45</v>
@@ -15293,7 +15317,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -15496,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ68">
         <v>0.71</v>
@@ -15702,7 +15726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15908,7 +15932,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ70">
         <v>1.24</v>
@@ -16036,7 +16060,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -16117,7 +16141,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR71">
         <v>1.19</v>
@@ -16242,7 +16266,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16320,7 +16344,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ72">
         <v>2</v>
@@ -16529,7 +16553,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ73">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR73">
         <v>1.21</v>
@@ -16654,7 +16678,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q74">
         <v>2.88</v>
@@ -16860,7 +16884,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16938,7 +16962,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17066,7 +17090,7 @@
         <v>90</v>
       </c>
       <c r="P76" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17147,7 +17171,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ76">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR76">
         <v>1.15</v>
@@ -17272,7 +17296,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -17556,7 +17580,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>0.9399999999999999</v>
@@ -17890,7 +17914,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17971,7 +17995,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR80">
         <v>1.2</v>
@@ -18096,7 +18120,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q81">
         <v>8.5</v>
@@ -18174,7 +18198,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ81">
         <v>1.71</v>
@@ -18302,7 +18326,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>1.33</v>
@@ -18380,10 +18404,10 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ82">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR82">
         <v>2.06</v>
@@ -18508,7 +18532,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q83">
         <v>2.88</v>
@@ -18714,7 +18738,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q84">
         <v>9</v>
@@ -18792,10 +18816,10 @@
         <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ84">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR84">
         <v>1.17</v>
@@ -18920,7 +18944,7 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -19001,7 +19025,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR85">
         <v>1.21</v>
@@ -19126,7 +19150,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q86">
         <v>3.92</v>
@@ -19204,7 +19228,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ86">
         <v>1.12</v>
@@ -19413,7 +19437,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ87">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR87">
         <v>1.16</v>
@@ -19538,7 +19562,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q88">
         <v>4.5</v>
@@ -19616,7 +19640,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ88">
         <v>2</v>
@@ -19822,7 +19846,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ89">
         <v>1.24</v>
@@ -20031,7 +20055,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR90">
         <v>1.22</v>
@@ -20156,7 +20180,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q91">
         <v>2.86</v>
@@ -20362,7 +20386,7 @@
         <v>97</v>
       </c>
       <c r="P92" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20646,7 +20670,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ93">
         <v>0.71</v>
@@ -20980,7 +21004,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>3.35</v>
@@ -21267,7 +21291,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ96">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR96">
         <v>1.15</v>
@@ -21473,7 +21497,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -21598,7 +21622,7 @@
         <v>150</v>
       </c>
       <c r="P98" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21676,7 +21700,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ98">
         <v>2.24</v>
@@ -22088,10 +22112,10 @@
         <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ100">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR100">
         <v>1.15</v>
@@ -22216,7 +22240,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q101">
         <v>3.6</v>
@@ -22297,7 +22321,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22503,7 +22527,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ102">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR102">
         <v>1.15</v>
@@ -22628,7 +22652,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q103">
         <v>1.57</v>
@@ -22706,10 +22730,10 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ103">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
         <v>2.02</v>
@@ -22912,7 +22936,7 @@
         <v>1.6</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ104">
         <v>1.12</v>
@@ -23040,7 +23064,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -23118,10 +23142,10 @@
         <v>1.75</v>
       </c>
       <c r="AP105">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ105">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR105">
         <v>0.97</v>
@@ -23324,7 +23348,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ106">
         <v>2</v>
@@ -23736,7 +23760,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -24070,7 +24094,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q110">
         <v>1.7</v>
@@ -24148,7 +24172,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ110">
         <v>1.24</v>
@@ -24357,7 +24381,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR111">
         <v>1.27</v>
@@ -24563,7 +24587,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ112">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
         <v>2.24</v>
@@ -25796,7 +25820,7 @@
         <v>0.29</v>
       </c>
       <c r="AP118">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ118">
         <v>0.82</v>
@@ -26005,7 +26029,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ119">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26130,7 +26154,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q120">
         <v>1.36</v>
@@ -26208,10 +26232,10 @@
         <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR120">
         <v>2.02</v>
@@ -26414,10 +26438,10 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ121">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR121">
         <v>1.05</v>
@@ -26620,10 +26644,10 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ122">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR122">
         <v>1.11</v>
@@ -26748,7 +26772,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q123">
         <v>3.3</v>
@@ -26826,7 +26850,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26954,7 +26978,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q124">
         <v>2.05</v>
@@ -27032,7 +27056,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
         <v>1.12</v>
@@ -27238,10 +27262,10 @@
         <v>0.17</v>
       </c>
       <c r="AP125">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ125">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR125">
         <v>2.03</v>
@@ -27366,7 +27390,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27447,7 +27471,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR126">
         <v>1.4</v>
@@ -27572,7 +27596,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -27653,7 +27677,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ127">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR127">
         <v>1.37</v>
@@ -27984,7 +28008,7 @@
         <v>149</v>
       </c>
       <c r="P129" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28396,7 +28420,7 @@
         <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q131">
         <v>7.08</v>
@@ -28602,7 +28626,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q132">
         <v>3.7</v>
@@ -29014,7 +29038,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -29095,7 +29119,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29710,7 +29734,7 @@
         <v>0.63</v>
       </c>
       <c r="AP137">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ137">
         <v>0.82</v>
@@ -29916,10 +29940,10 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -30044,7 +30068,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q139">
         <v>3.85</v>
@@ -30122,10 +30146,10 @@
         <v>0.75</v>
       </c>
       <c r="AP139">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR139">
         <v>1.09</v>
@@ -30328,10 +30352,10 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ140">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR140">
         <v>1.98</v>
@@ -30456,7 +30480,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q141">
         <v>4.75</v>
@@ -30534,10 +30558,10 @@
         <v>1.13</v>
       </c>
       <c r="AP141">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ141">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR141">
         <v>1.17</v>
@@ -30743,7 +30767,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ142">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR142">
         <v>1.33</v>
@@ -30868,7 +30892,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q143">
         <v>1.85</v>
@@ -30946,7 +30970,7 @@
         <v>1.14</v>
       </c>
       <c r="AP143">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -31152,10 +31176,10 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ144">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR144">
         <v>2.11</v>
@@ -31280,7 +31304,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q145">
         <v>3.6</v>
@@ -31361,7 +31385,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ145">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR145">
         <v>1.04</v>
@@ -31486,7 +31510,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q146">
         <v>4.75</v>
@@ -31898,7 +31922,7 @@
         <v>183</v>
       </c>
       <c r="P148" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q148">
         <v>1.91</v>
@@ -32104,7 +32128,7 @@
         <v>184</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32722,7 +32746,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q152">
         <v>3.1</v>
@@ -32928,7 +32952,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q153">
         <v>2.88</v>
@@ -33546,7 +33570,7 @@
         <v>190</v>
       </c>
       <c r="P156" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33752,7 +33776,7 @@
         <v>90</v>
       </c>
       <c r="P157" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q157">
         <v>8.5</v>
@@ -33958,7 +33982,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q158">
         <v>2.2</v>
@@ -34164,7 +34188,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34576,7 +34600,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -34782,7 +34806,7 @@
         <v>193</v>
       </c>
       <c r="P162" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -34988,7 +35012,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -35272,10 +35296,10 @@
         <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ164">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR164">
         <v>1.09</v>
@@ -35400,7 +35424,7 @@
         <v>195</v>
       </c>
       <c r="P165" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q165">
         <v>3.2</v>
@@ -35478,7 +35502,7 @@
         <v>0.44</v>
       </c>
       <c r="AP165">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ165">
         <v>0.71</v>
@@ -35687,7 +35711,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ166">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR166">
         <v>1.12</v>
@@ -35893,7 +35917,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ167">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR167">
         <v>1.21</v>
@@ -36096,10 +36120,10 @@
         <v>0.33</v>
       </c>
       <c r="AP168">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ168">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR168">
         <v>2.03</v>
@@ -36302,10 +36326,10 @@
         <v>1.11</v>
       </c>
       <c r="AP169">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR169">
         <v>1.15</v>
@@ -36430,7 +36454,7 @@
         <v>199</v>
       </c>
       <c r="P170" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q170">
         <v>1.91</v>
@@ -36508,10 +36532,10 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ170">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR170">
         <v>1.95</v>
@@ -36714,10 +36738,10 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR171">
         <v>1.66</v>
@@ -36920,7 +36944,7 @@
         <v>0.67</v>
       </c>
       <c r="AP172">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ172">
         <v>0.82</v>
@@ -37048,7 +37072,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q173">
         <v>4.2</v>
@@ -37460,7 +37484,7 @@
         <v>202</v>
       </c>
       <c r="P175" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37666,7 +37690,7 @@
         <v>141</v>
       </c>
       <c r="P176" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q176">
         <v>2.88</v>
@@ -38156,7 +38180,7 @@
         <v>0.8</v>
       </c>
       <c r="AP178">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ178">
         <v>0.9399999999999999</v>
@@ -38284,7 +38308,7 @@
         <v>205</v>
       </c>
       <c r="P179" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q179">
         <v>8.5</v>
@@ -38365,7 +38389,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ179">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR179">
         <v>1.18</v>
@@ -38490,7 +38514,7 @@
         <v>206</v>
       </c>
       <c r="P180" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q180">
         <v>4.75</v>
@@ -38696,7 +38720,7 @@
         <v>207</v>
       </c>
       <c r="P181" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q181">
         <v>6.5</v>
@@ -38902,7 +38926,7 @@
         <v>167</v>
       </c>
       <c r="P182" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q182">
         <v>3.25</v>
@@ -38980,7 +39004,7 @@
         <v>2.3</v>
       </c>
       <c r="AP182">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ182">
         <v>2.24</v>
@@ -39186,10 +39210,10 @@
         <v>1.44</v>
       </c>
       <c r="AP183">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ183">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR183">
         <v>1.2</v>
@@ -39314,7 +39338,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q184">
         <v>1.57</v>
@@ -39395,7 +39419,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ184">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR184">
         <v>2.05</v>
@@ -39601,7 +39625,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ185">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR185">
         <v>1.11</v>
@@ -39726,7 +39750,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39804,10 +39828,10 @@
         <v>0.9</v>
       </c>
       <c r="AP186">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ186">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR186">
         <v>1.19</v>
@@ -40010,10 +40034,10 @@
         <v>0.3</v>
       </c>
       <c r="AP187">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ187">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR187">
         <v>1.2</v>
@@ -40216,7 +40240,7 @@
         <v>0.6</v>
       </c>
       <c r="AP188">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ188">
         <v>0.82</v>
@@ -40425,7 +40449,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ189">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR189">
         <v>1.19</v>
@@ -40628,7 +40652,7 @@
         <v>0.7</v>
       </c>
       <c r="AP190">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ190">
         <v>0.71</v>
@@ -40837,7 +40861,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ191">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR191">
         <v>1.28</v>
@@ -40962,7 +40986,7 @@
         <v>212</v>
       </c>
       <c r="P192" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q192">
         <v>2.95</v>
@@ -41168,7 +41192,7 @@
         <v>213</v>
       </c>
       <c r="P193" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q193">
         <v>2.8</v>
@@ -41455,7 +41479,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ194">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR194">
         <v>1.46</v>
@@ -41580,7 +41604,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -41658,7 +41682,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ195">
         <v>1</v>
@@ -41992,7 +42016,7 @@
         <v>90</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>7.5</v>
@@ -42070,7 +42094,7 @@
         <v>1.4</v>
       </c>
       <c r="AP197">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ197">
         <v>1.71</v>
@@ -42404,7 +42428,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -42688,10 +42712,10 @@
         <v>0.55</v>
       </c>
       <c r="AP200">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ200">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR200">
         <v>1.68</v>
@@ -43103,7 +43127,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ202">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
         <v>2.01</v>
@@ -43228,7 +43252,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q203">
         <v>2.55</v>
@@ -43306,7 +43330,7 @@
         <v>0.73</v>
       </c>
       <c r="AP203">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ203">
         <v>0.71</v>
@@ -43515,7 +43539,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ204">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR204">
         <v>1.15</v>
@@ -43640,7 +43664,7 @@
         <v>219</v>
       </c>
       <c r="P205" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q205">
         <v>2.45</v>
@@ -43718,7 +43742,7 @@
         <v>0.73</v>
       </c>
       <c r="AP205">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ205">
         <v>0.9399999999999999</v>
@@ -43846,7 +43870,7 @@
         <v>220</v>
       </c>
       <c r="P206" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -43924,7 +43948,7 @@
         <v>2.18</v>
       </c>
       <c r="AP206">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ206">
         <v>2.24</v>
@@ -44133,7 +44157,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ207">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR207">
         <v>1.11</v>
@@ -44258,7 +44282,7 @@
         <v>166</v>
       </c>
       <c r="P208" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q208">
         <v>2.3</v>
@@ -44336,10 +44360,10 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ208">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR208">
         <v>2.01</v>
@@ -44670,7 +44694,7 @@
         <v>90</v>
       </c>
       <c r="P210" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q210">
         <v>5.5</v>
@@ -44748,7 +44772,7 @@
         <v>1.55</v>
       </c>
       <c r="AP210">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ210">
         <v>1.71</v>
@@ -45163,7 +45187,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ212">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR212">
         <v>1.24</v>
@@ -45369,7 +45393,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ213">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR213">
         <v>1.28</v>
@@ -45572,7 +45596,7 @@
         <v>0.55</v>
       </c>
       <c r="AP214">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ214">
         <v>0.71</v>
@@ -45700,7 +45724,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q215">
         <v>4.33</v>
@@ -45984,7 +46008,7 @@
         <v>1.18</v>
       </c>
       <c r="AP216">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ216">
         <v>1.24</v>
@@ -46112,7 +46136,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q217">
         <v>3.3</v>
@@ -46318,7 +46342,7 @@
         <v>90</v>
       </c>
       <c r="P218" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46396,7 +46420,7 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ218">
         <v>1</v>
@@ -46524,7 +46548,7 @@
         <v>227</v>
       </c>
       <c r="P219" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q219">
         <v>2.88</v>
@@ -46602,7 +46626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP219">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ219">
         <v>0.9399999999999999</v>
@@ -46811,7 +46835,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ220">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR220">
         <v>2.13</v>
@@ -47014,7 +47038,7 @@
         <v>1.67</v>
       </c>
       <c r="AP221">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ221">
         <v>1.71</v>
@@ -47142,7 +47166,7 @@
         <v>226</v>
       </c>
       <c r="P222" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47223,7 +47247,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ222">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR222">
         <v>1.43</v>
@@ -47348,7 +47372,7 @@
         <v>230</v>
       </c>
       <c r="P223" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q223">
         <v>6</v>
@@ -47554,7 +47578,7 @@
         <v>179</v>
       </c>
       <c r="P224" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q224">
         <v>6.25</v>
@@ -47635,7 +47659,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ224">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR224">
         <v>1.29</v>
@@ -47966,7 +47990,7 @@
         <v>90</v>
       </c>
       <c r="P226" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -48044,7 +48068,7 @@
         <v>2.17</v>
       </c>
       <c r="AP226">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ226">
         <v>2</v>
@@ -48253,7 +48277,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ227">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR227">
         <v>1.27</v>
@@ -48456,7 +48480,7 @@
         <v>0.75</v>
       </c>
       <c r="AP228">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ228">
         <v>0.71</v>
@@ -48584,7 +48608,7 @@
         <v>232</v>
       </c>
       <c r="P229" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q229">
         <v>1.8</v>
@@ -48662,7 +48686,7 @@
         <v>1.33</v>
       </c>
       <c r="AP229">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ229">
         <v>1.12</v>
@@ -48868,7 +48892,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ230">
         <v>1.24</v>
@@ -48996,7 +49020,7 @@
         <v>234</v>
       </c>
       <c r="P231" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q231">
         <v>3.2</v>
@@ -49202,7 +49226,7 @@
         <v>235</v>
       </c>
       <c r="P232" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -49283,7 +49307,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ232">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR232">
         <v>1.33</v>
@@ -49489,7 +49513,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ233">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR233">
         <v>1.25</v>
@@ -49695,7 +49719,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ234">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR234">
         <v>1.56</v>
@@ -49820,7 +49844,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q235">
         <v>7.5</v>
@@ -49901,7 +49925,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ235">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR235">
         <v>1.26</v>
@@ -50026,7 +50050,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50232,7 +50256,7 @@
         <v>90</v>
       </c>
       <c r="P237" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q237">
         <v>8</v>
@@ -50438,7 +50462,7 @@
         <v>239</v>
       </c>
       <c r="P238" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q238">
         <v>2.3</v>
@@ -50516,7 +50540,7 @@
         <v>1.15</v>
       </c>
       <c r="AP238">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ238">
         <v>1</v>
@@ -50725,7 +50749,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ239">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR239">
         <v>1.43</v>
@@ -51056,7 +51080,7 @@
         <v>141</v>
       </c>
       <c r="P241" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q241">
         <v>6.5</v>
@@ -51134,7 +51158,7 @@
         <v>1.54</v>
       </c>
       <c r="AP241">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ241">
         <v>1.71</v>
@@ -51262,7 +51286,7 @@
         <v>242</v>
       </c>
       <c r="P242" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q242">
         <v>4.33</v>
@@ -51343,7 +51367,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ242">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR242">
         <v>1.3</v>
@@ -51468,7 +51492,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q243">
         <v>4</v>
@@ -51674,7 +51698,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q244">
         <v>1.57</v>
@@ -51880,7 +51904,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q245">
         <v>3.5</v>
@@ -51958,7 +51982,7 @@
         <v>1.08</v>
       </c>
       <c r="AP245">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ245">
         <v>1.24</v>
@@ -52086,7 +52110,7 @@
         <v>184</v>
       </c>
       <c r="P246" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q246">
         <v>3.2</v>
@@ -52164,7 +52188,7 @@
         <v>1.23</v>
       </c>
       <c r="AP246">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ246">
         <v>1.12</v>
@@ -52373,7 +52397,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ247">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR247">
         <v>1.56</v>
@@ -52498,7 +52522,7 @@
         <v>90</v>
       </c>
       <c r="P248" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q248">
         <v>3.4</v>
@@ -52579,7 +52603,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ248">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR248">
         <v>1.24</v>
@@ -52785,7 +52809,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ249">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR249">
         <v>1.45</v>
@@ -52910,7 +52934,7 @@
         <v>119</v>
       </c>
       <c r="P250" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q250">
         <v>3.4</v>
@@ -52988,10 +53012,10 @@
         <v>2</v>
       </c>
       <c r="AP250">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ250">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR250">
         <v>2.02</v>
@@ -53194,7 +53218,7 @@
         <v>1.08</v>
       </c>
       <c r="AP251">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ251">
         <v>1</v>
@@ -53403,7 +53427,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ252">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR252">
         <v>1.3</v>
@@ -53528,7 +53552,7 @@
         <v>141</v>
       </c>
       <c r="P253" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q253">
         <v>2.1</v>
@@ -53606,7 +53630,7 @@
         <v>2.23</v>
       </c>
       <c r="AP253">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ253">
         <v>2</v>
@@ -53815,7 +53839,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ254">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR254">
         <v>1.25</v>
@@ -53940,7 +53964,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q255">
         <v>3.5</v>
@@ -54021,7 +54045,7 @@
         <v>0.35</v>
       </c>
       <c r="AQ255">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR255">
         <v>1.25</v>
@@ -54558,7 +54582,7 @@
         <v>90</v>
       </c>
       <c r="P258" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q258">
         <v>6</v>
@@ -55048,7 +55072,7 @@
         <v>0.64</v>
       </c>
       <c r="AP260">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ260">
         <v>0.71</v>
@@ -55176,7 +55200,7 @@
         <v>248</v>
       </c>
       <c r="P261" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q261">
         <v>1.5</v>
@@ -55382,7 +55406,7 @@
         <v>90</v>
       </c>
       <c r="P262" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q262">
         <v>2.75</v>
@@ -55588,7 +55612,7 @@
         <v>90</v>
       </c>
       <c r="P263" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q263">
         <v>2.5</v>
@@ -55666,10 +55690,10 @@
         <v>0.86</v>
       </c>
       <c r="AP263">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ263">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR263">
         <v>1.42</v>
@@ -55794,7 +55818,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q264">
         <v>4</v>
@@ -55875,7 +55899,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ264">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR264">
         <v>1.34</v>
@@ -56078,7 +56102,7 @@
         <v>1.36</v>
       </c>
       <c r="AP265">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ265">
         <v>1.12</v>
@@ -56284,10 +56308,10 @@
         <v>0.79</v>
       </c>
       <c r="AP266">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ266">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR266">
         <v>2.12</v>
@@ -56490,7 +56514,7 @@
         <v>1.07</v>
       </c>
       <c r="AP267">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ267">
         <v>1</v>
@@ -56618,7 +56642,7 @@
         <v>90</v>
       </c>
       <c r="P268" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q268">
         <v>3.1</v>
@@ -56824,7 +56848,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q269">
         <v>4.75</v>
@@ -56902,7 +56926,7 @@
         <v>2.14</v>
       </c>
       <c r="AP269">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ269">
         <v>2</v>
@@ -57108,10 +57132,10 @@
         <v>0.71</v>
       </c>
       <c r="AP270">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ270">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR270">
         <v>1.23</v>
@@ -57236,7 +57260,7 @@
         <v>90</v>
       </c>
       <c r="P271" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q271">
         <v>5.5</v>
@@ -57317,7 +57341,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ271">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR271">
         <v>1.54</v>
@@ -58347,7 +58371,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ276">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR276">
         <v>1.27</v>
@@ -58884,7 +58908,7 @@
         <v>90</v>
       </c>
       <c r="P279" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -59090,7 +59114,7 @@
         <v>110</v>
       </c>
       <c r="P280" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59374,10 +59398,10 @@
         <v>0.73</v>
       </c>
       <c r="AP281">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ281">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR281">
         <v>1.93</v>
@@ -59580,7 +59604,7 @@
         <v>1.27</v>
       </c>
       <c r="AP282">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ282">
         <v>1.12</v>
@@ -59708,7 +59732,7 @@
         <v>262</v>
       </c>
       <c r="P283" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q283">
         <v>4.75</v>
@@ -59789,7 +59813,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ283">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR283">
         <v>1.55</v>
@@ -59992,10 +60016,10 @@
         <v>1.4</v>
       </c>
       <c r="AP284">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ284">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR284">
         <v>1.69</v>
@@ -60120,7 +60144,7 @@
         <v>223</v>
       </c>
       <c r="P285" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q285">
         <v>10</v>
@@ -60198,10 +60222,10 @@
         <v>2.13</v>
       </c>
       <c r="AP285">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ285">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR285">
         <v>1.2</v>
@@ -60404,7 +60428,7 @@
         <v>1.07</v>
       </c>
       <c r="AP286">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ286">
         <v>1</v>
@@ -60532,7 +60556,7 @@
         <v>263</v>
       </c>
       <c r="P287" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q287">
         <v>1.44</v>
@@ -60610,7 +60634,7 @@
         <v>0.87</v>
       </c>
       <c r="AP287">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ287">
         <v>0.82</v>
@@ -60819,7 +60843,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ288">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR288">
         <v>1.33</v>
@@ -60944,7 +60968,7 @@
         <v>215</v>
       </c>
       <c r="P289" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q289">
         <v>2.75</v>
@@ -61022,10 +61046,10 @@
         <v>1</v>
       </c>
       <c r="AP289">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ289">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR289">
         <v>1.2</v>
@@ -61150,7 +61174,7 @@
         <v>265</v>
       </c>
       <c r="P290" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q290">
         <v>2.6</v>
@@ -61974,7 +61998,7 @@
         <v>267</v>
       </c>
       <c r="P294" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q294">
         <v>6</v>
@@ -62180,7 +62204,7 @@
         <v>90</v>
       </c>
       <c r="P295" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q295">
         <v>2.6</v>
@@ -62386,7 +62410,7 @@
         <v>268</v>
       </c>
       <c r="P296" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q296">
         <v>3.1</v>
@@ -62592,7 +62616,7 @@
         <v>198</v>
       </c>
       <c r="P297" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q297">
         <v>2.1</v>
@@ -62798,7 +62822,7 @@
         <v>269</v>
       </c>
       <c r="P298" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q298">
         <v>7.5</v>
@@ -63004,7 +63028,7 @@
         <v>270</v>
       </c>
       <c r="P299" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q299">
         <v>2.4</v>
@@ -63210,7 +63234,7 @@
         <v>187</v>
       </c>
       <c r="P300" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q300">
         <v>3.1</v>
@@ -63367,6 +63391,1448 @@
       </c>
       <c r="BP300">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7574862</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F301">
+        <v>34</v>
+      </c>
+      <c r="G301" t="s">
+        <v>71</v>
+      </c>
+      <c r="H301" t="s">
+        <v>84</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>2</v>
+      </c>
+      <c r="K301">
+        <v>2</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>3</v>
+      </c>
+      <c r="N301">
+        <v>3</v>
+      </c>
+      <c r="O301" t="s">
+        <v>90</v>
+      </c>
+      <c r="P301" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q301">
+        <v>2.5</v>
+      </c>
+      <c r="R301">
+        <v>2.2</v>
+      </c>
+      <c r="S301">
+        <v>4.75</v>
+      </c>
+      <c r="T301">
+        <v>1.4</v>
+      </c>
+      <c r="U301">
+        <v>2.75</v>
+      </c>
+      <c r="V301">
+        <v>3</v>
+      </c>
+      <c r="W301">
+        <v>1.36</v>
+      </c>
+      <c r="X301">
+        <v>8</v>
+      </c>
+      <c r="Y301">
+        <v>1.08</v>
+      </c>
+      <c r="Z301">
+        <v>2.55</v>
+      </c>
+      <c r="AA301">
+        <v>3.35</v>
+      </c>
+      <c r="AB301">
+        <v>2.6</v>
+      </c>
+      <c r="AC301">
+        <v>1.05</v>
+      </c>
+      <c r="AD301">
+        <v>9.5</v>
+      </c>
+      <c r="AE301">
+        <v>1.3</v>
+      </c>
+      <c r="AF301">
+        <v>3.35</v>
+      </c>
+      <c r="AG301">
+        <v>2.15</v>
+      </c>
+      <c r="AH301">
+        <v>1.65</v>
+      </c>
+      <c r="AI301">
+        <v>1.91</v>
+      </c>
+      <c r="AJ301">
+        <v>1.91</v>
+      </c>
+      <c r="AK301">
+        <v>1.25</v>
+      </c>
+      <c r="AL301">
+        <v>1.22</v>
+      </c>
+      <c r="AM301">
+        <v>1.85</v>
+      </c>
+      <c r="AN301">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO301">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP301">
+        <v>0.88</v>
+      </c>
+      <c r="AQ301">
+        <v>0.82</v>
+      </c>
+      <c r="AR301">
+        <v>1.23</v>
+      </c>
+      <c r="AS301">
+        <v>1.13</v>
+      </c>
+      <c r="AT301">
+        <v>2.36</v>
+      </c>
+      <c r="AU301">
+        <v>4</v>
+      </c>
+      <c r="AV301">
+        <v>13</v>
+      </c>
+      <c r="AW301">
+        <v>4</v>
+      </c>
+      <c r="AX301">
+        <v>8</v>
+      </c>
+      <c r="AY301">
+        <v>10</v>
+      </c>
+      <c r="AZ301">
+        <v>22</v>
+      </c>
+      <c r="BA301">
+        <v>2</v>
+      </c>
+      <c r="BB301">
+        <v>4</v>
+      </c>
+      <c r="BC301">
+        <v>6</v>
+      </c>
+      <c r="BD301">
+        <v>1.54</v>
+      </c>
+      <c r="BE301">
+        <v>6.5</v>
+      </c>
+      <c r="BF301">
+        <v>2.8</v>
+      </c>
+      <c r="BG301">
+        <v>1.52</v>
+      </c>
+      <c r="BH301">
+        <v>2.3</v>
+      </c>
+      <c r="BI301">
+        <v>1.88</v>
+      </c>
+      <c r="BJ301">
+        <v>1.78</v>
+      </c>
+      <c r="BK301">
+        <v>2.4</v>
+      </c>
+      <c r="BL301">
+        <v>1.48</v>
+      </c>
+      <c r="BM301">
+        <v>3.15</v>
+      </c>
+      <c r="BN301">
+        <v>1.29</v>
+      </c>
+      <c r="BO301">
+        <v>4.3</v>
+      </c>
+      <c r="BP301">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7574863</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F302">
+        <v>34</v>
+      </c>
+      <c r="G302" t="s">
+        <v>73</v>
+      </c>
+      <c r="H302" t="s">
+        <v>82</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>3</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>3</v>
+      </c>
+      <c r="O302" t="s">
+        <v>271</v>
+      </c>
+      <c r="P302" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q302">
+        <v>1.73</v>
+      </c>
+      <c r="R302">
+        <v>2.63</v>
+      </c>
+      <c r="S302">
+        <v>8</v>
+      </c>
+      <c r="T302">
+        <v>1.29</v>
+      </c>
+      <c r="U302">
+        <v>3.5</v>
+      </c>
+      <c r="V302">
+        <v>2.25</v>
+      </c>
+      <c r="W302">
+        <v>1.57</v>
+      </c>
+      <c r="X302">
+        <v>5.5</v>
+      </c>
+      <c r="Y302">
+        <v>1.14</v>
+      </c>
+      <c r="Z302">
+        <v>1.37</v>
+      </c>
+      <c r="AA302">
+        <v>5</v>
+      </c>
+      <c r="AB302">
+        <v>7</v>
+      </c>
+      <c r="AC302">
+        <v>1.03</v>
+      </c>
+      <c r="AD302">
+        <v>11</v>
+      </c>
+      <c r="AE302">
+        <v>1.2</v>
+      </c>
+      <c r="AF302">
+        <v>4.5</v>
+      </c>
+      <c r="AG302">
+        <v>1.61</v>
+      </c>
+      <c r="AH302">
+        <v>2.15</v>
+      </c>
+      <c r="AI302">
+        <v>1.95</v>
+      </c>
+      <c r="AJ302">
+        <v>1.8</v>
+      </c>
+      <c r="AK302">
+        <v>1.07</v>
+      </c>
+      <c r="AL302">
+        <v>1.11</v>
+      </c>
+      <c r="AM302">
+        <v>3.2</v>
+      </c>
+      <c r="AN302">
+        <v>2.44</v>
+      </c>
+      <c r="AO302">
+        <v>0.63</v>
+      </c>
+      <c r="AP302">
+        <v>2.47</v>
+      </c>
+      <c r="AQ302">
+        <v>0.59</v>
+      </c>
+      <c r="AR302">
+        <v>1.92</v>
+      </c>
+      <c r="AS302">
+        <v>1.34</v>
+      </c>
+      <c r="AT302">
+        <v>3.26</v>
+      </c>
+      <c r="AU302">
+        <v>5</v>
+      </c>
+      <c r="AV302">
+        <v>5</v>
+      </c>
+      <c r="AW302">
+        <v>6</v>
+      </c>
+      <c r="AX302">
+        <v>8</v>
+      </c>
+      <c r="AY302">
+        <v>13</v>
+      </c>
+      <c r="AZ302">
+        <v>13</v>
+      </c>
+      <c r="BA302">
+        <v>2</v>
+      </c>
+      <c r="BB302">
+        <v>8</v>
+      </c>
+      <c r="BC302">
+        <v>10</v>
+      </c>
+      <c r="BD302">
+        <v>1.18</v>
+      </c>
+      <c r="BE302">
+        <v>9</v>
+      </c>
+      <c r="BF302">
+        <v>5.1</v>
+      </c>
+      <c r="BG302">
+        <v>1.26</v>
+      </c>
+      <c r="BH302">
+        <v>3.4</v>
+      </c>
+      <c r="BI302">
+        <v>1.44</v>
+      </c>
+      <c r="BJ302">
+        <v>2.5</v>
+      </c>
+      <c r="BK302">
+        <v>1.71</v>
+      </c>
+      <c r="BL302">
+        <v>1.98</v>
+      </c>
+      <c r="BM302">
+        <v>2.1</v>
+      </c>
+      <c r="BN302">
+        <v>1.63</v>
+      </c>
+      <c r="BO302">
+        <v>2.63</v>
+      </c>
+      <c r="BP302">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7574860</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F303">
+        <v>34</v>
+      </c>
+      <c r="G303" t="s">
+        <v>76</v>
+      </c>
+      <c r="H303" t="s">
+        <v>79</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>2</v>
+      </c>
+      <c r="N303">
+        <v>3</v>
+      </c>
+      <c r="O303" t="s">
+        <v>272</v>
+      </c>
+      <c r="P303" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q303">
+        <v>3.4</v>
+      </c>
+      <c r="R303">
+        <v>1.95</v>
+      </c>
+      <c r="S303">
+        <v>3.6</v>
+      </c>
+      <c r="T303">
+        <v>1.53</v>
+      </c>
+      <c r="U303">
+        <v>2.38</v>
+      </c>
+      <c r="V303">
+        <v>3.5</v>
+      </c>
+      <c r="W303">
+        <v>1.29</v>
+      </c>
+      <c r="X303">
+        <v>11</v>
+      </c>
+      <c r="Y303">
+        <v>1.05</v>
+      </c>
+      <c r="Z303">
+        <v>2.6</v>
+      </c>
+      <c r="AA303">
+        <v>3.1</v>
+      </c>
+      <c r="AB303">
+        <v>2.75</v>
+      </c>
+      <c r="AC303">
+        <v>1.09</v>
+      </c>
+      <c r="AD303">
+        <v>7</v>
+      </c>
+      <c r="AE303">
+        <v>1.55</v>
+      </c>
+      <c r="AF303">
+        <v>2.45</v>
+      </c>
+      <c r="AG303">
+        <v>2.45</v>
+      </c>
+      <c r="AH303">
+        <v>1.5</v>
+      </c>
+      <c r="AI303">
+        <v>2.05</v>
+      </c>
+      <c r="AJ303">
+        <v>1.7</v>
+      </c>
+      <c r="AK303">
+        <v>1.42</v>
+      </c>
+      <c r="AL303">
+        <v>1.3</v>
+      </c>
+      <c r="AM303">
+        <v>1.48</v>
+      </c>
+      <c r="AN303">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO303">
+        <v>1.38</v>
+      </c>
+      <c r="AP303">
+        <v>0.65</v>
+      </c>
+      <c r="AQ303">
+        <v>1.47</v>
+      </c>
+      <c r="AR303">
+        <v>1.47</v>
+      </c>
+      <c r="AS303">
+        <v>1.08</v>
+      </c>
+      <c r="AT303">
+        <v>2.55</v>
+      </c>
+      <c r="AU303">
+        <v>3</v>
+      </c>
+      <c r="AV303">
+        <v>7</v>
+      </c>
+      <c r="AW303">
+        <v>9</v>
+      </c>
+      <c r="AX303">
+        <v>10</v>
+      </c>
+      <c r="AY303">
+        <v>13</v>
+      </c>
+      <c r="AZ303">
+        <v>20</v>
+      </c>
+      <c r="BA303">
+        <v>3</v>
+      </c>
+      <c r="BB303">
+        <v>6</v>
+      </c>
+      <c r="BC303">
+        <v>9</v>
+      </c>
+      <c r="BD303">
+        <v>2.07</v>
+      </c>
+      <c r="BE303">
+        <v>6.75</v>
+      </c>
+      <c r="BF303">
+        <v>1.9</v>
+      </c>
+      <c r="BG303">
+        <v>1.3</v>
+      </c>
+      <c r="BH303">
+        <v>3.1</v>
+      </c>
+      <c r="BI303">
+        <v>1.52</v>
+      </c>
+      <c r="BJ303">
+        <v>2.32</v>
+      </c>
+      <c r="BK303">
+        <v>1.85</v>
+      </c>
+      <c r="BL303">
+        <v>1.81</v>
+      </c>
+      <c r="BM303">
+        <v>2.3</v>
+      </c>
+      <c r="BN303">
+        <v>1.52</v>
+      </c>
+      <c r="BO303">
+        <v>2.9</v>
+      </c>
+      <c r="BP303">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7574865</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F304">
+        <v>34</v>
+      </c>
+      <c r="G304" t="s">
+        <v>77</v>
+      </c>
+      <c r="H304" t="s">
+        <v>83</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="N304">
+        <v>2</v>
+      </c>
+      <c r="O304" t="s">
+        <v>273</v>
+      </c>
+      <c r="P304" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q304">
+        <v>5.5</v>
+      </c>
+      <c r="R304">
+        <v>2.5</v>
+      </c>
+      <c r="S304">
+        <v>2.05</v>
+      </c>
+      <c r="T304">
+        <v>1.25</v>
+      </c>
+      <c r="U304">
+        <v>3.75</v>
+      </c>
+      <c r="V304">
+        <v>2.25</v>
+      </c>
+      <c r="W304">
+        <v>1.57</v>
+      </c>
+      <c r="X304">
+        <v>5.5</v>
+      </c>
+      <c r="Y304">
+        <v>1.14</v>
+      </c>
+      <c r="Z304">
+        <v>4</v>
+      </c>
+      <c r="AA304">
+        <v>3.9</v>
+      </c>
+      <c r="AB304">
+        <v>1.77</v>
+      </c>
+      <c r="AC304">
+        <v>1.03</v>
+      </c>
+      <c r="AD304">
+        <v>11</v>
+      </c>
+      <c r="AE304">
+        <v>1.18</v>
+      </c>
+      <c r="AF304">
+        <v>4.75</v>
+      </c>
+      <c r="AG304">
+        <v>1.57</v>
+      </c>
+      <c r="AH304">
+        <v>2.3</v>
+      </c>
+      <c r="AI304">
+        <v>1.62</v>
+      </c>
+      <c r="AJ304">
+        <v>2.2</v>
+      </c>
+      <c r="AK304">
+        <v>2.3</v>
+      </c>
+      <c r="AL304">
+        <v>1.17</v>
+      </c>
+      <c r="AM304">
+        <v>1.15</v>
+      </c>
+      <c r="AN304">
+        <v>1.94</v>
+      </c>
+      <c r="AO304">
+        <v>2.19</v>
+      </c>
+      <c r="AP304">
+        <v>1.88</v>
+      </c>
+      <c r="AQ304">
+        <v>2.12</v>
+      </c>
+      <c r="AR304">
+        <v>1.72</v>
+      </c>
+      <c r="AS304">
+        <v>1.81</v>
+      </c>
+      <c r="AT304">
+        <v>3.53</v>
+      </c>
+      <c r="AU304">
+        <v>9</v>
+      </c>
+      <c r="AV304">
+        <v>3</v>
+      </c>
+      <c r="AW304">
+        <v>11</v>
+      </c>
+      <c r="AX304">
+        <v>12</v>
+      </c>
+      <c r="AY304">
+        <v>24</v>
+      </c>
+      <c r="AZ304">
+        <v>20</v>
+      </c>
+      <c r="BA304">
+        <v>6</v>
+      </c>
+      <c r="BB304">
+        <v>6</v>
+      </c>
+      <c r="BC304">
+        <v>12</v>
+      </c>
+      <c r="BD304">
+        <v>2.95</v>
+      </c>
+      <c r="BE304">
+        <v>7</v>
+      </c>
+      <c r="BF304">
+        <v>1.46</v>
+      </c>
+      <c r="BG304">
+        <v>1.26</v>
+      </c>
+      <c r="BH304">
+        <v>3.4</v>
+      </c>
+      <c r="BI304">
+        <v>1.45</v>
+      </c>
+      <c r="BJ304">
+        <v>2.48</v>
+      </c>
+      <c r="BK304">
+        <v>1.73</v>
+      </c>
+      <c r="BL304">
+        <v>1.95</v>
+      </c>
+      <c r="BM304">
+        <v>2.12</v>
+      </c>
+      <c r="BN304">
+        <v>1.61</v>
+      </c>
+      <c r="BO304">
+        <v>2.7</v>
+      </c>
+      <c r="BP304">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7574866</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F305">
+        <v>34</v>
+      </c>
+      <c r="G305" t="s">
+        <v>70</v>
+      </c>
+      <c r="H305" t="s">
+        <v>85</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>2</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>2</v>
+      </c>
+      <c r="O305" t="s">
+        <v>274</v>
+      </c>
+      <c r="P305" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q305">
+        <v>1.67</v>
+      </c>
+      <c r="R305">
+        <v>2.75</v>
+      </c>
+      <c r="S305">
+        <v>9.5</v>
+      </c>
+      <c r="T305">
+        <v>1.29</v>
+      </c>
+      <c r="U305">
+        <v>3.5</v>
+      </c>
+      <c r="V305">
+        <v>2.25</v>
+      </c>
+      <c r="W305">
+        <v>1.57</v>
+      </c>
+      <c r="X305">
+        <v>5.5</v>
+      </c>
+      <c r="Y305">
+        <v>1.14</v>
+      </c>
+      <c r="Z305">
+        <v>1.29</v>
+      </c>
+      <c r="AA305">
+        <v>5.4</v>
+      </c>
+      <c r="AB305">
+        <v>9</v>
+      </c>
+      <c r="AC305">
+        <v>1.04</v>
+      </c>
+      <c r="AD305">
+        <v>10</v>
+      </c>
+      <c r="AE305">
+        <v>1.2</v>
+      </c>
+      <c r="AF305">
+        <v>4.33</v>
+      </c>
+      <c r="AG305">
+        <v>1.61</v>
+      </c>
+      <c r="AH305">
+        <v>2.2</v>
+      </c>
+      <c r="AI305">
+        <v>2.05</v>
+      </c>
+      <c r="AJ305">
+        <v>1.7</v>
+      </c>
+      <c r="AK305">
+        <v>1.04</v>
+      </c>
+      <c r="AL305">
+        <v>1.13</v>
+      </c>
+      <c r="AM305">
+        <v>3.6</v>
+      </c>
+      <c r="AN305">
+        <v>2.56</v>
+      </c>
+      <c r="AO305">
+        <v>1.38</v>
+      </c>
+      <c r="AP305">
+        <v>2.59</v>
+      </c>
+      <c r="AQ305">
+        <v>1.29</v>
+      </c>
+      <c r="AR305">
+        <v>2.12</v>
+      </c>
+      <c r="AS305">
+        <v>1.47</v>
+      </c>
+      <c r="AT305">
+        <v>3.59</v>
+      </c>
+      <c r="AU305">
+        <v>-1</v>
+      </c>
+      <c r="AV305">
+        <v>-1</v>
+      </c>
+      <c r="AW305">
+        <v>-1</v>
+      </c>
+      <c r="AX305">
+        <v>-1</v>
+      </c>
+      <c r="AY305">
+        <v>-1</v>
+      </c>
+      <c r="AZ305">
+        <v>-1</v>
+      </c>
+      <c r="BA305">
+        <v>-1</v>
+      </c>
+      <c r="BB305">
+        <v>-1</v>
+      </c>
+      <c r="BC305">
+        <v>-1</v>
+      </c>
+      <c r="BD305">
+        <v>1.24</v>
+      </c>
+      <c r="BE305">
+        <v>8.5</v>
+      </c>
+      <c r="BF305">
+        <v>4.35</v>
+      </c>
+      <c r="BG305">
+        <v>1.22</v>
+      </c>
+      <c r="BH305">
+        <v>3.65</v>
+      </c>
+      <c r="BI305">
+        <v>1.4</v>
+      </c>
+      <c r="BJ305">
+        <v>2.65</v>
+      </c>
+      <c r="BK305">
+        <v>1.65</v>
+      </c>
+      <c r="BL305">
+        <v>2.04</v>
+      </c>
+      <c r="BM305">
+        <v>2</v>
+      </c>
+      <c r="BN305">
+        <v>1.68</v>
+      </c>
+      <c r="BO305">
+        <v>2.55</v>
+      </c>
+      <c r="BP305">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7574861</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F306">
+        <v>34</v>
+      </c>
+      <c r="G306" t="s">
+        <v>78</v>
+      </c>
+      <c r="H306" t="s">
+        <v>86</v>
+      </c>
+      <c r="I306">
+        <v>3</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>4</v>
+      </c>
+      <c r="L306">
+        <v>4</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="N306">
+        <v>5</v>
+      </c>
+      <c r="O306" t="s">
+        <v>275</v>
+      </c>
+      <c r="P306" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q306">
+        <v>2.5</v>
+      </c>
+      <c r="R306">
+        <v>2.2</v>
+      </c>
+      <c r="S306">
+        <v>4.33</v>
+      </c>
+      <c r="T306">
+        <v>1.36</v>
+      </c>
+      <c r="U306">
+        <v>3</v>
+      </c>
+      <c r="V306">
+        <v>2.75</v>
+      </c>
+      <c r="W306">
+        <v>1.4</v>
+      </c>
+      <c r="X306">
+        <v>7</v>
+      </c>
+      <c r="Y306">
+        <v>1.1</v>
+      </c>
+      <c r="Z306">
+        <v>1.71</v>
+      </c>
+      <c r="AA306">
+        <v>3.8</v>
+      </c>
+      <c r="AB306">
+        <v>4.5</v>
+      </c>
+      <c r="AC306">
+        <v>1.05</v>
+      </c>
+      <c r="AD306">
+        <v>9.5</v>
+      </c>
+      <c r="AE306">
+        <v>1.28</v>
+      </c>
+      <c r="AF306">
+        <v>3.55</v>
+      </c>
+      <c r="AG306">
+        <v>1.85</v>
+      </c>
+      <c r="AH306">
+        <v>1.85</v>
+      </c>
+      <c r="AI306">
+        <v>1.8</v>
+      </c>
+      <c r="AJ306">
+        <v>1.95</v>
+      </c>
+      <c r="AK306">
+        <v>1.22</v>
+      </c>
+      <c r="AL306">
+        <v>1.22</v>
+      </c>
+      <c r="AM306">
+        <v>1.9</v>
+      </c>
+      <c r="AN306">
+        <v>1.13</v>
+      </c>
+      <c r="AO306">
+        <v>1.13</v>
+      </c>
+      <c r="AP306">
+        <v>1.24</v>
+      </c>
+      <c r="AQ306">
+        <v>1.06</v>
+      </c>
+      <c r="AR306">
+        <v>1.31</v>
+      </c>
+      <c r="AS306">
+        <v>0.99</v>
+      </c>
+      <c r="AT306">
+        <v>2.3</v>
+      </c>
+      <c r="AU306">
+        <v>8</v>
+      </c>
+      <c r="AV306">
+        <v>5</v>
+      </c>
+      <c r="AW306">
+        <v>9</v>
+      </c>
+      <c r="AX306">
+        <v>18</v>
+      </c>
+      <c r="AY306">
+        <v>18</v>
+      </c>
+      <c r="AZ306">
+        <v>25</v>
+      </c>
+      <c r="BA306">
+        <v>2</v>
+      </c>
+      <c r="BB306">
+        <v>11</v>
+      </c>
+      <c r="BC306">
+        <v>13</v>
+      </c>
+      <c r="BD306">
+        <v>1.47</v>
+      </c>
+      <c r="BE306">
+        <v>7</v>
+      </c>
+      <c r="BF306">
+        <v>2.95</v>
+      </c>
+      <c r="BG306">
+        <v>1.37</v>
+      </c>
+      <c r="BH306">
+        <v>2.75</v>
+      </c>
+      <c r="BI306">
+        <v>1.63</v>
+      </c>
+      <c r="BJ306">
+        <v>2.08</v>
+      </c>
+      <c r="BK306">
+        <v>2.02</v>
+      </c>
+      <c r="BL306">
+        <v>1.68</v>
+      </c>
+      <c r="BM306">
+        <v>2.6</v>
+      </c>
+      <c r="BN306">
+        <v>1.41</v>
+      </c>
+      <c r="BO306">
+        <v>3.4</v>
+      </c>
+      <c r="BP306">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7574868</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F307">
+        <v>34</v>
+      </c>
+      <c r="G307" t="s">
+        <v>74</v>
+      </c>
+      <c r="H307" t="s">
+        <v>87</v>
+      </c>
+      <c r="I307">
+        <v>4</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>4</v>
+      </c>
+      <c r="L307">
+        <v>4</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>4</v>
+      </c>
+      <c r="O307" t="s">
+        <v>276</v>
+      </c>
+      <c r="P307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q307">
+        <v>3.25</v>
+      </c>
+      <c r="R307">
+        <v>2.1</v>
+      </c>
+      <c r="S307">
+        <v>3.25</v>
+      </c>
+      <c r="T307">
+        <v>1.4</v>
+      </c>
+      <c r="U307">
+        <v>2.75</v>
+      </c>
+      <c r="V307">
+        <v>3</v>
+      </c>
+      <c r="W307">
+        <v>1.36</v>
+      </c>
+      <c r="X307">
+        <v>8</v>
+      </c>
+      <c r="Y307">
+        <v>1.08</v>
+      </c>
+      <c r="Z307">
+        <v>2.5</v>
+      </c>
+      <c r="AA307">
+        <v>3.4</v>
+      </c>
+      <c r="AB307">
+        <v>2.62</v>
+      </c>
+      <c r="AC307">
+        <v>1.06</v>
+      </c>
+      <c r="AD307">
+        <v>8.5</v>
+      </c>
+      <c r="AE307">
+        <v>1.33</v>
+      </c>
+      <c r="AF307">
+        <v>3.25</v>
+      </c>
+      <c r="AG307">
+        <v>1.91</v>
+      </c>
+      <c r="AH307">
+        <v>1.8</v>
+      </c>
+      <c r="AI307">
+        <v>1.75</v>
+      </c>
+      <c r="AJ307">
+        <v>2</v>
+      </c>
+      <c r="AK307">
+        <v>1.48</v>
+      </c>
+      <c r="AL307">
+        <v>1.25</v>
+      </c>
+      <c r="AM307">
+        <v>1.48</v>
+      </c>
+      <c r="AN307">
+        <v>1.38</v>
+      </c>
+      <c r="AO307">
+        <v>0.63</v>
+      </c>
+      <c r="AP307">
+        <v>1.47</v>
+      </c>
+      <c r="AQ307">
+        <v>0.59</v>
+      </c>
+      <c r="AR307">
+        <v>1.18</v>
+      </c>
+      <c r="AS307">
+        <v>1.1</v>
+      </c>
+      <c r="AT307">
+        <v>2.28</v>
+      </c>
+      <c r="AU307">
+        <v>-1</v>
+      </c>
+      <c r="AV307">
+        <v>-1</v>
+      </c>
+      <c r="AW307">
+        <v>-1</v>
+      </c>
+      <c r="AX307">
+        <v>-1</v>
+      </c>
+      <c r="AY307">
+        <v>-1</v>
+      </c>
+      <c r="AZ307">
+        <v>-1</v>
+      </c>
+      <c r="BA307">
+        <v>-1</v>
+      </c>
+      <c r="BB307">
+        <v>-1</v>
+      </c>
+      <c r="BC307">
+        <v>-1</v>
+      </c>
+      <c r="BD307">
+        <v>1.8</v>
+      </c>
+      <c r="BE307">
+        <v>6.75</v>
+      </c>
+      <c r="BF307">
+        <v>2.18</v>
+      </c>
+      <c r="BG307">
+        <v>1.27</v>
+      </c>
+      <c r="BH307">
+        <v>3.25</v>
+      </c>
+      <c r="BI307">
+        <v>1.48</v>
+      </c>
+      <c r="BJ307">
+        <v>2.4</v>
+      </c>
+      <c r="BK307">
+        <v>1.77</v>
+      </c>
+      <c r="BL307">
+        <v>1.89</v>
+      </c>
+      <c r="BM307">
+        <v>2.23</v>
+      </c>
+      <c r="BN307">
+        <v>1.56</v>
+      </c>
+      <c r="BO307">
+        <v>2.8</v>
+      </c>
+      <c r="BP307">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Portugal Liga NOS_20242025.xlsx
@@ -63551,13 +63551,13 @@
         <v>22</v>
       </c>
       <c r="BA301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB301">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC301">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD301">
         <v>1.54</v>
@@ -64357,31 +64357,31 @@
         <v>3.59</v>
       </c>
       <c r="AU305">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW305">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX305">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY305">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ305">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA305">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB305">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC305">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD305">
         <v>1.24</v>
@@ -64769,31 +64769,31 @@
         <v>2.28</v>
       </c>
       <c r="AU307">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV307">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW307">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX307">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY307">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ307">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA307">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB307">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC307">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD307">
         <v>1.8</v>
